--- a/name/vnindex/20230116/VNINDEX_HOSE_5p_20230116.xlsx
+++ b/name/vnindex/20230116/VNINDEX_HOSE_5p_20230116.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1673860500000</v>
+        <v>1673860440000</v>
       </c>
       <c r="B2">
-        <v>3211900</v>
+        <v>955700</v>
       </c>
       <c r="C2">
-        <v>4348400</v>
+        <v>1331800</v>
       </c>
       <c r="D2">
-        <v>4326600</v>
+        <v>4264300</v>
       </c>
       <c r="E2">
-        <v>50182069000</v>
+        <v>16145904000</v>
       </c>
       <c r="F2">
-        <v>78597249000</v>
+        <v>22488429000</v>
       </c>
       <c r="G2">
-        <v>64512719000</v>
+        <v>63354763000</v>
       </c>
       <c r="H2">
-        <v>11886900</v>
+        <v>6551800</v>
       </c>
       <c r="I2">
-        <v>193292037000</v>
+        <v>101989096000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-01-16T09:15:00.000Z</v>
+        <v>2023-01-16T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>193292037000</v>
+        <v>101989096000</v>
       </c>
       <c r="L2">
-        <v>11886900</v>
+        <v>6551800</v>
       </c>
       <c r="M2">
-        <v>1136500</v>
+        <v>376100</v>
       </c>
       <c r="N2">
-        <v>28415180000</v>
+        <v>6342525000</v>
       </c>
       <c r="O2">
-        <v>1136500</v>
+        <v>376100</v>
       </c>
       <c r="P2">
-        <v>28415180000</v>
+        <v>6342525000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1673860800000</v>
+        <v>1673860560000</v>
       </c>
       <c r="B3">
-        <v>3298100</v>
+        <v>1148300</v>
       </c>
       <c r="C3">
-        <v>7231600</v>
+        <v>1596400</v>
       </c>
       <c r="D3">
-        <v>29400</v>
+        <v>18000</v>
       </c>
       <c r="E3">
-        <v>50695126000</v>
+        <v>17623687000</v>
       </c>
       <c r="F3">
-        <v>78944406000</v>
+        <v>27514323000</v>
       </c>
       <c r="G3">
-        <v>326924000</v>
+        <v>452970000</v>
       </c>
       <c r="H3">
-        <v>10559100</v>
+        <v>2762700</v>
       </c>
       <c r="I3">
-        <v>129966456000</v>
+        <v>45590980000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-16T09:20:00.000Z</v>
+        <v>2023-01-16T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>323258493000</v>
+        <v>147580076000</v>
       </c>
       <c r="L3">
-        <v>22446000</v>
+        <v>9314500</v>
       </c>
       <c r="M3">
-        <v>3933500</v>
+        <v>448100</v>
       </c>
       <c r="N3">
-        <v>28249280000</v>
+        <v>9890636000</v>
       </c>
       <c r="O3">
-        <v>5070000</v>
+        <v>824200</v>
       </c>
       <c r="P3">
-        <v>56664460000</v>
+        <v>16233161000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1673861100000</v>
+        <v>1673860680000</v>
       </c>
       <c r="B4">
-        <v>4038800</v>
+        <v>1107900</v>
       </c>
       <c r="C4">
-        <v>2267200</v>
+        <v>1420200</v>
       </c>
       <c r="D4">
-        <v>33900</v>
+        <v>44300</v>
       </c>
       <c r="E4">
-        <v>58643622000</v>
+        <v>16412478000</v>
       </c>
       <c r="F4">
-        <v>41604500000</v>
+        <v>28594497000</v>
       </c>
       <c r="G4">
-        <v>706669000</v>
+        <v>704986000</v>
       </c>
       <c r="H4">
-        <v>6339900</v>
+        <v>2572400</v>
       </c>
       <c r="I4">
-        <v>100954791000</v>
+        <v>45711961000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-16T09:25:00.000Z</v>
+        <v>2023-01-16T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>424213284000</v>
+        <v>193292037000</v>
       </c>
       <c r="L4">
-        <v>28785900</v>
+        <v>11886900</v>
       </c>
       <c r="M4">
-        <v>-1771600</v>
+        <v>312300</v>
       </c>
       <c r="N4">
-        <v>-17039122000</v>
+        <v>12182019000</v>
       </c>
       <c r="O4">
-        <v>3298400</v>
+        <v>1136500</v>
       </c>
       <c r="P4">
-        <v>39625338000</v>
+        <v>28415180000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1673861400000</v>
+        <v>1673860800000</v>
       </c>
       <c r="B5">
-        <v>5494200</v>
+        <v>1464700</v>
       </c>
       <c r="C5">
-        <v>1502200</v>
+        <v>2873100</v>
       </c>
       <c r="D5">
-        <v>7700</v>
+        <v>3900</v>
       </c>
       <c r="E5">
-        <v>83821590000</v>
+        <v>22719075000</v>
       </c>
       <c r="F5">
-        <v>27547908000</v>
+        <v>39375285000</v>
       </c>
       <c r="G5">
-        <v>240975000</v>
+        <v>68461000</v>
       </c>
       <c r="H5">
-        <v>7004100</v>
+        <v>4341700</v>
       </c>
       <c r="I5">
-        <v>111610473000</v>
+        <v>62162821000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-16T09:30:00.000Z</v>
+        <v>2023-01-16T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>535823757000</v>
+        <v>255454858000</v>
       </c>
       <c r="L5">
-        <v>35790000</v>
+        <v>16228600</v>
       </c>
       <c r="M5">
-        <v>-3992000</v>
+        <v>1408400</v>
       </c>
       <c r="N5">
-        <v>-56273682000</v>
+        <v>16656210000</v>
       </c>
       <c r="O5">
-        <v>-693600</v>
+        <v>2544900</v>
       </c>
       <c r="P5">
-        <v>-16648344000</v>
+        <v>45071390000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1673861700000</v>
+        <v>1673860920000</v>
       </c>
       <c r="B6">
-        <v>5802600</v>
+        <v>1151600</v>
       </c>
       <c r="C6">
-        <v>1728900</v>
+        <v>3887000</v>
       </c>
       <c r="D6">
-        <v>73500</v>
+        <v>21000</v>
       </c>
       <c r="E6">
-        <v>74216744000</v>
+        <v>19212010000</v>
       </c>
       <c r="F6">
-        <v>31567845000</v>
+        <v>33070440000</v>
       </c>
       <c r="G6">
-        <v>649845000</v>
+        <v>170191000</v>
       </c>
       <c r="H6">
-        <v>7605000</v>
+        <v>5059600</v>
       </c>
       <c r="I6">
-        <v>106434434000</v>
+        <v>52452641000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-16T09:35:00.000Z</v>
+        <v>2023-01-16T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>642258191000</v>
+        <v>307907499000</v>
       </c>
       <c r="L6">
-        <v>43395000</v>
+        <v>21288200</v>
       </c>
       <c r="M6">
-        <v>-4073700</v>
+        <v>2735400</v>
       </c>
       <c r="N6">
-        <v>-42648899000</v>
+        <v>13858430000</v>
       </c>
       <c r="O6">
-        <v>-4767300</v>
+        <v>5280300</v>
       </c>
       <c r="P6">
-        <v>-59297243000</v>
+        <v>58929820000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1673862000000</v>
+        <v>1673861040000</v>
       </c>
       <c r="B7">
-        <v>2374000</v>
+        <v>1821100</v>
       </c>
       <c r="C7">
-        <v>3548000</v>
+        <v>924000</v>
       </c>
       <c r="D7">
-        <v>50600</v>
+        <v>18700</v>
       </c>
       <c r="E7">
-        <v>40370085000</v>
+        <v>25818882000</v>
       </c>
       <c r="F7">
-        <v>57772285000</v>
+        <v>14237061000</v>
       </c>
       <c r="G7">
-        <v>1511387000</v>
+        <v>458990000</v>
       </c>
       <c r="H7">
-        <v>5972600</v>
+        <v>2763800</v>
       </c>
       <c r="I7">
-        <v>99653757000</v>
+        <v>40514933000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-16T09:40:00.000Z</v>
+        <v>2023-01-16T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>741911948000</v>
+        <v>348422432000</v>
       </c>
       <c r="L7">
-        <v>49367600</v>
+        <v>24052000</v>
       </c>
       <c r="M7">
-        <v>1174000</v>
+        <v>-897100</v>
       </c>
       <c r="N7">
-        <v>17402200000</v>
+        <v>-11581821000</v>
       </c>
       <c r="O7">
-        <v>-3593300</v>
+        <v>4383200</v>
       </c>
       <c r="P7">
-        <v>-41895043000</v>
+        <v>47347999000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1673862300000</v>
+        <v>1673861160000</v>
       </c>
       <c r="B8">
-        <v>1925100</v>
+        <v>1359900</v>
       </c>
       <c r="C8">
-        <v>4072500</v>
+        <v>658100</v>
       </c>
       <c r="D8">
-        <v>42300</v>
+        <v>12700</v>
       </c>
       <c r="E8">
-        <v>28677966000</v>
+        <v>19491261000</v>
       </c>
       <c r="F8">
-        <v>68947703000</v>
+        <v>11587371000</v>
       </c>
       <c r="G8">
-        <v>682746000</v>
+        <v>147681000</v>
       </c>
       <c r="H8">
-        <v>6039900</v>
+        <v>2030700</v>
       </c>
       <c r="I8">
-        <v>98308415000</v>
+        <v>31226313000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-16T09:45:00.000Z</v>
+        <v>2023-01-16T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>840220363000</v>
+        <v>379648745000</v>
       </c>
       <c r="L8">
-        <v>55407500</v>
+        <v>26082700</v>
       </c>
       <c r="M8">
-        <v>2147400</v>
+        <v>-701800</v>
       </c>
       <c r="N8">
-        <v>40269737000</v>
+        <v>-7903890000</v>
       </c>
       <c r="O8">
-        <v>-1445900</v>
+        <v>3681400</v>
       </c>
       <c r="P8">
-        <v>-1625306000</v>
+        <v>39444109000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1673862600000</v>
+        <v>1673861280000</v>
       </c>
       <c r="B9">
-        <v>3721700</v>
+        <v>1539600</v>
       </c>
       <c r="C9">
-        <v>1898000</v>
+        <v>1156600</v>
       </c>
       <c r="D9">
-        <v>39900</v>
+        <v>7000</v>
       </c>
       <c r="E9">
-        <v>46425811000</v>
+        <v>22097520000</v>
       </c>
       <c r="F9">
-        <v>32097968000</v>
+        <v>22278749000</v>
       </c>
       <c r="G9">
-        <v>399095000</v>
+        <v>188270000</v>
       </c>
       <c r="H9">
-        <v>5659600</v>
+        <v>2703200</v>
       </c>
       <c r="I9">
-        <v>78922874000</v>
+        <v>44564539000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-16T09:50:00.000Z</v>
+        <v>2023-01-16T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>919143237000</v>
+        <v>424213284000</v>
       </c>
       <c r="L9">
-        <v>61067100</v>
+        <v>28785900</v>
       </c>
       <c r="M9">
-        <v>-1823700</v>
+        <v>-383000</v>
       </c>
       <c r="N9">
-        <v>-14327843000</v>
+        <v>181229000</v>
       </c>
       <c r="O9">
-        <v>-3269600</v>
+        <v>3298400</v>
       </c>
       <c r="P9">
-        <v>-15953149000</v>
+        <v>39625338000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1673862900000</v>
+        <v>1673861400000</v>
       </c>
       <c r="B10">
-        <v>5385300</v>
+        <v>2133400</v>
       </c>
       <c r="C10">
-        <v>2066100</v>
+        <v>561500</v>
       </c>
       <c r="D10">
-        <v>25600</v>
+        <v>1000</v>
       </c>
       <c r="E10">
-        <v>66916509000</v>
+        <v>33988522000</v>
       </c>
       <c r="F10">
-        <v>28523783000</v>
+        <v>10905299000</v>
       </c>
       <c r="G10">
-        <v>145387000</v>
+        <v>37175000</v>
       </c>
       <c r="H10">
-        <v>7477000</v>
+        <v>2695900</v>
       </c>
       <c r="I10">
-        <v>95585679000</v>
+        <v>44930996000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-16T09:55:00.000Z</v>
+        <v>2023-01-16T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1014728916000</v>
+        <v>469144280000</v>
       </c>
       <c r="L10">
-        <v>68544100</v>
+        <v>31481800</v>
       </c>
       <c r="M10">
-        <v>-3319200</v>
+        <v>-1571900</v>
       </c>
       <c r="N10">
-        <v>-38392726000</v>
+        <v>-23083223000</v>
       </c>
       <c r="O10">
-        <v>-6588800</v>
+        <v>1726500</v>
       </c>
       <c r="P10">
-        <v>-54345875000</v>
+        <v>16542115000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1673863200000</v>
+        <v>1673861520000</v>
       </c>
       <c r="B11">
-        <v>4112800</v>
+        <v>1651500</v>
       </c>
       <c r="C11">
-        <v>2467000</v>
+        <v>641700</v>
       </c>
       <c r="D11">
-        <v>43800</v>
+        <v>5000</v>
       </c>
       <c r="E11">
-        <v>62538892000</v>
+        <v>23847530000</v>
       </c>
       <c r="F11">
-        <v>44254245000</v>
+        <v>12179505000</v>
       </c>
       <c r="G11">
-        <v>458468000</v>
+        <v>159665000</v>
       </c>
       <c r="H11">
-        <v>6623600</v>
+        <v>2298200</v>
       </c>
       <c r="I11">
-        <v>107251605000</v>
+        <v>36186700000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-16T10:00:00.000Z</v>
+        <v>2023-01-16T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1121980521000</v>
+        <v>505330980000</v>
       </c>
       <c r="L11">
-        <v>75167700</v>
+        <v>33780000</v>
       </c>
       <c r="M11">
-        <v>-1645800</v>
+        <v>-1009800</v>
       </c>
       <c r="N11">
-        <v>-18284647000</v>
+        <v>-11668025000</v>
       </c>
       <c r="O11">
-        <v>-8234600</v>
+        <v>716700</v>
       </c>
       <c r="P11">
-        <v>-72630522000</v>
+        <v>4874090000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1673863500000</v>
+        <v>1673861640000</v>
       </c>
       <c r="B12">
-        <v>3290200</v>
+        <v>3399900</v>
       </c>
       <c r="C12">
-        <v>2368800</v>
+        <v>522100</v>
       </c>
       <c r="D12">
-        <v>33700</v>
+        <v>3200</v>
       </c>
       <c r="E12">
-        <v>48984168000</v>
+        <v>41827083000</v>
       </c>
       <c r="F12">
-        <v>39445248000</v>
+        <v>8554221000</v>
       </c>
       <c r="G12">
-        <v>490573000</v>
+        <v>92170000</v>
       </c>
       <c r="H12">
-        <v>5692700</v>
+        <v>3925200</v>
       </c>
       <c r="I12">
-        <v>88919989000</v>
+        <v>50473474000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-16T10:05:00.000Z</v>
+        <v>2023-01-16T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1210900510000</v>
+        <v>555804454000</v>
       </c>
       <c r="L12">
-        <v>80860400</v>
+        <v>37705200</v>
       </c>
       <c r="M12">
-        <v>-921400</v>
+        <v>-2877800</v>
       </c>
       <c r="N12">
-        <v>-9538920000</v>
+        <v>-33272862000</v>
       </c>
       <c r="O12">
-        <v>-9156000</v>
+        <v>-2161100</v>
       </c>
       <c r="P12">
-        <v>-82169442000</v>
+        <v>-28398772000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1673863800000</v>
+        <v>1673861760000</v>
       </c>
       <c r="B13">
-        <v>2540800</v>
+        <v>2668300</v>
       </c>
       <c r="C13">
-        <v>2343900</v>
+        <v>661600</v>
       </c>
       <c r="D13">
-        <v>72800</v>
+        <v>40700</v>
       </c>
       <c r="E13">
-        <v>43002960000</v>
+        <v>38438318000</v>
       </c>
       <c r="F13">
-        <v>38470873000</v>
+        <v>11505069000</v>
       </c>
       <c r="G13">
-        <v>786045000</v>
+        <v>171251000</v>
       </c>
       <c r="H13">
-        <v>4957500</v>
+        <v>3370600</v>
       </c>
       <c r="I13">
-        <v>82259878000</v>
+        <v>50114638000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-16T10:10:00.000Z</v>
+        <v>2023-01-16T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1293160388000</v>
+        <v>605919092000</v>
       </c>
       <c r="L13">
-        <v>85817900</v>
+        <v>41075800</v>
       </c>
       <c r="M13">
-        <v>-196900</v>
+        <v>-2006700</v>
       </c>
       <c r="N13">
-        <v>-4532087000</v>
+        <v>-26933249000</v>
       </c>
       <c r="O13">
-        <v>-9352900</v>
+        <v>-4167800</v>
       </c>
       <c r="P13">
-        <v>-86701529000</v>
+        <v>-55332021000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1673864100000</v>
+        <v>1673861880000</v>
       </c>
       <c r="B14">
-        <v>4759900</v>
+        <v>1443700</v>
       </c>
       <c r="C14">
-        <v>1788000</v>
+        <v>844200</v>
       </c>
       <c r="D14">
-        <v>28000</v>
+        <v>31300</v>
       </c>
       <c r="E14">
-        <v>71343563000</v>
+        <v>19936881000</v>
       </c>
       <c r="F14">
-        <v>29609115000</v>
+        <v>15971659000</v>
       </c>
       <c r="G14">
-        <v>325588000</v>
+        <v>430559000</v>
       </c>
       <c r="H14">
-        <v>6575900</v>
+        <v>2319200</v>
       </c>
       <c r="I14">
-        <v>101278266000</v>
+        <v>36339099000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-16T10:15:00.000Z</v>
+        <v>2023-01-16T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1394438654000</v>
+        <v>642258191000</v>
       </c>
       <c r="L14">
-        <v>92393800</v>
+        <v>43395000</v>
       </c>
       <c r="M14">
-        <v>-2971900</v>
+        <v>-599500</v>
       </c>
       <c r="N14">
-        <v>-41734448000</v>
+        <v>-3965222000</v>
       </c>
       <c r="O14">
-        <v>-12324800</v>
+        <v>-4767300</v>
       </c>
       <c r="P14">
-        <v>-128435977000</v>
+        <v>-59297243000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1673864400000</v>
+        <v>1673862000000</v>
       </c>
       <c r="B15">
-        <v>5812200</v>
+        <v>1151900</v>
       </c>
       <c r="C15">
-        <v>1539900</v>
+        <v>1096600</v>
       </c>
       <c r="D15">
-        <v>29400</v>
+        <v>14200</v>
       </c>
       <c r="E15">
-        <v>87787028000</v>
+        <v>21276707000</v>
       </c>
       <c r="F15">
-        <v>25647047000</v>
+        <v>17610429000</v>
       </c>
       <c r="G15">
-        <v>436448000</v>
+        <v>166307000</v>
       </c>
       <c r="H15">
-        <v>7381500</v>
+        <v>2262700</v>
       </c>
       <c r="I15">
-        <v>113870523000</v>
+        <v>39053443000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-16T10:20:00.000Z</v>
+        <v>2023-01-16T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1508309177000</v>
+        <v>681311634000</v>
       </c>
       <c r="L15">
-        <v>99775300</v>
+        <v>45657700</v>
       </c>
       <c r="M15">
-        <v>-4272300</v>
+        <v>-55300</v>
       </c>
       <c r="N15">
-        <v>-62139981000</v>
+        <v>-3666278000</v>
       </c>
       <c r="O15">
-        <v>-16597100</v>
+        <v>-4822600</v>
       </c>
       <c r="P15">
-        <v>-190575958000</v>
+        <v>-62963521000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1673864700000</v>
+        <v>1673862120000</v>
       </c>
       <c r="B16">
-        <v>3811100</v>
+        <v>795100</v>
       </c>
       <c r="C16">
-        <v>2287400</v>
+        <v>1533600</v>
       </c>
       <c r="D16">
-        <v>12100</v>
+        <v>26900</v>
       </c>
       <c r="E16">
-        <v>49520530000</v>
+        <v>13871100000</v>
       </c>
       <c r="F16">
-        <v>34998063000</v>
+        <v>23153442000</v>
       </c>
       <c r="G16">
-        <v>216100000</v>
+        <v>1107527000</v>
       </c>
       <c r="H16">
-        <v>6110600</v>
+        <v>2355600</v>
       </c>
       <c r="I16">
-        <v>84734693000</v>
+        <v>38132069000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-16T10:25:00.000Z</v>
+        <v>2023-01-16T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1593043870000</v>
+        <v>719443703000</v>
       </c>
       <c r="L16">
-        <v>105885900</v>
+        <v>48013300</v>
       </c>
       <c r="M16">
-        <v>-1523700</v>
+        <v>738500</v>
       </c>
       <c r="N16">
-        <v>-14522467000</v>
+        <v>9282342000</v>
       </c>
       <c r="O16">
-        <v>-18120800</v>
+        <v>-4084100</v>
       </c>
       <c r="P16">
-        <v>-205098425000</v>
+        <v>-53681179000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1673865000000</v>
+        <v>1673862240000</v>
       </c>
       <c r="B17">
-        <v>4430500</v>
+        <v>760300</v>
       </c>
       <c r="C17">
-        <v>1907800</v>
+        <v>2284700</v>
       </c>
       <c r="D17">
-        <v>78100</v>
+        <v>18100</v>
       </c>
       <c r="E17">
-        <v>69005305000</v>
+        <v>10297612000</v>
       </c>
       <c r="F17">
-        <v>33883791000</v>
+        <v>41796144000</v>
       </c>
       <c r="G17">
-        <v>1238069000</v>
+        <v>348987000</v>
       </c>
       <c r="H17">
-        <v>6416400</v>
+        <v>3063100</v>
       </c>
       <c r="I17">
-        <v>104127165000</v>
+        <v>52442743000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-16T10:30:00.000Z</v>
+        <v>2023-01-16T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1697171035000</v>
+        <v>771886446000</v>
       </c>
       <c r="L17">
-        <v>112302300</v>
+        <v>51076400</v>
       </c>
       <c r="M17">
-        <v>-2522700</v>
+        <v>1524400</v>
       </c>
       <c r="N17">
-        <v>-35121514000</v>
+        <v>31498532000</v>
       </c>
       <c r="O17">
-        <v>-20643500</v>
+        <v>-2559700</v>
       </c>
       <c r="P17">
-        <v>-240219939000</v>
+        <v>-22182647000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1673865300000</v>
+        <v>1673862360000</v>
       </c>
       <c r="B18">
-        <v>3663300</v>
+        <v>717400</v>
       </c>
       <c r="C18">
-        <v>1632200</v>
+        <v>1654900</v>
       </c>
       <c r="D18">
-        <v>16500</v>
+        <v>23500</v>
       </c>
       <c r="E18">
-        <v>47342162000</v>
+        <v>10498293000</v>
       </c>
       <c r="F18">
-        <v>30101782000</v>
+        <v>26504552000</v>
       </c>
       <c r="G18">
-        <v>225877000</v>
+        <v>288232000</v>
       </c>
       <c r="H18">
-        <v>5312000</v>
+        <v>2395800</v>
       </c>
       <c r="I18">
-        <v>77669821000</v>
+        <v>37291077000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-16T10:35:00.000Z</v>
+        <v>2023-01-16T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1774840856000</v>
+        <v>809177523000</v>
       </c>
       <c r="L18">
-        <v>117614300</v>
+        <v>53472200</v>
       </c>
       <c r="M18">
-        <v>-2031100</v>
+        <v>937500</v>
       </c>
       <c r="N18">
-        <v>-17240380000</v>
+        <v>16006259000</v>
       </c>
       <c r="O18">
-        <v>-22674600</v>
+        <v>-1622200</v>
       </c>
       <c r="P18">
-        <v>-257460319000</v>
+        <v>-6176388000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1673865600000</v>
+        <v>1673862480000</v>
       </c>
       <c r="B19">
-        <v>2482300</v>
+        <v>874400</v>
       </c>
       <c r="C19">
-        <v>1506100</v>
+        <v>1050700</v>
       </c>
       <c r="D19">
-        <v>16800</v>
+        <v>10200</v>
       </c>
       <c r="E19">
-        <v>43859501000</v>
+        <v>13104339000</v>
       </c>
       <c r="F19">
-        <v>29365783000</v>
+        <v>17655421000</v>
       </c>
       <c r="G19">
-        <v>301668000</v>
+        <v>283080000</v>
       </c>
       <c r="H19">
-        <v>4005200</v>
+        <v>1935300</v>
       </c>
       <c r="I19">
-        <v>73526952000</v>
+        <v>31042840000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-16T10:40:00.000Z</v>
+        <v>2023-01-16T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1848367808000</v>
+        <v>840220363000</v>
       </c>
       <c r="L19">
-        <v>121619500</v>
+        <v>55407500</v>
       </c>
       <c r="M19">
-        <v>-976200</v>
+        <v>176300</v>
       </c>
       <c r="N19">
-        <v>-14493718000</v>
+        <v>4551082000</v>
       </c>
       <c r="O19">
-        <v>-23650800</v>
+        <v>-1445900</v>
       </c>
       <c r="P19">
-        <v>-271954037000</v>
+        <v>-1625306000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1673865900000</v>
+        <v>1673862600000</v>
       </c>
       <c r="B20">
-        <v>2981500</v>
+        <v>885100</v>
       </c>
       <c r="C20">
-        <v>1913300</v>
+        <v>984000</v>
       </c>
       <c r="D20">
-        <v>7500</v>
+        <v>4200</v>
       </c>
       <c r="E20">
-        <v>45898002000</v>
+        <v>15797637000</v>
       </c>
       <c r="F20">
-        <v>31412292000</v>
+        <v>17815603000</v>
       </c>
       <c r="G20">
-        <v>182152000</v>
+        <v>56410000</v>
       </c>
       <c r="H20">
-        <v>4902300</v>
+        <v>1873300</v>
       </c>
       <c r="I20">
-        <v>77492446000</v>
+        <v>33669650000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-16T10:45:00.000Z</v>
+        <v>2023-01-16T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1925860254000</v>
+        <v>873890013000</v>
       </c>
       <c r="L20">
-        <v>126521800</v>
+        <v>57280800</v>
       </c>
       <c r="M20">
-        <v>-1068200</v>
+        <v>98900</v>
       </c>
       <c r="N20">
-        <v>-14485710000</v>
+        <v>2017966000</v>
       </c>
       <c r="O20">
-        <v>-24719000</v>
+        <v>-1347000</v>
       </c>
       <c r="P20">
-        <v>-286439747000</v>
+        <v>392660000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1673866200000</v>
+        <v>1673862720000</v>
       </c>
       <c r="B21">
-        <v>1495400</v>
+        <v>2278600</v>
       </c>
       <c r="C21">
-        <v>3115800</v>
+        <v>634700</v>
       </c>
       <c r="D21">
-        <v>27400</v>
+        <v>20700</v>
       </c>
       <c r="E21">
-        <v>26475657000</v>
+        <v>23341466000</v>
       </c>
       <c r="F21">
-        <v>49869811000</v>
+        <v>9317446000</v>
       </c>
       <c r="G21">
-        <v>560060000</v>
+        <v>109305000</v>
       </c>
       <c r="H21">
-        <v>4638600</v>
+        <v>2934000</v>
       </c>
       <c r="I21">
-        <v>76905528000</v>
+        <v>32768217000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-16T10:50:00.000Z</v>
+        <v>2023-01-16T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2002765782000</v>
+        <v>906658230000</v>
       </c>
       <c r="L21">
-        <v>131160400</v>
+        <v>60214800</v>
       </c>
       <c r="M21">
-        <v>1620400</v>
+        <v>-1643900</v>
       </c>
       <c r="N21">
-        <v>23394154000</v>
+        <v>-14024020000</v>
       </c>
       <c r="O21">
-        <v>-23098600</v>
+        <v>-2990900</v>
       </c>
       <c r="P21">
-        <v>-263045593000</v>
+        <v>-13631360000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1673866500000</v>
+        <v>1673862840000</v>
       </c>
       <c r="B22">
-        <v>2157500</v>
+        <v>1751200</v>
       </c>
       <c r="C22">
-        <v>7673900</v>
+        <v>603500</v>
       </c>
       <c r="D22">
-        <v>32400</v>
+        <v>17900</v>
       </c>
       <c r="E22">
-        <v>31236557000</v>
+        <v>25766214000</v>
       </c>
       <c r="F22">
-        <v>115991868000</v>
+        <v>10070122000</v>
       </c>
       <c r="G22">
-        <v>295796000</v>
+        <v>251576000</v>
       </c>
       <c r="H22">
-        <v>9863800</v>
+        <v>2372600</v>
       </c>
       <c r="I22">
-        <v>147524221000</v>
+        <v>36087912000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-16T10:55:00.000Z</v>
+        <v>2023-01-16T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2150290003000</v>
+        <v>942746142000</v>
       </c>
       <c r="L22">
-        <v>141024200</v>
+        <v>62587400</v>
       </c>
       <c r="M22">
-        <v>5516400</v>
+        <v>-1147700</v>
       </c>
       <c r="N22">
-        <v>84755311000</v>
+        <v>-15696092000</v>
       </c>
       <c r="O22">
-        <v>-17582200</v>
+        <v>-4138600</v>
       </c>
       <c r="P22">
-        <v>-178290282000</v>
+        <v>-29327452000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1673866800000</v>
+        <v>1673862960000</v>
       </c>
       <c r="B23">
-        <v>2321500</v>
+        <v>1893100</v>
       </c>
       <c r="C23">
-        <v>5047500</v>
+        <v>1018400</v>
       </c>
       <c r="D23">
-        <v>33300</v>
+        <v>5700</v>
       </c>
       <c r="E23">
-        <v>34335489000</v>
+        <v>19425694000</v>
       </c>
       <c r="F23">
-        <v>86038157000</v>
+        <v>13410204000</v>
       </c>
       <c r="G23">
-        <v>519058000</v>
+        <v>42931000</v>
       </c>
       <c r="H23">
-        <v>7402300</v>
+        <v>2917200</v>
       </c>
       <c r="I23">
-        <v>120892704000</v>
+        <v>32878829000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-16T11:00:00.000Z</v>
+        <v>2023-01-16T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2271182707000</v>
+        <v>975624971000</v>
       </c>
       <c r="L23">
-        <v>148426500</v>
+        <v>65504600</v>
       </c>
       <c r="M23">
-        <v>2726000</v>
+        <v>-874700</v>
       </c>
       <c r="N23">
-        <v>51702668000</v>
+        <v>-6015490000</v>
       </c>
       <c r="O23">
-        <v>-14856200</v>
+        <v>-5013300</v>
       </c>
       <c r="P23">
-        <v>-126587614000</v>
+        <v>-35342942000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1673867100000</v>
+        <v>1673863080000</v>
       </c>
       <c r="B24">
-        <v>2816000</v>
+        <v>2299000</v>
       </c>
       <c r="C24">
-        <v>2531200</v>
+        <v>723500</v>
       </c>
       <c r="D24">
-        <v>34900</v>
+        <v>17000</v>
       </c>
       <c r="E24">
-        <v>44587426000</v>
+        <v>29011309000</v>
       </c>
       <c r="F24">
-        <v>46350155000</v>
+        <v>10008376000</v>
       </c>
       <c r="G24">
-        <v>351986000</v>
+        <v>84260000</v>
       </c>
       <c r="H24">
-        <v>5382100</v>
+        <v>3039500</v>
       </c>
       <c r="I24">
-        <v>91289567000</v>
+        <v>39103945000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-16T11:05:00.000Z</v>
+        <v>2023-01-16T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2362472274000</v>
+        <v>1014728916000</v>
       </c>
       <c r="L24">
-        <v>153808600</v>
+        <v>68544100</v>
       </c>
       <c r="M24">
-        <v>-284800</v>
+        <v>-1575500</v>
       </c>
       <c r="N24">
-        <v>1762729000</v>
+        <v>-19002933000</v>
       </c>
       <c r="O24">
-        <v>-15141000</v>
+        <v>-6588800</v>
       </c>
       <c r="P24">
-        <v>-124824885000</v>
+        <v>-54345875000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1673867400000</v>
+        <v>1673863200000</v>
       </c>
       <c r="B25">
-        <v>2813800</v>
+        <v>2101700</v>
       </c>
       <c r="C25">
-        <v>2031100</v>
+        <v>1083000</v>
       </c>
       <c r="D25">
-        <v>25400</v>
+        <v>10800</v>
       </c>
       <c r="E25">
-        <v>46073923000</v>
+        <v>31469080000</v>
       </c>
       <c r="F25">
-        <v>42457211000</v>
+        <v>18185583000</v>
       </c>
       <c r="G25">
-        <v>610400000</v>
+        <v>241510000</v>
       </c>
       <c r="H25">
-        <v>4870300</v>
+        <v>3195500</v>
       </c>
       <c r="I25">
-        <v>89141534000</v>
+        <v>49896173000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-16T11:10:00.000Z</v>
+        <v>2023-01-16T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2451613808000</v>
+        <v>1064625089000</v>
       </c>
       <c r="L25">
-        <v>158678900</v>
+        <v>71739600</v>
       </c>
       <c r="M25">
-        <v>-782700</v>
+        <v>-1018700</v>
       </c>
       <c r="N25">
-        <v>-3616712000</v>
+        <v>-13283497000</v>
       </c>
       <c r="O25">
-        <v>-15923700</v>
+        <v>-7607500</v>
       </c>
       <c r="P25">
-        <v>-128441597000</v>
+        <v>-67629372000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1673867700000</v>
+        <v>1673863320000</v>
       </c>
       <c r="B26">
-        <v>2497100</v>
+        <v>1315400</v>
       </c>
       <c r="C26">
-        <v>1625700</v>
+        <v>989300</v>
       </c>
       <c r="D26">
-        <v>13000</v>
+        <v>32900</v>
       </c>
       <c r="E26">
-        <v>44700499000</v>
+        <v>20329837000</v>
       </c>
       <c r="F26">
-        <v>39278091000</v>
+        <v>20206581000</v>
       </c>
       <c r="G26">
-        <v>192860000</v>
+        <v>214613000</v>
       </c>
       <c r="H26">
-        <v>4135800</v>
+        <v>2337600</v>
       </c>
       <c r="I26">
-        <v>84171450000</v>
+        <v>40751031000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-16T11:15:00.000Z</v>
+        <v>2023-01-16T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2535785258000</v>
+        <v>1105376120000</v>
       </c>
       <c r="L26">
-        <v>162814700</v>
+        <v>74077200</v>
       </c>
       <c r="M26">
-        <v>-871400</v>
+        <v>-326100</v>
       </c>
       <c r="N26">
-        <v>-5422408000</v>
+        <v>-123256000</v>
       </c>
       <c r="O26">
-        <v>-16795100</v>
+        <v>-7933600</v>
       </c>
       <c r="P26">
-        <v>-133864005000</v>
+        <v>-67752628000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1673868000000</v>
+        <v>1673863440000</v>
       </c>
       <c r="B27">
-        <v>1884500</v>
+        <v>1441700</v>
       </c>
       <c r="C27">
-        <v>3677000</v>
+        <v>819300</v>
       </c>
       <c r="D27">
-        <v>44200</v>
+        <v>500</v>
       </c>
       <c r="E27">
-        <v>38040861000</v>
+        <v>21398476000</v>
       </c>
       <c r="F27">
-        <v>87794179000</v>
+        <v>13055511000</v>
       </c>
       <c r="G27">
-        <v>847807000</v>
+        <v>5045000</v>
       </c>
       <c r="H27">
-        <v>5605700</v>
+        <v>2261500</v>
       </c>
       <c r="I27">
-        <v>126682847000</v>
+        <v>34459032000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-16T11:20:00.000Z</v>
+        <v>2023-01-16T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2662468105000</v>
+        <v>1139835152000</v>
       </c>
       <c r="L27">
-        <v>168420400</v>
+        <v>76338700</v>
       </c>
       <c r="M27">
-        <v>1792500</v>
+        <v>-622400</v>
       </c>
       <c r="N27">
-        <v>49753318000</v>
+        <v>-8342965000</v>
       </c>
       <c r="O27">
-        <v>-15002600</v>
+        <v>-8556000</v>
       </c>
       <c r="P27">
-        <v>-84110687000</v>
+        <v>-76095593000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1673868300000</v>
+        <v>1673863560000</v>
       </c>
       <c r="B28">
-        <v>2142400</v>
+        <v>1251800</v>
       </c>
       <c r="C28">
-        <v>2630000</v>
+        <v>837100</v>
       </c>
       <c r="D28">
-        <v>9100</v>
+        <v>33000</v>
       </c>
       <c r="E28">
-        <v>40085561000</v>
+        <v>22144214000</v>
       </c>
       <c r="F28">
-        <v>57636788000</v>
+        <v>15227025000</v>
       </c>
       <c r="G28">
-        <v>388794000</v>
+        <v>477915000</v>
       </c>
       <c r="H28">
-        <v>4781500</v>
+        <v>2121900</v>
       </c>
       <c r="I28">
-        <v>98111143000</v>
+        <v>37849154000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-16T11:25:00.000Z</v>
+        <v>2023-01-16T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2760579248000</v>
+        <v>1177684306000</v>
       </c>
       <c r="L28">
-        <v>173201900</v>
+        <v>78460600</v>
       </c>
       <c r="M28">
-        <v>487600</v>
+        <v>-414700</v>
       </c>
       <c r="N28">
-        <v>17551227000</v>
+        <v>-6917189000</v>
       </c>
       <c r="O28">
-        <v>-14515000</v>
+        <v>-8970700</v>
       </c>
       <c r="P28">
-        <v>-66559460000</v>
+        <v>-83012782000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1673868600000</v>
+        <v>1673863680000</v>
       </c>
       <c r="B29">
-        <v>2000</v>
+        <v>1292400</v>
       </c>
       <c r="C29">
-        <v>8800</v>
+        <v>1107100</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E29">
-        <v>108200000</v>
+        <v>16181453000</v>
       </c>
       <c r="F29">
-        <v>351000000</v>
+        <v>17024793000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>9958000</v>
       </c>
       <c r="H29">
-        <v>10800</v>
+        <v>2399800</v>
       </c>
       <c r="I29">
-        <v>459200000</v>
+        <v>33216204000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-16T11:30:00.000Z</v>
+        <v>2023-01-16T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2761038448000</v>
+        <v>1210900510000</v>
       </c>
       <c r="L29">
-        <v>173212700</v>
+        <v>80860400</v>
       </c>
       <c r="M29">
-        <v>6800</v>
+        <v>-185300</v>
       </c>
       <c r="N29">
-        <v>242800000</v>
+        <v>843340000</v>
       </c>
       <c r="O29">
-        <v>-14508200</v>
+        <v>-9156000</v>
       </c>
       <c r="P29">
-        <v>-66316660000</v>
+        <v>-82169442000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1673874000000</v>
+        <v>1673863800000</v>
       </c>
       <c r="B30">
-        <v>4643600</v>
+        <v>966000</v>
       </c>
       <c r="C30">
-        <v>6000700</v>
+        <v>1228700</v>
       </c>
       <c r="D30">
-        <v>153100</v>
+        <v>20300</v>
       </c>
       <c r="E30">
-        <v>80549032000</v>
+        <v>15926261000</v>
       </c>
       <c r="F30">
-        <v>117375382000</v>
+        <v>20449662000</v>
       </c>
       <c r="G30">
-        <v>2592504000</v>
+        <v>294449000</v>
       </c>
       <c r="H30">
-        <v>10797400</v>
+        <v>2215000</v>
       </c>
       <c r="I30">
-        <v>200516918000</v>
+        <v>36670372000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-16T13:00:00.000Z</v>
+        <v>2023-01-16T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2961555366000</v>
+        <v>1247570882000</v>
       </c>
       <c r="L30">
-        <v>184010100</v>
+        <v>83075400</v>
       </c>
       <c r="M30">
-        <v>1357100</v>
+        <v>262700</v>
       </c>
       <c r="N30">
-        <v>36826350000</v>
+        <v>4523401000</v>
       </c>
       <c r="O30">
-        <v>-13151100</v>
+        <v>-8893300</v>
       </c>
       <c r="P30">
-        <v>-29490310000</v>
+        <v>-77646041000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1673874300000</v>
+        <v>1673863920000</v>
       </c>
       <c r="B31">
-        <v>3954700</v>
+        <v>823900</v>
       </c>
       <c r="C31">
-        <v>4808200</v>
+        <v>768200</v>
       </c>
       <c r="D31">
-        <v>41300</v>
+        <v>11100</v>
       </c>
       <c r="E31">
-        <v>67436597000</v>
+        <v>14951569000</v>
       </c>
       <c r="F31">
-        <v>82369188000</v>
+        <v>12751048000</v>
       </c>
       <c r="G31">
-        <v>1337100000</v>
+        <v>356165000</v>
       </c>
       <c r="H31">
-        <v>8804200</v>
+        <v>1603200</v>
       </c>
       <c r="I31">
-        <v>151142885000</v>
+        <v>28058782000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-16T13:05:00.000Z</v>
+        <v>2023-01-16T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3112698251000</v>
+        <v>1275629664000</v>
       </c>
       <c r="L31">
-        <v>192814300</v>
+        <v>84678600</v>
       </c>
       <c r="M31">
-        <v>853500</v>
+        <v>-55700</v>
       </c>
       <c r="N31">
-        <v>14932591000</v>
+        <v>-2200521000</v>
       </c>
       <c r="O31">
-        <v>-12297600</v>
+        <v>-8949000</v>
       </c>
       <c r="P31">
-        <v>-14557719000</v>
+        <v>-79846562000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1673874600000</v>
+        <v>1673864040000</v>
       </c>
       <c r="B32">
-        <v>3546600</v>
+        <v>1511800</v>
       </c>
       <c r="C32">
-        <v>3741300</v>
+        <v>718400</v>
       </c>
       <c r="D32">
-        <v>67000</v>
+        <v>41500</v>
       </c>
       <c r="E32">
-        <v>62354733000</v>
+        <v>22406672000</v>
       </c>
       <c r="F32">
-        <v>70931680000</v>
+        <v>11754247000</v>
       </c>
       <c r="G32">
-        <v>699639000</v>
+        <v>138191000</v>
       </c>
       <c r="H32">
-        <v>7354900</v>
+        <v>2271700</v>
       </c>
       <c r="I32">
-        <v>133986052000</v>
+        <v>34299110000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-16T13:10:00.000Z</v>
+        <v>2023-01-16T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3246684303000</v>
+        <v>1309928774000</v>
       </c>
       <c r="L32">
-        <v>200169200</v>
+        <v>86950300</v>
       </c>
       <c r="M32">
-        <v>194700</v>
+        <v>-793400</v>
       </c>
       <c r="N32">
-        <v>8576947000</v>
+        <v>-10652425000</v>
       </c>
       <c r="O32">
-        <v>-12102900</v>
+        <v>-9742400</v>
       </c>
       <c r="P32">
-        <v>-5980772000</v>
+        <v>-90498987000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1673874900000</v>
+        <v>1673864160000</v>
       </c>
       <c r="B33">
-        <v>4377100</v>
+        <v>1954300</v>
       </c>
       <c r="C33">
-        <v>2569000</v>
+        <v>998500</v>
       </c>
       <c r="D33">
-        <v>14300</v>
+        <v>23800</v>
       </c>
       <c r="E33">
-        <v>76816407000</v>
+        <v>28309623000</v>
       </c>
       <c r="F33">
-        <v>47560681000</v>
+        <v>16451864000</v>
       </c>
       <c r="G33">
-        <v>263790000</v>
+        <v>302586000</v>
       </c>
       <c r="H33">
-        <v>6960400</v>
+        <v>2976600</v>
       </c>
       <c r="I33">
-        <v>124640878000</v>
+        <v>45064073000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-16T13:15:00.000Z</v>
+        <v>2023-01-16T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3371325181000</v>
+        <v>1354992847000</v>
       </c>
       <c r="L33">
-        <v>207129600</v>
+        <v>89926900</v>
       </c>
       <c r="M33">
-        <v>-1808100</v>
+        <v>-955800</v>
       </c>
       <c r="N33">
-        <v>-29255726000</v>
+        <v>-11857759000</v>
       </c>
       <c r="O33">
-        <v>-13911000</v>
+        <v>-10698200</v>
       </c>
       <c r="P33">
-        <v>-35236498000</v>
+        <v>-102356746000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1673875200000</v>
+        <v>1673864280000</v>
       </c>
       <c r="B34">
-        <v>6364400</v>
+        <v>2044700</v>
       </c>
       <c r="C34">
-        <v>2585900</v>
+        <v>418100</v>
       </c>
       <c r="D34">
-        <v>131100</v>
+        <v>4100</v>
       </c>
       <c r="E34">
-        <v>100202642000</v>
+        <v>32752398000</v>
       </c>
       <c r="F34">
-        <v>46810968000</v>
+        <v>6673167000</v>
       </c>
       <c r="G34">
-        <v>1474117000</v>
+        <v>20242000</v>
       </c>
       <c r="H34">
-        <v>9081400</v>
+        <v>2466900</v>
       </c>
       <c r="I34">
-        <v>148487727000</v>
+        <v>39445807000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-16T13:20:00.000Z</v>
+        <v>2023-01-16T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3519812908000</v>
+        <v>1394438654000</v>
       </c>
       <c r="L34">
-        <v>216211000</v>
+        <v>92393800</v>
       </c>
       <c r="M34">
-        <v>-3778500</v>
+        <v>-1626600</v>
       </c>
       <c r="N34">
-        <v>-53391674000</v>
+        <v>-26079231000</v>
       </c>
       <c r="O34">
-        <v>-17689500</v>
+        <v>-12324800</v>
       </c>
       <c r="P34">
-        <v>-88628172000</v>
+        <v>-128435977000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1673875500000</v>
+        <v>1673864400000</v>
       </c>
       <c r="B35">
-        <v>3958000</v>
+        <v>2820400</v>
       </c>
       <c r="C35">
-        <v>2631100</v>
+        <v>400900</v>
       </c>
       <c r="D35">
-        <v>26400</v>
+        <v>28200</v>
       </c>
       <c r="E35">
-        <v>67605941000</v>
+        <v>41751304000</v>
       </c>
       <c r="F35">
-        <v>47574418000</v>
+        <v>7118882000</v>
       </c>
       <c r="G35">
-        <v>607052000</v>
+        <v>404560000</v>
       </c>
       <c r="H35">
-        <v>6615500</v>
+        <v>3249500</v>
       </c>
       <c r="I35">
-        <v>115787411000</v>
+        <v>49274746000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-16T13:25:00.000Z</v>
+        <v>2023-01-16T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3635600319000</v>
+        <v>1443713400000</v>
       </c>
       <c r="L35">
-        <v>222826500</v>
+        <v>95643300</v>
       </c>
       <c r="M35">
-        <v>-1326900</v>
+        <v>-2419500</v>
       </c>
       <c r="N35">
-        <v>-20031523000</v>
+        <v>-34632422000</v>
       </c>
       <c r="O35">
-        <v>-19016400</v>
+        <v>-14744300</v>
       </c>
       <c r="P35">
-        <v>-108659695000</v>
+        <v>-163068399000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1673875800000</v>
+        <v>1673864520000</v>
       </c>
       <c r="B36">
-        <v>2588500</v>
+        <v>1986500</v>
       </c>
       <c r="C36">
-        <v>2955900</v>
+        <v>712900</v>
       </c>
       <c r="D36">
-        <v>22100</v>
+        <v>800</v>
       </c>
       <c r="E36">
-        <v>45851070000</v>
+        <v>30830733000</v>
       </c>
       <c r="F36">
-        <v>51342905000</v>
+        <v>10879860000</v>
       </c>
       <c r="G36">
-        <v>769539000</v>
+        <v>24560000</v>
       </c>
       <c r="H36">
-        <v>5566500</v>
+        <v>2700200</v>
       </c>
       <c r="I36">
-        <v>97963514000</v>
+        <v>41735153000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-16T13:30:00.000Z</v>
+        <v>2023-01-16T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3733563833000</v>
+        <v>1485448553000</v>
       </c>
       <c r="L36">
-        <v>228393000</v>
+        <v>98343500</v>
       </c>
       <c r="M36">
-        <v>367400</v>
+        <v>-1273600</v>
       </c>
       <c r="N36">
-        <v>5491835000</v>
+        <v>-19950873000</v>
       </c>
       <c r="O36">
-        <v>-18649000</v>
+        <v>-16017900</v>
       </c>
       <c r="P36">
-        <v>-103167860000</v>
+        <v>-183019272000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1673876100000</v>
+        <v>1673864640000</v>
       </c>
       <c r="B37">
-        <v>2778000</v>
+        <v>1870200</v>
       </c>
       <c r="C37">
-        <v>5180900</v>
+        <v>815900</v>
       </c>
       <c r="D37">
-        <v>19100</v>
+        <v>400</v>
       </c>
       <c r="E37">
-        <v>48969308000</v>
+        <v>25874665000</v>
       </c>
       <c r="F37">
-        <v>91649684000</v>
+        <v>14365514000</v>
       </c>
       <c r="G37">
-        <v>274789000</v>
+        <v>7328000</v>
       </c>
       <c r="H37">
-        <v>7978000</v>
+        <v>2686500</v>
       </c>
       <c r="I37">
-        <v>140893781000</v>
+        <v>40247507000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-16T13:35:00.000Z</v>
+        <v>2023-01-16T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3874457614000</v>
+        <v>1525696060000</v>
       </c>
       <c r="L37">
-        <v>236371000</v>
+        <v>101030000</v>
       </c>
       <c r="M37">
-        <v>2402900</v>
+        <v>-1054300</v>
       </c>
       <c r="N37">
-        <v>42680376000</v>
+        <v>-11509151000</v>
       </c>
       <c r="O37">
-        <v>-16246100</v>
+        <v>-17072200</v>
       </c>
       <c r="P37">
-        <v>-60487484000</v>
+        <v>-194528423000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1673876400000</v>
+        <v>1673864760000</v>
       </c>
       <c r="B38">
-        <v>2853900</v>
+        <v>1869500</v>
       </c>
       <c r="C38">
-        <v>6112300</v>
+        <v>1055500</v>
       </c>
       <c r="D38">
-        <v>40700</v>
+        <v>5900</v>
       </c>
       <c r="E38">
-        <v>48596177000</v>
+        <v>22785499000</v>
       </c>
       <c r="F38">
-        <v>112428050000</v>
+        <v>15276542000</v>
       </c>
       <c r="G38">
-        <v>742652000</v>
+        <v>61640000</v>
       </c>
       <c r="H38">
-        <v>9006900</v>
+        <v>2930900</v>
       </c>
       <c r="I38">
-        <v>161766879000</v>
+        <v>38123681000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-16T13:40:00.000Z</v>
+        <v>2023-01-16T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4036224493000</v>
+        <v>1563819741000</v>
       </c>
       <c r="L38">
-        <v>245377900</v>
+        <v>103960900</v>
       </c>
       <c r="M38">
-        <v>3258400</v>
+        <v>-814000</v>
       </c>
       <c r="N38">
-        <v>63831873000</v>
+        <v>-7508957000</v>
       </c>
       <c r="O38">
-        <v>-12987700</v>
+        <v>-17886200</v>
       </c>
       <c r="P38">
-        <v>3344389000</v>
+        <v>-202037380000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1673876700000</v>
+        <v>1673864880000</v>
       </c>
       <c r="B39">
-        <v>3625900</v>
+        <v>1076700</v>
       </c>
       <c r="C39">
-        <v>13494700</v>
+        <v>842100</v>
       </c>
       <c r="D39">
-        <v>139200</v>
+        <v>6200</v>
       </c>
       <c r="E39">
-        <v>67465262000</v>
+        <v>16065357000</v>
       </c>
       <c r="F39">
-        <v>234863198000</v>
+        <v>13004312000</v>
       </c>
       <c r="G39">
-        <v>1893127000</v>
+        <v>154460000</v>
       </c>
       <c r="H39">
-        <v>17259800</v>
+        <v>1925000</v>
       </c>
       <c r="I39">
-        <v>304221587000</v>
+        <v>29224129000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-16T13:45:00.000Z</v>
+        <v>2023-01-16T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4340446080000</v>
+        <v>1593043870000</v>
       </c>
       <c r="L39">
-        <v>262637700</v>
+        <v>105885900</v>
       </c>
       <c r="M39">
-        <v>9868800</v>
+        <v>-234600</v>
       </c>
       <c r="N39">
-        <v>167397936000</v>
+        <v>-3061045000</v>
       </c>
       <c r="O39">
-        <v>-3118900</v>
+        <v>-18120800</v>
       </c>
       <c r="P39">
-        <v>170742325000</v>
+        <v>-205098425000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1673877000000</v>
+        <v>1673865000000</v>
       </c>
       <c r="B40">
-        <v>5461000</v>
+        <v>1766400</v>
       </c>
       <c r="C40">
-        <v>3645400</v>
+        <v>764000</v>
       </c>
       <c r="D40">
-        <v>33200</v>
+        <v>17400</v>
       </c>
       <c r="E40">
-        <v>96294070000</v>
+        <v>31375817000</v>
       </c>
       <c r="F40">
-        <v>67298216000</v>
+        <v>13425639000</v>
       </c>
       <c r="G40">
-        <v>724142000</v>
+        <v>265627000</v>
       </c>
       <c r="H40">
-        <v>9139600</v>
+        <v>2547800</v>
       </c>
       <c r="I40">
-        <v>164316428000</v>
+        <v>45067083000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-16T13:50:00.000Z</v>
+        <v>2023-01-16T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>4504762508000</v>
+        <v>1638110953000</v>
       </c>
       <c r="L40">
-        <v>271777300</v>
+        <v>108433700</v>
       </c>
       <c r="M40">
-        <v>-1815600</v>
+        <v>-1002400</v>
       </c>
       <c r="N40">
-        <v>-28995854000</v>
+        <v>-17950178000</v>
       </c>
       <c r="O40">
-        <v>-4934500</v>
+        <v>-19123200</v>
       </c>
       <c r="P40">
-        <v>141746471000</v>
+        <v>-223048603000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1673877300000</v>
+        <v>1673865120000</v>
       </c>
       <c r="B41">
-        <v>2875300</v>
+        <v>1730900</v>
       </c>
       <c r="C41">
-        <v>3189600</v>
+        <v>793200</v>
       </c>
       <c r="D41">
-        <v>13600</v>
+        <v>21500</v>
       </c>
       <c r="E41">
-        <v>50761849000</v>
+        <v>26292889000</v>
       </c>
       <c r="F41">
-        <v>65815116000</v>
+        <v>14327317000</v>
       </c>
       <c r="G41">
-        <v>306051000</v>
+        <v>578223000</v>
       </c>
       <c r="H41">
-        <v>6078500</v>
+        <v>2545600</v>
       </c>
       <c r="I41">
-        <v>116883016000</v>
+        <v>41198429000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-16T13:55:00.000Z</v>
+        <v>2023-01-16T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>4621645524000</v>
+        <v>1679309382000</v>
       </c>
       <c r="L41">
-        <v>277855800</v>
+        <v>110979300</v>
       </c>
       <c r="M41">
-        <v>314300</v>
+        <v>-937700</v>
       </c>
       <c r="N41">
-        <v>15053267000</v>
+        <v>-11965572000</v>
       </c>
       <c r="O41">
-        <v>-4620200</v>
+        <v>-20060900</v>
       </c>
       <c r="P41">
-        <v>156799738000</v>
+        <v>-235014175000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1673877600000</v>
+        <v>1673865240000</v>
       </c>
       <c r="B42">
-        <v>2757200</v>
+        <v>1544300</v>
       </c>
       <c r="C42">
-        <v>10227100</v>
+        <v>664400</v>
       </c>
       <c r="D42">
-        <v>75600</v>
+        <v>53100</v>
       </c>
       <c r="E42">
-        <v>54133092000</v>
+        <v>20200199000</v>
       </c>
       <c r="F42">
-        <v>201036476000</v>
+        <v>11271248000</v>
       </c>
       <c r="G42">
-        <v>2306578000</v>
+        <v>575085000</v>
       </c>
       <c r="H42">
-        <v>13059900</v>
+        <v>2261800</v>
       </c>
       <c r="I42">
-        <v>257476146000</v>
+        <v>32046532000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-16T14:00:00.000Z</v>
+        <v>2023-01-16T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>4879121670000</v>
+        <v>1711355914000</v>
       </c>
       <c r="L42">
-        <v>290915700</v>
+        <v>113241100</v>
       </c>
       <c r="M42">
-        <v>7469900</v>
+        <v>-879900</v>
       </c>
       <c r="N42">
-        <v>146903384000</v>
+        <v>-8928951000</v>
       </c>
       <c r="O42">
-        <v>2849700</v>
+        <v>-20940800</v>
       </c>
       <c r="P42">
-        <v>303703122000</v>
+        <v>-243943126000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1673877900000</v>
+        <v>1673865360000</v>
       </c>
       <c r="B43">
-        <v>4400200</v>
+        <v>1743000</v>
       </c>
       <c r="C43">
-        <v>13837300</v>
+        <v>642300</v>
       </c>
       <c r="D43">
-        <v>147300</v>
+        <v>2300</v>
       </c>
       <c r="E43">
-        <v>76464256000</v>
+        <v>20998712000</v>
       </c>
       <c r="F43">
-        <v>254916843000</v>
+        <v>13377092000</v>
       </c>
       <c r="G43">
-        <v>1927494000</v>
+        <v>24841000</v>
       </c>
       <c r="H43">
-        <v>18384800</v>
+        <v>2387600</v>
       </c>
       <c r="I43">
-        <v>333308593000</v>
+        <v>34400645000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-16T14:05:00.000Z</v>
+        <v>2023-01-16T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>5212430263000</v>
+        <v>1745756559000</v>
       </c>
       <c r="L43">
-        <v>309300500</v>
+        <v>115628700</v>
       </c>
       <c r="M43">
-        <v>9437100</v>
+        <v>-1100700</v>
       </c>
       <c r="N43">
-        <v>178452587000</v>
+        <v>-7621620000</v>
       </c>
       <c r="O43">
-        <v>12286800</v>
+        <v>-22041500</v>
       </c>
       <c r="P43">
-        <v>482155709000</v>
+        <v>-251564746000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1673878200000</v>
+        <v>1673865480000</v>
       </c>
       <c r="B44">
-        <v>8357800</v>
+        <v>1309200</v>
       </c>
       <c r="C44">
-        <v>4445000</v>
+        <v>676100</v>
       </c>
       <c r="D44">
-        <v>66600</v>
+        <v>300</v>
       </c>
       <c r="E44">
-        <v>139095312000</v>
+        <v>17479850000</v>
       </c>
       <c r="F44">
-        <v>85899717000</v>
+        <v>11584277000</v>
       </c>
       <c r="G44">
-        <v>1325682000</v>
+        <v>20170000</v>
       </c>
       <c r="H44">
-        <v>12869400</v>
+        <v>1985600</v>
       </c>
       <c r="I44">
-        <v>226320711000</v>
+        <v>29084297000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-16T14:10:00.000Z</v>
+        <v>2023-01-16T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>5438750974000</v>
+        <v>1774840856000</v>
       </c>
       <c r="L44">
-        <v>322169900</v>
+        <v>117614300</v>
       </c>
       <c r="M44">
-        <v>-3912800</v>
+        <v>-633100</v>
       </c>
       <c r="N44">
-        <v>-53195595000</v>
+        <v>-5895573000</v>
       </c>
       <c r="O44">
-        <v>8374000</v>
+        <v>-22674600</v>
       </c>
       <c r="P44">
-        <v>428960114000</v>
+        <v>-257460319000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1673878500000</v>
+        <v>1673865600000</v>
       </c>
       <c r="B45">
-        <v>4013000</v>
+        <v>998600</v>
       </c>
       <c r="C45">
-        <v>4055500</v>
+        <v>443600</v>
       </c>
       <c r="D45">
-        <v>62800</v>
+        <v>2900</v>
       </c>
       <c r="E45">
-        <v>73779690000</v>
+        <v>17146250000</v>
       </c>
       <c r="F45">
-        <v>79352566000</v>
+        <v>8541535000</v>
       </c>
       <c r="G45">
-        <v>1479501000</v>
+        <v>75449000</v>
       </c>
       <c r="H45">
-        <v>8131300</v>
+        <v>1445100</v>
       </c>
       <c r="I45">
-        <v>154611757000</v>
+        <v>25763234000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-16T14:15:00.000Z</v>
+        <v>2023-01-16T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>5593362731000</v>
+        <v>1800604090000</v>
       </c>
       <c r="L45">
-        <v>330301200</v>
+        <v>119059400</v>
       </c>
       <c r="M45">
-        <v>42500</v>
+        <v>-555000</v>
       </c>
       <c r="N45">
-        <v>5572876000</v>
+        <v>-8604715000</v>
       </c>
       <c r="O45">
-        <v>8416500</v>
+        <v>-23229600</v>
       </c>
       <c r="P45">
-        <v>434532990000</v>
+        <v>-266065034000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1673878800000</v>
+        <v>1673865720000</v>
       </c>
       <c r="B46">
-        <v>7341600</v>
+        <v>1080100</v>
       </c>
       <c r="C46">
-        <v>6390500</v>
+        <v>678300</v>
       </c>
       <c r="D46">
-        <v>45600</v>
+        <v>10800</v>
       </c>
       <c r="E46">
-        <v>119837314000</v>
+        <v>18618046000</v>
       </c>
       <c r="F46">
-        <v>119297223000</v>
+        <v>12795405000</v>
       </c>
       <c r="G46">
-        <v>955014000</v>
+        <v>210544000</v>
       </c>
       <c r="H46">
-        <v>13777700</v>
+        <v>1769200</v>
       </c>
       <c r="I46">
-        <v>240089551000</v>
+        <v>31623995000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-16T14:20:00.000Z</v>
+        <v>2023-01-16T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>5833452282000</v>
+        <v>1832228085000</v>
       </c>
       <c r="L46">
-        <v>344078900</v>
+        <v>120828600</v>
       </c>
       <c r="M46">
-        <v>-951100</v>
+        <v>-401800</v>
       </c>
       <c r="N46">
-        <v>-540091000</v>
+        <v>-5822641000</v>
       </c>
       <c r="O46">
-        <v>7465400</v>
+        <v>-23631400</v>
       </c>
       <c r="P46">
-        <v>433992899000</v>
+        <v>-271887675000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1673879100000</v>
+        <v>1673865840000</v>
       </c>
       <c r="B47">
-        <v>10845100</v>
+        <v>858100</v>
       </c>
       <c r="C47">
-        <v>6005000</v>
+        <v>796800</v>
       </c>
       <c r="D47">
-        <v>79300</v>
+        <v>5500</v>
       </c>
       <c r="E47">
-        <v>176812985000</v>
+        <v>16133085000</v>
       </c>
       <c r="F47">
-        <v>105780133000</v>
+        <v>14625765000</v>
       </c>
       <c r="G47">
-        <v>1658474000</v>
+        <v>143355000</v>
       </c>
       <c r="H47">
-        <v>16929400</v>
+        <v>1660400</v>
       </c>
       <c r="I47">
-        <v>284251592000</v>
+        <v>30902205000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-16T14:25:00.000Z</v>
+        <v>2023-01-16T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>6117703874000</v>
+        <v>1863130290000</v>
       </c>
       <c r="L47">
-        <v>361008300</v>
+        <v>122489000</v>
       </c>
       <c r="M47">
-        <v>-4840100</v>
+        <v>-61300</v>
       </c>
       <c r="N47">
-        <v>-71032852000</v>
+        <v>-1507320000</v>
       </c>
       <c r="O47">
-        <v>2625300</v>
+        <v>-23692700</v>
       </c>
       <c r="P47">
-        <v>362960047000</v>
+        <v>-273394995000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1673879400000</v>
+        <v>1673865960000</v>
       </c>
       <c r="B48">
-        <v>7200</v>
+        <v>1239400</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>813400</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E48">
-        <v>54130000</v>
+        <v>19138314000</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>13116234000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>44648000</v>
       </c>
       <c r="H48">
-        <v>7200</v>
+        <v>2056300</v>
       </c>
       <c r="I48">
-        <v>54130000</v>
+        <v>32299196000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-16T14:30:00.000Z</v>
+        <v>2023-01-16T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>6117758004000</v>
+        <v>1895429486000</v>
       </c>
       <c r="L48">
-        <v>361015500</v>
+        <v>124545300</v>
       </c>
       <c r="M48">
-        <v>-7200</v>
+        <v>-426000</v>
       </c>
       <c r="N48">
-        <v>-54130000</v>
+        <v>-6022080000</v>
       </c>
       <c r="O48">
-        <v>2618100</v>
+        <v>-24118700</v>
       </c>
       <c r="P48">
-        <v>362905917000</v>
+        <v>-279417075000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1673880300000</v>
+        <v>1673866080000</v>
       </c>
       <c r="B49">
+        <v>1287600</v>
+      </c>
+      <c r="C49">
+        <v>687300</v>
+      </c>
+      <c r="D49">
+        <v>1600</v>
+      </c>
+      <c r="E49">
+        <v>18721808000</v>
+      </c>
+      <c r="F49">
+        <v>11699136000</v>
+      </c>
+      <c r="G49">
+        <v>9824000</v>
+      </c>
+      <c r="H49">
+        <v>1976500</v>
+      </c>
+      <c r="I49">
+        <v>30430768000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-01-16T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>1925860254000</v>
+      </c>
+      <c r="L49">
+        <v>126521800</v>
+      </c>
+      <c r="M49">
+        <v>-600300</v>
+      </c>
+      <c r="N49">
+        <v>-7022672000</v>
+      </c>
+      <c r="O49">
+        <v>-24719000</v>
+      </c>
+      <c r="P49">
+        <v>-286439747000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1673866200000</v>
+      </c>
+      <c r="B50">
+        <v>563200</v>
+      </c>
+      <c r="C50">
+        <v>695600</v>
+      </c>
+      <c r="D50">
+        <v>16600</v>
+      </c>
+      <c r="E50">
+        <v>9694417000</v>
+      </c>
+      <c r="F50">
+        <v>14763957000</v>
+      </c>
+      <c r="G50">
+        <v>330155000</v>
+      </c>
+      <c r="H50">
+        <v>1275400</v>
+      </c>
+      <c r="I50">
+        <v>24788529000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-01-16T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>1950648783000</v>
+      </c>
+      <c r="L50">
+        <v>127797200</v>
+      </c>
+      <c r="M50">
+        <v>132400</v>
+      </c>
+      <c r="N50">
+        <v>5069540000</v>
+      </c>
+      <c r="O50">
+        <v>-24586600</v>
+      </c>
+      <c r="P50">
+        <v>-281370207000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1673866320000</v>
+      </c>
+      <c r="B51">
+        <v>641400</v>
+      </c>
+      <c r="C51">
+        <v>1164200</v>
+      </c>
+      <c r="D51">
+        <v>1700</v>
+      </c>
+      <c r="E51">
+        <v>11889225000</v>
+      </c>
+      <c r="F51">
+        <v>18038066000</v>
+      </c>
+      <c r="G51">
+        <v>47905000</v>
+      </c>
+      <c r="H51">
+        <v>1807300</v>
+      </c>
+      <c r="I51">
+        <v>29975196000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-01-16T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>1980623979000</v>
+      </c>
+      <c r="L51">
+        <v>129604500</v>
+      </c>
+      <c r="M51">
+        <v>522800</v>
+      </c>
+      <c r="N51">
+        <v>6148841000</v>
+      </c>
+      <c r="O51">
+        <v>-24063800</v>
+      </c>
+      <c r="P51">
+        <v>-275221366000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1673866440000</v>
+      </c>
+      <c r="B52">
+        <v>505000</v>
+      </c>
+      <c r="C52">
+        <v>2699000</v>
+      </c>
+      <c r="D52">
+        <v>10500</v>
+      </c>
+      <c r="E52">
+        <v>7939599000</v>
+      </c>
+      <c r="F52">
+        <v>37958896000</v>
+      </c>
+      <c r="G52">
+        <v>193620000</v>
+      </c>
+      <c r="H52">
+        <v>3214500</v>
+      </c>
+      <c r="I52">
+        <v>46092115000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-01-16T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>2026716094000</v>
+      </c>
+      <c r="L52">
+        <v>132819000</v>
+      </c>
+      <c r="M52">
+        <v>2194000</v>
+      </c>
+      <c r="N52">
+        <v>30019297000</v>
+      </c>
+      <c r="O52">
+        <v>-21869800</v>
+      </c>
+      <c r="P52">
+        <v>-245202069000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1673866560000</v>
+      </c>
+      <c r="B53">
+        <v>875400</v>
+      </c>
+      <c r="C53">
+        <v>2470000</v>
+      </c>
+      <c r="D53">
+        <v>22500</v>
+      </c>
+      <c r="E53">
+        <v>12806530000</v>
+      </c>
+      <c r="F53">
+        <v>40315711000</v>
+      </c>
+      <c r="G53">
+        <v>186160000</v>
+      </c>
+      <c r="H53">
+        <v>3367900</v>
+      </c>
+      <c r="I53">
+        <v>53308401000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-01-16T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>2080024495000</v>
+      </c>
+      <c r="L53">
+        <v>136186900</v>
+      </c>
+      <c r="M53">
+        <v>1594600</v>
+      </c>
+      <c r="N53">
+        <v>27509181000</v>
+      </c>
+      <c r="O53">
+        <v>-20275200</v>
+      </c>
+      <c r="P53">
+        <v>-217692888000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1673866680000</v>
+      </c>
+      <c r="B54">
+        <v>1067900</v>
+      </c>
+      <c r="C54">
+        <v>3760900</v>
+      </c>
+      <c r="D54">
+        <v>8500</v>
+      </c>
+      <c r="E54">
+        <v>15382443000</v>
+      </c>
+      <c r="F54">
+        <v>54785049000</v>
+      </c>
+      <c r="G54">
+        <v>98016000</v>
+      </c>
+      <c r="H54">
+        <v>4837300</v>
+      </c>
+      <c r="I54">
+        <v>70265508000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-16T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>2150290003000</v>
+      </c>
+      <c r="L54">
+        <v>141024200</v>
+      </c>
+      <c r="M54">
+        <v>2693000</v>
+      </c>
+      <c r="N54">
+        <v>39402606000</v>
+      </c>
+      <c r="O54">
+        <v>-17582200</v>
+      </c>
+      <c r="P54">
+        <v>-178290282000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1673866800000</v>
+      </c>
+      <c r="B55">
+        <v>911600</v>
+      </c>
+      <c r="C55">
+        <v>2888100</v>
+      </c>
+      <c r="D55">
+        <v>21300</v>
+      </c>
+      <c r="E55">
+        <v>11668407000</v>
+      </c>
+      <c r="F55">
+        <v>48209211000</v>
+      </c>
+      <c r="G55">
+        <v>436749000</v>
+      </c>
+      <c r="H55">
+        <v>3821000</v>
+      </c>
+      <c r="I55">
+        <v>60314367000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-16T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>2210604370000</v>
+      </c>
+      <c r="L55">
+        <v>144845200</v>
+      </c>
+      <c r="M55">
+        <v>1976500</v>
+      </c>
+      <c r="N55">
+        <v>36540804000</v>
+      </c>
+      <c r="O55">
+        <v>-15605700</v>
+      </c>
+      <c r="P55">
+        <v>-141749478000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1673866920000</v>
+      </c>
+      <c r="B56">
+        <v>1114600</v>
+      </c>
+      <c r="C56">
+        <v>1768700</v>
+      </c>
+      <c r="D56">
+        <v>11600</v>
+      </c>
+      <c r="E56">
+        <v>17983030000</v>
+      </c>
+      <c r="F56">
+        <v>30511706000</v>
+      </c>
+      <c r="G56">
+        <v>72799000</v>
+      </c>
+      <c r="H56">
+        <v>2894900</v>
+      </c>
+      <c r="I56">
+        <v>48567535000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-16T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>2259171905000</v>
+      </c>
+      <c r="L56">
+        <v>147740100</v>
+      </c>
+      <c r="M56">
+        <v>654100</v>
+      </c>
+      <c r="N56">
+        <v>12528676000</v>
+      </c>
+      <c r="O56">
+        <v>-14951600</v>
+      </c>
+      <c r="P56">
+        <v>-129220802000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1673867040000</v>
+      </c>
+      <c r="B57">
+        <v>1026400</v>
+      </c>
+      <c r="C57">
+        <v>1180900</v>
+      </c>
+      <c r="D57">
+        <v>20400</v>
+      </c>
+      <c r="E57">
+        <v>17601901000</v>
+      </c>
+      <c r="F57">
+        <v>21561618000</v>
+      </c>
+      <c r="G57">
+        <v>189910000</v>
+      </c>
+      <c r="H57">
+        <v>2227700</v>
+      </c>
+      <c r="I57">
+        <v>39353429000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-16T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>2298525334000</v>
+      </c>
+      <c r="L57">
+        <v>149967800</v>
+      </c>
+      <c r="M57">
+        <v>154500</v>
+      </c>
+      <c r="N57">
+        <v>3959717000</v>
+      </c>
+      <c r="O57">
+        <v>-14797100</v>
+      </c>
+      <c r="P57">
+        <v>-125261085000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1673867160000</v>
+      </c>
+      <c r="B58">
+        <v>1145100</v>
+      </c>
+      <c r="C58">
+        <v>912400</v>
+      </c>
+      <c r="D58">
+        <v>14900</v>
+      </c>
+      <c r="E58">
+        <v>16301020000</v>
+      </c>
+      <c r="F58">
+        <v>15744554000</v>
+      </c>
+      <c r="G58">
+        <v>171586000</v>
+      </c>
+      <c r="H58">
+        <v>2072400</v>
+      </c>
+      <c r="I58">
+        <v>32217160000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-16T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>2330742494000</v>
+      </c>
+      <c r="L58">
+        <v>152040200</v>
+      </c>
+      <c r="M58">
+        <v>-232700</v>
+      </c>
+      <c r="N58">
+        <v>-556466000</v>
+      </c>
+      <c r="O58">
+        <v>-15029800</v>
+      </c>
+      <c r="P58">
+        <v>-125817551000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1673867280000</v>
+      </c>
+      <c r="B59">
+        <v>939800</v>
+      </c>
+      <c r="C59">
+        <v>828600</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>15368557000</v>
+      </c>
+      <c r="F59">
+        <v>16361223000</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1768400</v>
+      </c>
+      <c r="I59">
+        <v>31729780000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-16T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>2362472274000</v>
+      </c>
+      <c r="L59">
+        <v>153808600</v>
+      </c>
+      <c r="M59">
+        <v>-111200</v>
+      </c>
+      <c r="N59">
+        <v>992666000</v>
+      </c>
+      <c r="O59">
+        <v>-15141000</v>
+      </c>
+      <c r="P59">
+        <v>-124824885000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1673867400000</v>
+      </c>
+      <c r="B60">
+        <v>934300</v>
+      </c>
+      <c r="C60">
+        <v>784100</v>
+      </c>
+      <c r="D60">
+        <v>16800</v>
+      </c>
+      <c r="E60">
+        <v>14015394000</v>
+      </c>
+      <c r="F60">
+        <v>16505884000</v>
+      </c>
+      <c r="G60">
+        <v>200278000</v>
+      </c>
+      <c r="H60">
+        <v>1735200</v>
+      </c>
+      <c r="I60">
+        <v>30721556000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-16T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>2393193830000</v>
+      </c>
+      <c r="L60">
+        <v>155543800</v>
+      </c>
+      <c r="M60">
+        <v>-150200</v>
+      </c>
+      <c r="N60">
+        <v>2490490000</v>
+      </c>
+      <c r="O60">
+        <v>-15291200</v>
+      </c>
+      <c r="P60">
+        <v>-122334395000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1673867520000</v>
+      </c>
+      <c r="B61">
+        <v>1321300</v>
+      </c>
+      <c r="C61">
+        <v>742900</v>
+      </c>
+      <c r="D61">
+        <v>8200</v>
+      </c>
+      <c r="E61">
+        <v>22252562000</v>
+      </c>
+      <c r="F61">
+        <v>17084810000</v>
+      </c>
+      <c r="G61">
+        <v>409086000</v>
+      </c>
+      <c r="H61">
+        <v>2072400</v>
+      </c>
+      <c r="I61">
+        <v>39746458000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-16T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>2432940288000</v>
+      </c>
+      <c r="L61">
+        <v>157616200</v>
+      </c>
+      <c r="M61">
+        <v>-578400</v>
+      </c>
+      <c r="N61">
+        <v>-5167752000</v>
+      </c>
+      <c r="O61">
+        <v>-15869600</v>
+      </c>
+      <c r="P61">
+        <v>-127502147000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1673867640000</v>
+      </c>
+      <c r="B62">
+        <v>1122400</v>
+      </c>
+      <c r="C62">
+        <v>742700</v>
+      </c>
+      <c r="D62">
+        <v>400</v>
+      </c>
+      <c r="E62">
+        <v>20981379000</v>
+      </c>
+      <c r="F62">
+        <v>14033513000</v>
+      </c>
+      <c r="G62">
+        <v>1036000</v>
+      </c>
+      <c r="H62">
+        <v>1865500</v>
+      </c>
+      <c r="I62">
+        <v>35015928000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-16T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>2467956216000</v>
+      </c>
+      <c r="L62">
+        <v>159481700</v>
+      </c>
+      <c r="M62">
+        <v>-379700</v>
+      </c>
+      <c r="N62">
+        <v>-6947866000</v>
+      </c>
+      <c r="O62">
+        <v>-16249300</v>
+      </c>
+      <c r="P62">
+        <v>-134450013000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1673867760000</v>
+      </c>
+      <c r="B63">
+        <v>1201900</v>
+      </c>
+      <c r="C63">
+        <v>470900</v>
+      </c>
+      <c r="D63">
+        <v>13000</v>
+      </c>
+      <c r="E63">
+        <v>19831285000</v>
+      </c>
+      <c r="F63">
+        <v>9149973000</v>
+      </c>
+      <c r="G63">
+        <v>192860000</v>
+      </c>
+      <c r="H63">
+        <v>1685800</v>
+      </c>
+      <c r="I63">
+        <v>29174118000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-16T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>2497130334000</v>
+      </c>
+      <c r="L63">
+        <v>161167500</v>
+      </c>
+      <c r="M63">
+        <v>-731000</v>
+      </c>
+      <c r="N63">
+        <v>-10681312000</v>
+      </c>
+      <c r="O63">
+        <v>-16980300</v>
+      </c>
+      <c r="P63">
+        <v>-145131325000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1673867880000</v>
+      </c>
+      <c r="B64">
+        <v>731000</v>
+      </c>
+      <c r="C64">
+        <v>916200</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>13693802000</v>
+      </c>
+      <c r="F64">
+        <v>24961122000</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1647200</v>
+      </c>
+      <c r="I64">
+        <v>38654924000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-16T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>2535785258000</v>
+      </c>
+      <c r="L64">
+        <v>162814700</v>
+      </c>
+      <c r="M64">
+        <v>185200</v>
+      </c>
+      <c r="N64">
+        <v>11267320000</v>
+      </c>
+      <c r="O64">
+        <v>-16795100</v>
+      </c>
+      <c r="P64">
+        <v>-133864005000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1673868000000</v>
+      </c>
+      <c r="B65">
+        <v>636600</v>
+      </c>
+      <c r="C65">
+        <v>1275000</v>
+      </c>
+      <c r="D65">
+        <v>500</v>
+      </c>
+      <c r="E65">
+        <v>12955200000</v>
+      </c>
+      <c r="F65">
+        <v>35275481000</v>
+      </c>
+      <c r="G65">
+        <v>3082000</v>
+      </c>
+      <c r="H65">
+        <v>1912100</v>
+      </c>
+      <c r="I65">
+        <v>48233763000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-16T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>2584019021000</v>
+      </c>
+      <c r="L65">
+        <v>164726800</v>
+      </c>
+      <c r="M65">
+        <v>638400</v>
+      </c>
+      <c r="N65">
+        <v>22320281000</v>
+      </c>
+      <c r="O65">
+        <v>-16156700</v>
+      </c>
+      <c r="P65">
+        <v>-111543724000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1673868120000</v>
+      </c>
+      <c r="B66">
+        <v>806900</v>
+      </c>
+      <c r="C66">
+        <v>1410300</v>
+      </c>
+      <c r="D66">
+        <v>43700</v>
+      </c>
+      <c r="E66">
+        <v>15541613000</v>
+      </c>
+      <c r="F66">
+        <v>32796998000</v>
+      </c>
+      <c r="G66">
+        <v>844725000</v>
+      </c>
+      <c r="H66">
+        <v>2260900</v>
+      </c>
+      <c r="I66">
+        <v>49183336000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-16T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>2633202357000</v>
+      </c>
+      <c r="L66">
+        <v>166987700</v>
+      </c>
+      <c r="M66">
+        <v>603400</v>
+      </c>
+      <c r="N66">
+        <v>17255385000</v>
+      </c>
+      <c r="O66">
+        <v>-15553300</v>
+      </c>
+      <c r="P66">
+        <v>-94288339000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1673868240000</v>
+      </c>
+      <c r="B67">
+        <v>1063900</v>
+      </c>
+      <c r="C67">
+        <v>1745900</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>19129126000</v>
+      </c>
+      <c r="F67">
+        <v>34208677000</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>2809800</v>
+      </c>
+      <c r="I67">
+        <v>53337803000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-16T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>2686540160000</v>
+      </c>
+      <c r="L67">
+        <v>169797500</v>
+      </c>
+      <c r="M67">
+        <v>682000</v>
+      </c>
+      <c r="N67">
+        <v>15079551000</v>
+      </c>
+      <c r="O67">
+        <v>-14871300</v>
+      </c>
+      <c r="P67">
+        <v>-79208788000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1673868360000</v>
+      </c>
+      <c r="B68">
+        <v>1147000</v>
+      </c>
+      <c r="C68">
+        <v>1097600</v>
+      </c>
+      <c r="D68">
+        <v>9100</v>
+      </c>
+      <c r="E68">
+        <v>23788799000</v>
+      </c>
+      <c r="F68">
+        <v>25196314000</v>
+      </c>
+      <c r="G68">
+        <v>388794000</v>
+      </c>
+      <c r="H68">
+        <v>2253700</v>
+      </c>
+      <c r="I68">
+        <v>49373907000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-16T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>2735914067000</v>
+      </c>
+      <c r="L68">
+        <v>172051200</v>
+      </c>
+      <c r="M68">
+        <v>-49400</v>
+      </c>
+      <c r="N68">
+        <v>1407515000</v>
+      </c>
+      <c r="O68">
+        <v>-14920700</v>
+      </c>
+      <c r="P68">
+        <v>-77801273000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1673868480000</v>
+      </c>
+      <c r="B69">
+        <v>372500</v>
+      </c>
+      <c r="C69">
+        <v>778200</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>6711684000</v>
+      </c>
+      <c r="F69">
+        <v>17953497000</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1150700</v>
+      </c>
+      <c r="I69">
+        <v>24665181000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-16T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>2760579248000</v>
+      </c>
+      <c r="L69">
+        <v>173201900</v>
+      </c>
+      <c r="M69">
+        <v>405700</v>
+      </c>
+      <c r="N69">
+        <v>11241813000</v>
+      </c>
+      <c r="O69">
+        <v>-14515000</v>
+      </c>
+      <c r="P69">
+        <v>-66559460000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1673868600000</v>
+      </c>
+      <c r="B70">
+        <v>2000</v>
+      </c>
+      <c r="C70">
+        <v>8800</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>108200000</v>
+      </c>
+      <c r="F70">
+        <v>351000000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>10800</v>
+      </c>
+      <c r="I70">
+        <v>459200000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-16T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>2761038448000</v>
+      </c>
+      <c r="L70">
+        <v>173212700</v>
+      </c>
+      <c r="M70">
+        <v>6800</v>
+      </c>
+      <c r="N70">
+        <v>242800000</v>
+      </c>
+      <c r="O70">
+        <v>-14508200</v>
+      </c>
+      <c r="P70">
+        <v>-66316660000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1673874000000</v>
+      </c>
+      <c r="B71">
+        <v>2753800</v>
+      </c>
+      <c r="C71">
+        <v>3480000</v>
+      </c>
+      <c r="D71">
+        <v>125000</v>
+      </c>
+      <c r="E71">
+        <v>46004209000</v>
+      </c>
+      <c r="F71">
+        <v>66020473000</v>
+      </c>
+      <c r="G71">
+        <v>2327181000</v>
+      </c>
+      <c r="H71">
+        <v>6358800</v>
+      </c>
+      <c r="I71">
+        <v>114351863000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-16T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>2875390311000</v>
+      </c>
+      <c r="L71">
+        <v>179571500</v>
+      </c>
+      <c r="M71">
+        <v>726200</v>
+      </c>
+      <c r="N71">
+        <v>20016264000</v>
+      </c>
+      <c r="O71">
+        <v>-13782000</v>
+      </c>
+      <c r="P71">
+        <v>-46300396000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1673874120000</v>
+      </c>
+      <c r="B72">
+        <v>1281300</v>
+      </c>
+      <c r="C72">
+        <v>1982400</v>
+      </c>
+      <c r="D72">
+        <v>27400</v>
+      </c>
+      <c r="E72">
+        <v>24721947000</v>
+      </c>
+      <c r="F72">
+        <v>40639268000</v>
+      </c>
+      <c r="G72">
+        <v>259030000</v>
+      </c>
+      <c r="H72">
+        <v>3291100</v>
+      </c>
+      <c r="I72">
+        <v>65620245000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-16T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>2941010556000</v>
+      </c>
+      <c r="L72">
+        <v>182862600</v>
+      </c>
+      <c r="M72">
+        <v>701100</v>
+      </c>
+      <c r="N72">
+        <v>15917321000</v>
+      </c>
+      <c r="O72">
+        <v>-13080900</v>
+      </c>
+      <c r="P72">
+        <v>-30383075000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1673874240000</v>
+      </c>
+      <c r="B73">
+        <v>1260700</v>
+      </c>
+      <c r="C73">
+        <v>1477000</v>
+      </c>
+      <c r="D73">
+        <v>6800</v>
+      </c>
+      <c r="E73">
+        <v>20459370000</v>
+      </c>
+      <c r="F73">
+        <v>25319882000</v>
+      </c>
+      <c r="G73">
+        <v>230553000</v>
+      </c>
+      <c r="H73">
+        <v>2744500</v>
+      </c>
+      <c r="I73">
+        <v>46009805000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-16T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>2987020361000</v>
+      </c>
+      <c r="L73">
+        <v>185607100</v>
+      </c>
+      <c r="M73">
+        <v>216300</v>
+      </c>
+      <c r="N73">
+        <v>4860512000</v>
+      </c>
+      <c r="O73">
+        <v>-12864600</v>
+      </c>
+      <c r="P73">
+        <v>-25522563000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1673874360000</v>
+      </c>
+      <c r="B74">
+        <v>1239600</v>
+      </c>
+      <c r="C74">
+        <v>1497900</v>
+      </c>
+      <c r="D74">
+        <v>7000</v>
+      </c>
+      <c r="E74">
+        <v>22034310000</v>
+      </c>
+      <c r="F74">
+        <v>29451570000</v>
+      </c>
+      <c r="G74">
+        <v>160505000</v>
+      </c>
+      <c r="H74">
+        <v>2744500</v>
+      </c>
+      <c r="I74">
+        <v>51646385000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-16T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>3038666746000</v>
+      </c>
+      <c r="L74">
+        <v>188351600</v>
+      </c>
+      <c r="M74">
+        <v>258300</v>
+      </c>
+      <c r="N74">
+        <v>7417260000</v>
+      </c>
+      <c r="O74">
+        <v>-12606300</v>
+      </c>
+      <c r="P74">
+        <v>-18105303000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1673874480000</v>
+      </c>
+      <c r="B75">
+        <v>2062900</v>
+      </c>
+      <c r="C75">
+        <v>2371600</v>
+      </c>
+      <c r="D75">
+        <v>28200</v>
+      </c>
+      <c r="E75">
+        <v>34765793000</v>
+      </c>
+      <c r="F75">
+        <v>38313377000</v>
+      </c>
+      <c r="G75">
+        <v>952335000</v>
+      </c>
+      <c r="H75">
+        <v>4462700</v>
+      </c>
+      <c r="I75">
+        <v>74031505000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-16T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>3112698251000</v>
+      </c>
+      <c r="L75">
+        <v>192814300</v>
+      </c>
+      <c r="M75">
+        <v>308700</v>
+      </c>
+      <c r="N75">
+        <v>3547584000</v>
+      </c>
+      <c r="O75">
+        <v>-12297600</v>
+      </c>
+      <c r="P75">
+        <v>-14557719000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1673874600000</v>
+      </c>
+      <c r="B76">
+        <v>1506900</v>
+      </c>
+      <c r="C76">
+        <v>1769300</v>
+      </c>
+      <c r="D76">
+        <v>7300</v>
+      </c>
+      <c r="E76">
+        <v>26825744000</v>
+      </c>
+      <c r="F76">
+        <v>36182448000</v>
+      </c>
+      <c r="G76">
+        <v>219460000</v>
+      </c>
+      <c r="H76">
+        <v>3283500</v>
+      </c>
+      <c r="I76">
+        <v>63227652000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-16T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>3175925903000</v>
+      </c>
+      <c r="L76">
+        <v>196097800</v>
+      </c>
+      <c r="M76">
+        <v>262400</v>
+      </c>
+      <c r="N76">
+        <v>9356704000</v>
+      </c>
+      <c r="O76">
+        <v>-12035200</v>
+      </c>
+      <c r="P76">
+        <v>-5201015000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1673874720000</v>
+      </c>
+      <c r="B77">
+        <v>1202500</v>
+      </c>
+      <c r="C77">
+        <v>1133400</v>
+      </c>
+      <c r="D77">
+        <v>59000</v>
+      </c>
+      <c r="E77">
+        <v>21237791000</v>
+      </c>
+      <c r="F77">
+        <v>20123155000</v>
+      </c>
+      <c r="G77">
+        <v>465491000</v>
+      </c>
+      <c r="H77">
+        <v>2394900</v>
+      </c>
+      <c r="I77">
+        <v>41826437000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-16T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>3217752340000</v>
+      </c>
+      <c r="L77">
+        <v>198492700</v>
+      </c>
+      <c r="M77">
+        <v>-69100</v>
+      </c>
+      <c r="N77">
+        <v>-1114636000</v>
+      </c>
+      <c r="O77">
+        <v>-12104300</v>
+      </c>
+      <c r="P77">
+        <v>-6315651000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1673874840000</v>
+      </c>
+      <c r="B78">
+        <v>1810800</v>
+      </c>
+      <c r="C78">
+        <v>1329300</v>
+      </c>
+      <c r="D78">
+        <v>1500</v>
+      </c>
+      <c r="E78">
+        <v>31885672000</v>
+      </c>
+      <c r="F78">
+        <v>22673742000</v>
+      </c>
+      <c r="G78">
+        <v>21843000</v>
+      </c>
+      <c r="H78">
+        <v>3141600</v>
+      </c>
+      <c r="I78">
+        <v>54581257000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-16T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>3272333597000</v>
+      </c>
+      <c r="L78">
+        <v>201634300</v>
+      </c>
+      <c r="M78">
+        <v>-481500</v>
+      </c>
+      <c r="N78">
+        <v>-9211930000</v>
+      </c>
+      <c r="O78">
+        <v>-12585800</v>
+      </c>
+      <c r="P78">
+        <v>-15527581000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1673874960000</v>
+      </c>
+      <c r="B79">
+        <v>1431400</v>
+      </c>
+      <c r="C79">
+        <v>1062300</v>
+      </c>
+      <c r="D79">
+        <v>6400</v>
+      </c>
+      <c r="E79">
+        <v>26614727000</v>
+      </c>
+      <c r="F79">
+        <v>21700707000</v>
+      </c>
+      <c r="G79">
+        <v>78778000</v>
+      </c>
+      <c r="H79">
+        <v>2500100</v>
+      </c>
+      <c r="I79">
+        <v>48394212000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-16T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>3320727809000</v>
+      </c>
+      <c r="L79">
+        <v>204134400</v>
+      </c>
+      <c r="M79">
+        <v>-369100</v>
+      </c>
+      <c r="N79">
+        <v>-4914020000</v>
+      </c>
+      <c r="O79">
+        <v>-12954900</v>
+      </c>
+      <c r="P79">
+        <v>-20441601000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1673875080000</v>
+      </c>
+      <c r="B80">
+        <v>1972100</v>
+      </c>
+      <c r="C80">
+        <v>1016000</v>
+      </c>
+      <c r="D80">
+        <v>7100</v>
+      </c>
+      <c r="E80">
+        <v>32607206000</v>
+      </c>
+      <c r="F80">
+        <v>17812309000</v>
+      </c>
+      <c r="G80">
+        <v>177857000</v>
+      </c>
+      <c r="H80">
+        <v>2995200</v>
+      </c>
+      <c r="I80">
+        <v>50597372000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-16T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>3371325181000</v>
+      </c>
+      <c r="L80">
+        <v>207129600</v>
+      </c>
+      <c r="M80">
+        <v>-956100</v>
+      </c>
+      <c r="N80">
+        <v>-14794897000</v>
+      </c>
+      <c r="O80">
+        <v>-13911000</v>
+      </c>
+      <c r="P80">
+        <v>-35236498000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1673875200000</v>
+      </c>
+      <c r="B81">
+        <v>3270800</v>
+      </c>
+      <c r="C81">
+        <v>917100</v>
+      </c>
+      <c r="D81">
+        <v>123400</v>
+      </c>
+      <c r="E81">
+        <v>49233892000</v>
+      </c>
+      <c r="F81">
+        <v>18102468000</v>
+      </c>
+      <c r="G81">
+        <v>1200168000</v>
+      </c>
+      <c r="H81">
+        <v>4311300</v>
+      </c>
+      <c r="I81">
+        <v>68536528000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-16T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>3439861709000</v>
+      </c>
+      <c r="L81">
+        <v>211440900</v>
+      </c>
+      <c r="M81">
+        <v>-2353700</v>
+      </c>
+      <c r="N81">
+        <v>-31131424000</v>
+      </c>
+      <c r="O81">
+        <v>-16264700</v>
+      </c>
+      <c r="P81">
+        <v>-66367922000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1673875320000</v>
+      </c>
+      <c r="B82">
+        <v>1921400</v>
+      </c>
+      <c r="C82">
+        <v>1134800</v>
+      </c>
+      <c r="D82">
+        <v>4300</v>
+      </c>
+      <c r="E82">
+        <v>32566764000</v>
+      </c>
+      <c r="F82">
+        <v>19383211000</v>
+      </c>
+      <c r="G82">
+        <v>148061000</v>
+      </c>
+      <c r="H82">
+        <v>3060500</v>
+      </c>
+      <c r="I82">
+        <v>52098036000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-16T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>3491959745000</v>
+      </c>
+      <c r="L82">
+        <v>214501400</v>
+      </c>
+      <c r="M82">
+        <v>-786600</v>
+      </c>
+      <c r="N82">
+        <v>-13183553000</v>
+      </c>
+      <c r="O82">
+        <v>-17051300</v>
+      </c>
+      <c r="P82">
+        <v>-79551475000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1673875440000</v>
+      </c>
+      <c r="B83">
+        <v>2162000</v>
+      </c>
+      <c r="C83">
+        <v>1027100</v>
+      </c>
+      <c r="D83">
+        <v>17300</v>
+      </c>
+      <c r="E83">
+        <v>35571512000</v>
+      </c>
+      <c r="F83">
+        <v>17366689000</v>
+      </c>
+      <c r="G83">
+        <v>562308000</v>
+      </c>
+      <c r="H83">
+        <v>3206400</v>
+      </c>
+      <c r="I83">
+        <v>53500509000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-16T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>3545460254000</v>
+      </c>
+      <c r="L83">
+        <v>217707800</v>
+      </c>
+      <c r="M83">
+        <v>-1134900</v>
+      </c>
+      <c r="N83">
+        <v>-18204823000</v>
+      </c>
+      <c r="O83">
+        <v>-18186200</v>
+      </c>
+      <c r="P83">
+        <v>-97756298000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1673875560000</v>
+      </c>
+      <c r="B84">
+        <v>1323000</v>
+      </c>
+      <c r="C84">
+        <v>1010700</v>
+      </c>
+      <c r="D84">
+        <v>4300</v>
+      </c>
+      <c r="E84">
+        <v>22223078000</v>
+      </c>
+      <c r="F84">
+        <v>20142036000</v>
+      </c>
+      <c r="G84">
+        <v>43242000</v>
+      </c>
+      <c r="H84">
+        <v>2338000</v>
+      </c>
+      <c r="I84">
+        <v>42408356000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-16T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>3587868610000</v>
+      </c>
+      <c r="L84">
+        <v>220045800</v>
+      </c>
+      <c r="M84">
+        <v>-312300</v>
+      </c>
+      <c r="N84">
+        <v>-2081042000</v>
+      </c>
+      <c r="O84">
+        <v>-18498500</v>
+      </c>
+      <c r="P84">
+        <v>-99837340000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1673875680000</v>
+      </c>
+      <c r="B85">
+        <v>1645200</v>
+      </c>
+      <c r="C85">
+        <v>1127300</v>
+      </c>
+      <c r="D85">
+        <v>8200</v>
+      </c>
+      <c r="E85">
+        <v>28213337000</v>
+      </c>
+      <c r="F85">
+        <v>19390982000</v>
+      </c>
+      <c r="G85">
+        <v>127390000</v>
+      </c>
+      <c r="H85">
+        <v>2780700</v>
+      </c>
+      <c r="I85">
+        <v>47731709000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-16T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>3635600319000</v>
+      </c>
+      <c r="L85">
+        <v>222826500</v>
+      </c>
+      <c r="M85">
+        <v>-517900</v>
+      </c>
+      <c r="N85">
+        <v>-8822355000</v>
+      </c>
+      <c r="O85">
+        <v>-19016400</v>
+      </c>
+      <c r="P85">
+        <v>-108659695000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1673875800000</v>
+      </c>
+      <c r="B86">
+        <v>1033900</v>
+      </c>
+      <c r="C86">
+        <v>1285600</v>
+      </c>
+      <c r="D86">
+        <v>19900</v>
+      </c>
+      <c r="E86">
+        <v>20569815000</v>
+      </c>
+      <c r="F86">
+        <v>23160125000</v>
+      </c>
+      <c r="G86">
+        <v>725096000</v>
+      </c>
+      <c r="H86">
+        <v>2339400</v>
+      </c>
+      <c r="I86">
+        <v>44455036000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-16T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>3680055355000</v>
+      </c>
+      <c r="L86">
+        <v>225165900</v>
+      </c>
+      <c r="M86">
+        <v>251700</v>
+      </c>
+      <c r="N86">
+        <v>2590310000</v>
+      </c>
+      <c r="O86">
+        <v>-18764700</v>
+      </c>
+      <c r="P86">
+        <v>-106069385000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1673875920000</v>
+      </c>
+      <c r="B87">
+        <v>961800</v>
+      </c>
+      <c r="C87">
+        <v>916400</v>
+      </c>
+      <c r="D87">
+        <v>1400</v>
+      </c>
+      <c r="E87">
+        <v>16488724000</v>
+      </c>
+      <c r="F87">
+        <v>15089466000</v>
+      </c>
+      <c r="G87">
+        <v>29565000</v>
+      </c>
+      <c r="H87">
+        <v>1879600</v>
+      </c>
+      <c r="I87">
+        <v>31607755000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-16T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>3711663110000</v>
+      </c>
+      <c r="L87">
+        <v>227045500</v>
+      </c>
+      <c r="M87">
+        <v>-45400</v>
+      </c>
+      <c r="N87">
+        <v>-1399258000</v>
+      </c>
+      <c r="O87">
+        <v>-18810100</v>
+      </c>
+      <c r="P87">
+        <v>-107468643000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1673876040000</v>
+      </c>
+      <c r="B88">
+        <v>1203700</v>
+      </c>
+      <c r="C88">
+        <v>2368300</v>
+      </c>
+      <c r="D88">
+        <v>1600</v>
+      </c>
+      <c r="E88">
+        <v>18834263000</v>
+      </c>
+      <c r="F88">
+        <v>36937337000</v>
+      </c>
+      <c r="G88">
+        <v>29162000</v>
+      </c>
+      <c r="H88">
+        <v>3573600</v>
+      </c>
+      <c r="I88">
+        <v>55800762000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-16T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>3767463872000</v>
+      </c>
+      <c r="L88">
+        <v>230619100</v>
+      </c>
+      <c r="M88">
+        <v>1164600</v>
+      </c>
+      <c r="N88">
+        <v>18103074000</v>
+      </c>
+      <c r="O88">
+        <v>-17645500</v>
+      </c>
+      <c r="P88">
+        <v>-89365569000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1673876160000</v>
+      </c>
+      <c r="B89">
+        <v>1201900</v>
+      </c>
+      <c r="C89">
+        <v>1625000</v>
+      </c>
+      <c r="D89">
+        <v>14000</v>
+      </c>
+      <c r="E89">
+        <v>20705480000</v>
+      </c>
+      <c r="F89">
+        <v>30329508000</v>
+      </c>
+      <c r="G89">
+        <v>185863000</v>
+      </c>
+      <c r="H89">
+        <v>2840900</v>
+      </c>
+      <c r="I89">
+        <v>51220851000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-16T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>3818684723000</v>
+      </c>
+      <c r="L89">
+        <v>233460000</v>
+      </c>
+      <c r="M89">
+        <v>423100</v>
+      </c>
+      <c r="N89">
+        <v>9624028000</v>
+      </c>
+      <c r="O89">
+        <v>-17222400</v>
+      </c>
+      <c r="P89">
+        <v>-79741541000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1673876280000</v>
+      </c>
+      <c r="B90">
+        <v>965200</v>
+      </c>
+      <c r="C90">
+        <v>1941500</v>
+      </c>
+      <c r="D90">
+        <v>4300</v>
+      </c>
+      <c r="E90">
+        <v>18222096000</v>
+      </c>
+      <c r="F90">
+        <v>37476153000</v>
+      </c>
+      <c r="G90">
+        <v>74642000</v>
+      </c>
+      <c r="H90">
+        <v>2911000</v>
+      </c>
+      <c r="I90">
+        <v>55772891000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-16T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>3874457614000</v>
+      </c>
+      <c r="L90">
+        <v>236371000</v>
+      </c>
+      <c r="M90">
+        <v>976300</v>
+      </c>
+      <c r="N90">
+        <v>19254057000</v>
+      </c>
+      <c r="O90">
+        <v>-16246100</v>
+      </c>
+      <c r="P90">
+        <v>-60487484000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1673876400000</v>
+      </c>
+      <c r="B91">
+        <v>1053600</v>
+      </c>
+      <c r="C91">
+        <v>2364000</v>
+      </c>
+      <c r="D91">
+        <v>1700</v>
+      </c>
+      <c r="E91">
+        <v>18450004000</v>
+      </c>
+      <c r="F91">
+        <v>38986220000</v>
+      </c>
+      <c r="G91">
+        <v>16952000</v>
+      </c>
+      <c r="H91">
+        <v>3419300</v>
+      </c>
+      <c r="I91">
+        <v>57453176000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-16T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>3931910790000</v>
+      </c>
+      <c r="L91">
+        <v>239790300</v>
+      </c>
+      <c r="M91">
+        <v>1310400</v>
+      </c>
+      <c r="N91">
+        <v>20536216000</v>
+      </c>
+      <c r="O91">
+        <v>-14935700</v>
+      </c>
+      <c r="P91">
+        <v>-39951268000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1673876520000</v>
+      </c>
+      <c r="B92">
+        <v>1293300</v>
+      </c>
+      <c r="C92">
+        <v>2076700</v>
+      </c>
+      <c r="D92">
+        <v>36400</v>
+      </c>
+      <c r="E92">
+        <v>22305220000</v>
+      </c>
+      <c r="F92">
+        <v>42247464000</v>
+      </c>
+      <c r="G92">
+        <v>660395000</v>
+      </c>
+      <c r="H92">
+        <v>3406400</v>
+      </c>
+      <c r="I92">
+        <v>65213079000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-16T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>3997123869000</v>
+      </c>
+      <c r="L92">
+        <v>243196700</v>
+      </c>
+      <c r="M92">
+        <v>783400</v>
+      </c>
+      <c r="N92">
+        <v>19942244000</v>
+      </c>
+      <c r="O92">
+        <v>-14152300</v>
+      </c>
+      <c r="P92">
+        <v>-20009024000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1673876640000</v>
+      </c>
+      <c r="B93">
+        <v>911200</v>
+      </c>
+      <c r="C93">
+        <v>3542400</v>
+      </c>
+      <c r="D93">
+        <v>92900</v>
+      </c>
+      <c r="E93">
+        <v>14296616000</v>
+      </c>
+      <c r="F93">
+        <v>65425512000</v>
+      </c>
+      <c r="G93">
+        <v>736845000</v>
+      </c>
+      <c r="H93">
+        <v>4546500</v>
+      </c>
+      <c r="I93">
+        <v>80458973000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-16T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>4077582842000</v>
+      </c>
+      <c r="L93">
+        <v>247743200</v>
+      </c>
+      <c r="M93">
+        <v>2631200</v>
+      </c>
+      <c r="N93">
+        <v>51128896000</v>
+      </c>
+      <c r="O93">
+        <v>-11521100</v>
+      </c>
+      <c r="P93">
+        <v>31119872000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1673876760000</v>
+      </c>
+      <c r="B94">
+        <v>1106400</v>
+      </c>
+      <c r="C94">
+        <v>6363300</v>
+      </c>
+      <c r="D94">
+        <v>37400</v>
+      </c>
+      <c r="E94">
+        <v>22235300000</v>
+      </c>
+      <c r="F94">
+        <v>118236949000</v>
+      </c>
+      <c r="G94">
+        <v>563337000</v>
+      </c>
+      <c r="H94">
+        <v>7507100</v>
+      </c>
+      <c r="I94">
+        <v>141035586000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-16T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>4218618428000</v>
+      </c>
+      <c r="L94">
+        <v>255250300</v>
+      </c>
+      <c r="M94">
+        <v>5256900</v>
+      </c>
+      <c r="N94">
+        <v>96001649000</v>
+      </c>
+      <c r="O94">
+        <v>-6264200</v>
+      </c>
+      <c r="P94">
+        <v>127121521000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1673876880000</v>
+      </c>
+      <c r="B95">
+        <v>2115300</v>
+      </c>
+      <c r="C95">
+        <v>5260600</v>
+      </c>
+      <c r="D95">
+        <v>11500</v>
+      </c>
+      <c r="E95">
+        <v>38774299000</v>
+      </c>
+      <c r="F95">
+        <v>82395103000</v>
+      </c>
+      <c r="G95">
+        <v>658250000</v>
+      </c>
+      <c r="H95">
+        <v>7387400</v>
+      </c>
+      <c r="I95">
+        <v>121827652000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-16T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>4340446080000</v>
+      </c>
+      <c r="L95">
+        <v>262637700</v>
+      </c>
+      <c r="M95">
+        <v>3145300</v>
+      </c>
+      <c r="N95">
+        <v>43620804000</v>
+      </c>
+      <c r="O95">
+        <v>-3118900</v>
+      </c>
+      <c r="P95">
+        <v>170742325000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1673877000000</v>
+      </c>
+      <c r="B96">
+        <v>2436300</v>
+      </c>
+      <c r="C96">
+        <v>1442300</v>
+      </c>
+      <c r="D96">
+        <v>23900</v>
+      </c>
+      <c r="E96">
+        <v>43658226000</v>
+      </c>
+      <c r="F96">
+        <v>24410427000</v>
+      </c>
+      <c r="G96">
+        <v>391889000</v>
+      </c>
+      <c r="H96">
+        <v>3902500</v>
+      </c>
+      <c r="I96">
+        <v>68460542000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-16T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>4408906622000</v>
+      </c>
+      <c r="L96">
+        <v>266540200</v>
+      </c>
+      <c r="M96">
+        <v>-994000</v>
+      </c>
+      <c r="N96">
+        <v>-19247799000</v>
+      </c>
+      <c r="O96">
+        <v>-4112900</v>
+      </c>
+      <c r="P96">
+        <v>151494526000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1673877120000</v>
+      </c>
+      <c r="B97">
+        <v>2284900</v>
+      </c>
+      <c r="C97">
+        <v>1547600</v>
+      </c>
+      <c r="D97">
+        <v>6600</v>
+      </c>
+      <c r="E97">
+        <v>38099229000</v>
+      </c>
+      <c r="F97">
+        <v>30551123000</v>
+      </c>
+      <c r="G97">
+        <v>225930000</v>
+      </c>
+      <c r="H97">
+        <v>3839100</v>
+      </c>
+      <c r="I97">
+        <v>68876282000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-16T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>4477782904000</v>
+      </c>
+      <c r="L97">
+        <v>270379300</v>
+      </c>
+      <c r="M97">
+        <v>-737300</v>
+      </c>
+      <c r="N97">
+        <v>-7548106000</v>
+      </c>
+      <c r="O97">
+        <v>-4850200</v>
+      </c>
+      <c r="P97">
+        <v>143946420000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1673877240000</v>
+      </c>
+      <c r="B98">
+        <v>1400100</v>
+      </c>
+      <c r="C98">
+        <v>1432100</v>
+      </c>
+      <c r="D98">
+        <v>7200</v>
+      </c>
+      <c r="E98">
+        <v>25822534000</v>
+      </c>
+      <c r="F98">
+        <v>25863182000</v>
+      </c>
+      <c r="G98">
+        <v>161999000</v>
+      </c>
+      <c r="H98">
+        <v>2839400</v>
+      </c>
+      <c r="I98">
+        <v>51847715000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-16T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>4529630619000</v>
+      </c>
+      <c r="L98">
+        <v>273218700</v>
+      </c>
+      <c r="M98">
+        <v>32000</v>
+      </c>
+      <c r="N98">
+        <v>40648000</v>
+      </c>
+      <c r="O98">
+        <v>-4818200</v>
+      </c>
+      <c r="P98">
+        <v>143987068000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1673877360000</v>
+      </c>
+      <c r="B99">
+        <v>1231400</v>
+      </c>
+      <c r="C99">
+        <v>1110400</v>
+      </c>
+      <c r="D99">
+        <v>5000</v>
+      </c>
+      <c r="E99">
+        <v>22100747000</v>
+      </c>
+      <c r="F99">
+        <v>23047493000</v>
+      </c>
+      <c r="G99">
+        <v>92535000</v>
+      </c>
+      <c r="H99">
+        <v>2346800</v>
+      </c>
+      <c r="I99">
+        <v>45240775000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-16T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>4574871394000</v>
+      </c>
+      <c r="L99">
+        <v>275565500</v>
+      </c>
+      <c r="M99">
+        <v>-121000</v>
+      </c>
+      <c r="N99">
+        <v>946746000</v>
+      </c>
+      <c r="O99">
+        <v>-4939200</v>
+      </c>
+      <c r="P99">
+        <v>144933814000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1673877480000</v>
+      </c>
+      <c r="B100">
+        <v>983600</v>
+      </c>
+      <c r="C100">
+        <v>1302600</v>
+      </c>
+      <c r="D100">
+        <v>4100</v>
+      </c>
+      <c r="E100">
+        <v>17375183000</v>
+      </c>
+      <c r="F100">
+        <v>29241107000</v>
+      </c>
+      <c r="G100">
+        <v>157840000</v>
+      </c>
+      <c r="H100">
+        <v>2290300</v>
+      </c>
+      <c r="I100">
+        <v>46774130000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-16T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>4621645524000</v>
+      </c>
+      <c r="L100">
+        <v>277855800</v>
+      </c>
+      <c r="M100">
+        <v>319000</v>
+      </c>
+      <c r="N100">
+        <v>11865924000</v>
+      </c>
+      <c r="O100">
+        <v>-4620200</v>
+      </c>
+      <c r="P100">
+        <v>156799738000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1673877600000</v>
+      </c>
+      <c r="B101">
+        <v>1060000</v>
+      </c>
+      <c r="C101">
+        <v>1947900</v>
+      </c>
+      <c r="D101">
+        <v>15500</v>
+      </c>
+      <c r="E101">
+        <v>21367648000</v>
+      </c>
+      <c r="F101">
+        <v>45179837000</v>
+      </c>
+      <c r="G101">
+        <v>170320000</v>
+      </c>
+      <c r="H101">
+        <v>3023400</v>
+      </c>
+      <c r="I101">
+        <v>66717805000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-16T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>4688363329000</v>
+      </c>
+      <c r="L101">
+        <v>280879200</v>
+      </c>
+      <c r="M101">
+        <v>887900</v>
+      </c>
+      <c r="N101">
+        <v>23812189000</v>
+      </c>
+      <c r="O101">
+        <v>-3732300</v>
+      </c>
+      <c r="P101">
+        <v>180611927000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1673877720000</v>
+      </c>
+      <c r="B102">
+        <v>1138500</v>
+      </c>
+      <c r="C102">
+        <v>4752600</v>
+      </c>
+      <c r="D102">
+        <v>25200</v>
+      </c>
+      <c r="E102">
+        <v>21852827000</v>
+      </c>
+      <c r="F102">
+        <v>89373200000</v>
+      </c>
+      <c r="G102">
+        <v>857013000</v>
+      </c>
+      <c r="H102">
+        <v>5916300</v>
+      </c>
+      <c r="I102">
+        <v>112083040000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-16T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>4800446369000</v>
+      </c>
+      <c r="L102">
+        <v>286795500</v>
+      </c>
+      <c r="M102">
+        <v>3614100</v>
+      </c>
+      <c r="N102">
+        <v>67520373000</v>
+      </c>
+      <c r="O102">
+        <v>-118200</v>
+      </c>
+      <c r="P102">
+        <v>248132300000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1673877840000</v>
+      </c>
+      <c r="B103">
+        <v>1184100</v>
+      </c>
+      <c r="C103">
+        <v>7160700</v>
+      </c>
+      <c r="D103">
+        <v>40900</v>
+      </c>
+      <c r="E103">
+        <v>21609819000</v>
+      </c>
+      <c r="F103">
+        <v>134351670000</v>
+      </c>
+      <c r="G103">
+        <v>1415070000</v>
+      </c>
+      <c r="H103">
+        <v>8385700</v>
+      </c>
+      <c r="I103">
+        <v>157376559000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-16T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>4957822928000</v>
+      </c>
+      <c r="L103">
+        <v>295181200</v>
+      </c>
+      <c r="M103">
+        <v>5976600</v>
+      </c>
+      <c r="N103">
+        <v>112741851000</v>
+      </c>
+      <c r="O103">
+        <v>5858400</v>
+      </c>
+      <c r="P103">
+        <v>360874151000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1673877960000</v>
+      </c>
+      <c r="B104">
+        <v>1259300</v>
+      </c>
+      <c r="C104">
+        <v>6658700</v>
+      </c>
+      <c r="D104">
+        <v>87700</v>
+      </c>
+      <c r="E104">
+        <v>22351408000</v>
+      </c>
+      <c r="F104">
+        <v>122977969000</v>
+      </c>
+      <c r="G104">
+        <v>1125074000</v>
+      </c>
+      <c r="H104">
+        <v>8005700</v>
+      </c>
+      <c r="I104">
+        <v>146454451000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-16T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>5104277379000</v>
+      </c>
+      <c r="L104">
+        <v>303186900</v>
+      </c>
+      <c r="M104">
+        <v>5399400</v>
+      </c>
+      <c r="N104">
+        <v>100626561000</v>
+      </c>
+      <c r="O104">
+        <v>11257800</v>
+      </c>
+      <c r="P104">
+        <v>461500712000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1673878080000</v>
+      </c>
+      <c r="B105">
+        <v>2515500</v>
+      </c>
+      <c r="C105">
+        <v>3544500</v>
+      </c>
+      <c r="D105">
+        <v>53600</v>
+      </c>
+      <c r="E105">
+        <v>43415646000</v>
+      </c>
+      <c r="F105">
+        <v>64070643000</v>
+      </c>
+      <c r="G105">
+        <v>666595000</v>
+      </c>
+      <c r="H105">
+        <v>6113600</v>
+      </c>
+      <c r="I105">
+        <v>108152884000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-16T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>5212430263000</v>
+      </c>
+      <c r="L105">
+        <v>309300500</v>
+      </c>
+      <c r="M105">
+        <v>1029000</v>
+      </c>
+      <c r="N105">
+        <v>20654997000</v>
+      </c>
+      <c r="O105">
+        <v>12286800</v>
+      </c>
+      <c r="P105">
+        <v>482155709000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1673878200000</v>
+      </c>
+      <c r="B106">
+        <v>4147200</v>
+      </c>
+      <c r="C106">
+        <v>2001200</v>
+      </c>
+      <c r="D106">
+        <v>44300</v>
+      </c>
+      <c r="E106">
+        <v>67155513000</v>
+      </c>
+      <c r="F106">
+        <v>36749090000</v>
+      </c>
+      <c r="G106">
+        <v>564275000</v>
+      </c>
+      <c r="H106">
+        <v>6192700</v>
+      </c>
+      <c r="I106">
+        <v>104468878000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-16T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>5316899141000</v>
+      </c>
+      <c r="L106">
+        <v>315493200</v>
+      </c>
+      <c r="M106">
+        <v>-2146000</v>
+      </c>
+      <c r="N106">
+        <v>-30406423000</v>
+      </c>
+      <c r="O106">
+        <v>10140800</v>
+      </c>
+      <c r="P106">
+        <v>451749286000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1673878320000</v>
+      </c>
+      <c r="B107">
+        <v>3009600</v>
+      </c>
+      <c r="C107">
+        <v>1639300</v>
+      </c>
+      <c r="D107">
+        <v>18400</v>
+      </c>
+      <c r="E107">
+        <v>52802105000</v>
+      </c>
+      <c r="F107">
+        <v>32445122000</v>
+      </c>
+      <c r="G107">
+        <v>447397000</v>
+      </c>
+      <c r="H107">
+        <v>4667300</v>
+      </c>
+      <c r="I107">
+        <v>85694624000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-16T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>5402593765000</v>
+      </c>
+      <c r="L107">
+        <v>320160500</v>
+      </c>
+      <c r="M107">
+        <v>-1370300</v>
+      </c>
+      <c r="N107">
+        <v>-20356983000</v>
+      </c>
+      <c r="O107">
+        <v>8770500</v>
+      </c>
+      <c r="P107">
+        <v>431392303000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1673878440000</v>
+      </c>
+      <c r="B108">
+        <v>1980200</v>
+      </c>
+      <c r="C108">
+        <v>1418800</v>
+      </c>
+      <c r="D108">
+        <v>8600</v>
+      </c>
+      <c r="E108">
+        <v>35211522000</v>
+      </c>
+      <c r="F108">
+        <v>28367466000</v>
+      </c>
+      <c r="G108">
+        <v>536432000</v>
+      </c>
+      <c r="H108">
+        <v>3407600</v>
+      </c>
+      <c r="I108">
+        <v>64115420000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-16T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>5466709185000</v>
+      </c>
+      <c r="L108">
+        <v>323568100</v>
+      </c>
+      <c r="M108">
+        <v>-561400</v>
+      </c>
+      <c r="N108">
+        <v>-6844056000</v>
+      </c>
+      <c r="O108">
+        <v>8209100</v>
+      </c>
+      <c r="P108">
+        <v>424548247000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1673878560000</v>
+      </c>
+      <c r="B109">
+        <v>1540600</v>
+      </c>
+      <c r="C109">
+        <v>1931600</v>
+      </c>
+      <c r="D109">
+        <v>44500</v>
+      </c>
+      <c r="E109">
+        <v>27063131000</v>
+      </c>
+      <c r="F109">
+        <v>38517441000</v>
+      </c>
+      <c r="G109">
+        <v>881842000</v>
+      </c>
+      <c r="H109">
+        <v>3516700</v>
+      </c>
+      <c r="I109">
+        <v>66462414000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-16T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>5533171599000</v>
+      </c>
+      <c r="L109">
+        <v>327084800</v>
+      </c>
+      <c r="M109">
+        <v>391000</v>
+      </c>
+      <c r="N109">
+        <v>11454310000</v>
+      </c>
+      <c r="O109">
+        <v>8600100</v>
+      </c>
+      <c r="P109">
+        <v>436002557000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1673878680000</v>
+      </c>
+      <c r="B110">
+        <v>1693200</v>
+      </c>
+      <c r="C110">
+        <v>1509600</v>
+      </c>
+      <c r="D110">
+        <v>13600</v>
+      </c>
+      <c r="E110">
+        <v>30642731000</v>
+      </c>
+      <c r="F110">
+        <v>29173164000</v>
+      </c>
+      <c r="G110">
+        <v>375237000</v>
+      </c>
+      <c r="H110">
+        <v>3216400</v>
+      </c>
+      <c r="I110">
+        <v>60191132000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-16T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>5593362731000</v>
+      </c>
+      <c r="L110">
+        <v>330301200</v>
+      </c>
+      <c r="M110">
+        <v>-183600</v>
+      </c>
+      <c r="N110">
+        <v>-1469567000</v>
+      </c>
+      <c r="O110">
+        <v>8416500</v>
+      </c>
+      <c r="P110">
+        <v>434532990000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1673878800000</v>
+      </c>
+      <c r="B111">
+        <v>2515100</v>
+      </c>
+      <c r="C111">
+        <v>2175400</v>
+      </c>
+      <c r="D111">
+        <v>23000</v>
+      </c>
+      <c r="E111">
+        <v>37557967000</v>
+      </c>
+      <c r="F111">
+        <v>42442898000</v>
+      </c>
+      <c r="G111">
+        <v>347409000</v>
+      </c>
+      <c r="H111">
+        <v>4713500</v>
+      </c>
+      <c r="I111">
+        <v>80348274000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-16T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>5673711005000</v>
+      </c>
+      <c r="L111">
+        <v>335014700</v>
+      </c>
+      <c r="M111">
+        <v>-339700</v>
+      </c>
+      <c r="N111">
+        <v>4884931000</v>
+      </c>
+      <c r="O111">
+        <v>8076800</v>
+      </c>
+      <c r="P111">
+        <v>439417921000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1673878920000</v>
+      </c>
+      <c r="B112">
+        <v>3433500</v>
+      </c>
+      <c r="C112">
+        <v>3044400</v>
+      </c>
+      <c r="D112">
+        <v>14300</v>
+      </c>
+      <c r="E112">
+        <v>52894107000</v>
+      </c>
+      <c r="F112">
+        <v>56584052000</v>
+      </c>
+      <c r="G112">
+        <v>546967000</v>
+      </c>
+      <c r="H112">
+        <v>6492200</v>
+      </c>
+      <c r="I112">
+        <v>110025126000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-16T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>5783736131000</v>
+      </c>
+      <c r="L112">
+        <v>341506900</v>
+      </c>
+      <c r="M112">
+        <v>-389100</v>
+      </c>
+      <c r="N112">
+        <v>3689945000</v>
+      </c>
+      <c r="O112">
+        <v>7687700</v>
+      </c>
+      <c r="P112">
+        <v>443107866000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1673879040000</v>
+      </c>
+      <c r="B113">
+        <v>2938400</v>
+      </c>
+      <c r="C113">
+        <v>2314300</v>
+      </c>
+      <c r="D113">
+        <v>38200</v>
+      </c>
+      <c r="E113">
+        <v>56087070000</v>
+      </c>
+      <c r="F113">
+        <v>39592073000</v>
+      </c>
+      <c r="G113">
+        <v>572668000</v>
+      </c>
+      <c r="H113">
+        <v>5290900</v>
+      </c>
+      <c r="I113">
+        <v>96251811000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-16T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>5879987942000</v>
+      </c>
+      <c r="L113">
+        <v>346797800</v>
+      </c>
+      <c r="M113">
+        <v>-624100</v>
+      </c>
+      <c r="N113">
+        <v>-16494997000</v>
+      </c>
+      <c r="O113">
+        <v>7063600</v>
+      </c>
+      <c r="P113">
+        <v>426612869000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1673879160000</v>
+      </c>
+      <c r="B114">
+        <v>4012800</v>
+      </c>
+      <c r="C114">
+        <v>2037900</v>
+      </c>
+      <c r="D114">
+        <v>19900</v>
+      </c>
+      <c r="E114">
+        <v>70377805000</v>
+      </c>
+      <c r="F114">
+        <v>36033027000</v>
+      </c>
+      <c r="G114">
+        <v>247401000</v>
+      </c>
+      <c r="H114">
+        <v>6070600</v>
+      </c>
+      <c r="I114">
+        <v>106658233000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-16T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>5986646175000</v>
+      </c>
+      <c r="L114">
+        <v>352868400</v>
+      </c>
+      <c r="M114">
+        <v>-1974900</v>
+      </c>
+      <c r="N114">
+        <v>-34344778000</v>
+      </c>
+      <c r="O114">
+        <v>5088700</v>
+      </c>
+      <c r="P114">
+        <v>392268091000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1673879280000</v>
+      </c>
+      <c r="B115">
+        <v>5286900</v>
+      </c>
+      <c r="C115">
+        <v>2823500</v>
+      </c>
+      <c r="D115">
+        <v>29500</v>
+      </c>
+      <c r="E115">
+        <v>79733350000</v>
+      </c>
+      <c r="F115">
+        <v>50425306000</v>
+      </c>
+      <c r="G115">
+        <v>899043000</v>
+      </c>
+      <c r="H115">
+        <v>8139900</v>
+      </c>
+      <c r="I115">
+        <v>131057699000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-16T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>6117703874000</v>
+      </c>
+      <c r="L115">
+        <v>361008300</v>
+      </c>
+      <c r="M115">
+        <v>-2463400</v>
+      </c>
+      <c r="N115">
+        <v>-29308044000</v>
+      </c>
+      <c r="O115">
+        <v>2625300</v>
+      </c>
+      <c r="P115">
+        <v>362960047000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1673879400000</v>
+      </c>
+      <c r="B116">
+        <v>7200</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>54130000</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>7200</v>
+      </c>
+      <c r="I116">
+        <v>54130000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-16T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>6117758004000</v>
+      </c>
+      <c r="L116">
+        <v>361015500</v>
+      </c>
+      <c r="M116">
+        <v>-7200</v>
+      </c>
+      <c r="N116">
+        <v>-54130000</v>
+      </c>
+      <c r="O116">
+        <v>2618100</v>
+      </c>
+      <c r="P116">
+        <v>362905917000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1673880240000</v>
+      </c>
+      <c r="B117">
         <v>2153900</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>1129100</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>24562900</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>37763374000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>25779171000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>497209968000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>27845900</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>560752513000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-01-16T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-01-16T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>6678510517000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>388861400</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>-1024800</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>-11984203000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>1593300</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>350921714000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230116/VNINDEX_HOSE_5p_20230116.xlsx
+++ b/name/vnindex/20230116/VNINDEX_HOSE_5p_20230116.xlsx
@@ -466,25 +466,25 @@
         <v>4264300</v>
       </c>
       <c r="E2">
-        <v>16145904000</v>
+        <v>13833918300</v>
       </c>
       <c r="F2">
-        <v>22488429000</v>
+        <v>16971751200</v>
       </c>
       <c r="G2">
-        <v>63354763000</v>
+        <v>58854367900</v>
       </c>
       <c r="H2">
         <v>6551800</v>
       </c>
       <c r="I2">
-        <v>101989096000</v>
+        <v>89660037400</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-16T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>101989096000</v>
+        <v>89660037400</v>
       </c>
       <c r="L2">
         <v>6551800</v>
@@ -493,13 +493,13 @@
         <v>376100</v>
       </c>
       <c r="N2">
-        <v>6342525000</v>
+        <v>3137832900</v>
       </c>
       <c r="O2">
         <v>376100</v>
       </c>
       <c r="P2">
-        <v>6342525000</v>
+        <v>3137832900</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>18000</v>
       </c>
       <c r="E3">
-        <v>17623687000</v>
+        <v>16729981600</v>
       </c>
       <c r="F3">
-        <v>27514323000</v>
+        <v>25757481600</v>
       </c>
       <c r="G3">
         <v>452970000</v>
@@ -528,13 +528,13 @@
         <v>2762700</v>
       </c>
       <c r="I3">
-        <v>45590980000</v>
+        <v>42940433200</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-16T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>147580076000</v>
+        <v>132600470600</v>
       </c>
       <c r="L3">
         <v>9314500</v>
@@ -543,13 +543,13 @@
         <v>448100</v>
       </c>
       <c r="N3">
-        <v>9890636000</v>
+        <v>9027500000</v>
       </c>
       <c r="O3">
         <v>824200</v>
       </c>
       <c r="P3">
-        <v>16233161000</v>
+        <v>12165332900</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>44300</v>
       </c>
       <c r="E4">
-        <v>16412478000</v>
+        <v>16164526200</v>
       </c>
       <c r="F4">
-        <v>28594497000</v>
+        <v>27252740100</v>
       </c>
       <c r="G4">
-        <v>704986000</v>
+        <v>633058000</v>
       </c>
       <c r="H4">
         <v>2572400</v>
       </c>
       <c r="I4">
-        <v>45711961000</v>
+        <v>44050324300</v>
       </c>
       <c r="J4" t="str">
         <v>2023-01-16T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>193292037000</v>
+        <v>176650794900</v>
       </c>
       <c r="L4">
         <v>11886900</v>
@@ -593,13 +593,13 @@
         <v>312300</v>
       </c>
       <c r="N4">
-        <v>12182019000</v>
+        <v>11088213900</v>
       </c>
       <c r="O4">
         <v>1136500</v>
       </c>
       <c r="P4">
-        <v>28415180000</v>
+        <v>23253546800</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>3900</v>
       </c>
       <c r="E5">
-        <v>22719075000</v>
+        <v>20991804000</v>
       </c>
       <c r="F5">
-        <v>39375285000</v>
+        <v>37548813300</v>
       </c>
       <c r="G5">
         <v>68461000</v>
@@ -628,13 +628,13 @@
         <v>4341700</v>
       </c>
       <c r="I5">
-        <v>62162821000</v>
+        <v>58609078300</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-16T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>255454858000</v>
+        <v>235259873200</v>
       </c>
       <c r="L5">
         <v>16228600</v>
@@ -643,13 +643,13 @@
         <v>1408400</v>
       </c>
       <c r="N5">
-        <v>16656210000</v>
+        <v>16557009300</v>
       </c>
       <c r="O5">
         <v>2544900</v>
       </c>
       <c r="P5">
-        <v>45071390000</v>
+        <v>39810556100</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>21000</v>
       </c>
       <c r="E6">
-        <v>19212010000</v>
+        <v>18623199400</v>
       </c>
       <c r="F6">
-        <v>33070440000</v>
+        <v>32216794500</v>
       </c>
       <c r="G6">
-        <v>170191000</v>
+        <v>161699500</v>
       </c>
       <c r="H6">
         <v>5059600</v>
       </c>
       <c r="I6">
-        <v>52452641000</v>
+        <v>51001693400</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-16T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>307907499000</v>
+        <v>286261566600</v>
       </c>
       <c r="L6">
         <v>21288200</v>
@@ -693,13 +693,13 @@
         <v>2735400</v>
       </c>
       <c r="N6">
-        <v>13858430000</v>
+        <v>13593595100</v>
       </c>
       <c r="O6">
         <v>5280300</v>
       </c>
       <c r="P6">
-        <v>58929820000</v>
+        <v>53404151200</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>18700</v>
       </c>
       <c r="E7">
-        <v>25818882000</v>
+        <v>24921080700</v>
       </c>
       <c r="F7">
-        <v>14237061000</v>
+        <v>13728869700</v>
       </c>
       <c r="G7">
-        <v>458990000</v>
+        <v>413036000</v>
       </c>
       <c r="H7">
         <v>2763800</v>
       </c>
       <c r="I7">
-        <v>40514933000</v>
+        <v>39062986400</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-16T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>348422432000</v>
+        <v>325324553000</v>
       </c>
       <c r="L7">
         <v>24052000</v>
@@ -743,13 +743,13 @@
         <v>-897100</v>
       </c>
       <c r="N7">
-        <v>-11581821000</v>
+        <v>-11192211000</v>
       </c>
       <c r="O7">
         <v>4383200</v>
       </c>
       <c r="P7">
-        <v>47347999000</v>
+        <v>42211940200</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>12700</v>
       </c>
       <c r="E8">
-        <v>19491261000</v>
+        <v>18746406600</v>
       </c>
       <c r="F8">
-        <v>11587371000</v>
+        <v>10118341500</v>
       </c>
       <c r="G8">
-        <v>147681000</v>
+        <v>146881800</v>
       </c>
       <c r="H8">
         <v>2030700</v>
       </c>
       <c r="I8">
-        <v>31226313000</v>
+        <v>29011629900</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-16T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>379648745000</v>
+        <v>354336182900</v>
       </c>
       <c r="L8">
         <v>26082700</v>
@@ -793,13 +793,13 @@
         <v>-701800</v>
       </c>
       <c r="N8">
-        <v>-7903890000</v>
+        <v>-8628065100</v>
       </c>
       <c r="O8">
         <v>3681400</v>
       </c>
       <c r="P8">
-        <v>39444109000</v>
+        <v>33583875100</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>7000</v>
       </c>
       <c r="E9">
-        <v>22097520000</v>
+        <v>21134783700</v>
       </c>
       <c r="F9">
-        <v>22278749000</v>
+        <v>21094934000</v>
       </c>
       <c r="G9">
         <v>188270000</v>
@@ -828,13 +828,13 @@
         <v>2703200</v>
       </c>
       <c r="I9">
-        <v>44564539000</v>
+        <v>42417987700</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-16T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>424213284000</v>
+        <v>396754170600</v>
       </c>
       <c r="L9">
         <v>28785900</v>
@@ -843,13 +843,13 @@
         <v>-383000</v>
       </c>
       <c r="N9">
-        <v>181229000</v>
+        <v>-39849700</v>
       </c>
       <c r="O9">
         <v>3298400</v>
       </c>
       <c r="P9">
-        <v>39625338000</v>
+        <v>33544025400</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>1000</v>
       </c>
       <c r="E10">
-        <v>33988522000</v>
+        <v>30524089900</v>
       </c>
       <c r="F10">
-        <v>10905299000</v>
+        <v>9219986000</v>
       </c>
       <c r="G10">
         <v>37175000</v>
@@ -878,13 +878,13 @@
         <v>2695900</v>
       </c>
       <c r="I10">
-        <v>44930996000</v>
+        <v>39781250900</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-16T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>469144280000</v>
+        <v>436535421500</v>
       </c>
       <c r="L10">
         <v>31481800</v>
@@ -893,13 +893,13 @@
         <v>-1571900</v>
       </c>
       <c r="N10">
-        <v>-23083223000</v>
+        <v>-21304103900</v>
       </c>
       <c r="O10">
         <v>1726500</v>
       </c>
       <c r="P10">
-        <v>16542115000</v>
+        <v>12239921500</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>5000</v>
       </c>
       <c r="E11">
-        <v>23847530000</v>
+        <v>22027551800</v>
       </c>
       <c r="F11">
-        <v>12179505000</v>
+        <v>11914470300</v>
       </c>
       <c r="G11">
         <v>159665000</v>
@@ -928,13 +928,13 @@
         <v>2298200</v>
       </c>
       <c r="I11">
-        <v>36186700000</v>
+        <v>34101687100</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-16T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>505330980000</v>
+        <v>470637108600</v>
       </c>
       <c r="L11">
         <v>33780000</v>
@@ -943,13 +943,13 @@
         <v>-1009800</v>
       </c>
       <c r="N11">
-        <v>-11668025000</v>
+        <v>-10113081500</v>
       </c>
       <c r="O11">
         <v>716700</v>
       </c>
       <c r="P11">
-        <v>4874090000</v>
+        <v>2126840000</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>3200</v>
       </c>
       <c r="E12">
-        <v>41827083000</v>
+        <v>33553764600</v>
       </c>
       <c r="F12">
-        <v>8554221000</v>
+        <v>7532743500</v>
       </c>
       <c r="G12">
-        <v>92170000</v>
+        <v>47914300</v>
       </c>
       <c r="H12">
         <v>3925200</v>
       </c>
       <c r="I12">
-        <v>50473474000</v>
+        <v>41134422400</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-16T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>555804454000</v>
+        <v>511771531000</v>
       </c>
       <c r="L12">
         <v>37705200</v>
@@ -993,13 +993,13 @@
         <v>-2877800</v>
       </c>
       <c r="N12">
-        <v>-33272862000</v>
+        <v>-26021021100</v>
       </c>
       <c r="O12">
         <v>-2161100</v>
       </c>
       <c r="P12">
-        <v>-28398772000</v>
+        <v>-23894181100</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>40700</v>
       </c>
       <c r="E13">
-        <v>38438318000</v>
+        <v>31834828100</v>
       </c>
       <c r="F13">
-        <v>11505069000</v>
+        <v>9884491200</v>
       </c>
       <c r="G13">
-        <v>171251000</v>
+        <v>168653600</v>
       </c>
       <c r="H13">
         <v>3370600</v>
       </c>
       <c r="I13">
-        <v>50114638000</v>
+        <v>41887972900</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-16T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>605919092000</v>
+        <v>553659503900</v>
       </c>
       <c r="L13">
         <v>41075800</v>
@@ -1043,13 +1043,13 @@
         <v>-2006700</v>
       </c>
       <c r="N13">
-        <v>-26933249000</v>
+        <v>-21950336900</v>
       </c>
       <c r="O13">
         <v>-4167800</v>
       </c>
       <c r="P13">
-        <v>-55332021000</v>
+        <v>-45844518000</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>31300</v>
       </c>
       <c r="E14">
-        <v>19936881000</v>
+        <v>18653865300</v>
       </c>
       <c r="F14">
-        <v>15971659000</v>
+        <v>13608724300</v>
       </c>
       <c r="G14">
-        <v>430559000</v>
+        <v>429460100</v>
       </c>
       <c r="H14">
         <v>2319200</v>
       </c>
       <c r="I14">
-        <v>36339099000</v>
+        <v>32692049700</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-16T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>642258191000</v>
+        <v>586351553600</v>
       </c>
       <c r="L14">
         <v>43395000</v>
@@ -1093,13 +1093,13 @@
         <v>-599500</v>
       </c>
       <c r="N14">
-        <v>-3965222000</v>
+        <v>-5045141000</v>
       </c>
       <c r="O14">
         <v>-4767300</v>
       </c>
       <c r="P14">
-        <v>-59297243000</v>
+        <v>-50889659000</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>14200</v>
       </c>
       <c r="E15">
-        <v>21276707000</v>
+        <v>18088498400</v>
       </c>
       <c r="F15">
-        <v>17610429000</v>
+        <v>11100645300</v>
       </c>
       <c r="G15">
         <v>166307000</v>
@@ -1128,13 +1128,13 @@
         <v>2262700</v>
       </c>
       <c r="I15">
-        <v>39053443000</v>
+        <v>29355450700</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-16T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>681311634000</v>
+        <v>615707004300</v>
       </c>
       <c r="L15">
         <v>45657700</v>
@@ -1143,13 +1143,13 @@
         <v>-55300</v>
       </c>
       <c r="N15">
-        <v>-3666278000</v>
+        <v>-6987853100</v>
       </c>
       <c r="O15">
         <v>-4822600</v>
       </c>
       <c r="P15">
-        <v>-62963521000</v>
+        <v>-57877512100</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>26900</v>
       </c>
       <c r="E16">
-        <v>13871100000</v>
+        <v>11644728600</v>
       </c>
       <c r="F16">
-        <v>23153442000</v>
+        <v>22344351900</v>
       </c>
       <c r="G16">
         <v>1107527000</v>
@@ -1178,13 +1178,13 @@
         <v>2355600</v>
       </c>
       <c r="I16">
-        <v>38132069000</v>
+        <v>35096607500</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-16T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>719443703000</v>
+        <v>650803611800</v>
       </c>
       <c r="L16">
         <v>48013300</v>
@@ -1193,13 +1193,13 @@
         <v>738500</v>
       </c>
       <c r="N16">
-        <v>9282342000</v>
+        <v>10699623300</v>
       </c>
       <c r="O16">
         <v>-4084100</v>
       </c>
       <c r="P16">
-        <v>-53681179000</v>
+        <v>-47177888800</v>
       </c>
     </row>
     <row r="17">
@@ -1216,25 +1216,25 @@
         <v>18100</v>
       </c>
       <c r="E17">
-        <v>10297612000</v>
+        <v>9727382800</v>
       </c>
       <c r="F17">
-        <v>41796144000</v>
+        <v>39008334600</v>
       </c>
       <c r="G17">
-        <v>348987000</v>
+        <v>346389600</v>
       </c>
       <c r="H17">
         <v>3063100</v>
       </c>
       <c r="I17">
-        <v>52442743000</v>
+        <v>49082107000</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-16T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>771886446000</v>
+        <v>699885718800</v>
       </c>
       <c r="L17">
         <v>51076400</v>
@@ -1243,13 +1243,13 @@
         <v>1524400</v>
       </c>
       <c r="N17">
-        <v>31498532000</v>
+        <v>29280951800</v>
       </c>
       <c r="O17">
         <v>-2559700</v>
       </c>
       <c r="P17">
-        <v>-22182647000</v>
+        <v>-17896937000</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>23500</v>
       </c>
       <c r="E18">
-        <v>10498293000</v>
+        <v>9834257700</v>
       </c>
       <c r="F18">
-        <v>26504552000</v>
+        <v>23675683700</v>
       </c>
       <c r="G18">
         <v>288232000</v>
@@ -1278,13 +1278,13 @@
         <v>2395800</v>
       </c>
       <c r="I18">
-        <v>37291077000</v>
+        <v>33798173400</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-16T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>809177523000</v>
+        <v>733683892200</v>
       </c>
       <c r="L18">
         <v>53472200</v>
@@ -1293,13 +1293,13 @@
         <v>937500</v>
       </c>
       <c r="N18">
-        <v>16006259000</v>
+        <v>13841426000</v>
       </c>
       <c r="O18">
         <v>-1622200</v>
       </c>
       <c r="P18">
-        <v>-6176388000</v>
+        <v>-4055511000</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>10200</v>
       </c>
       <c r="E19">
-        <v>13104339000</v>
+        <v>11118127200</v>
       </c>
       <c r="F19">
-        <v>17655421000</v>
+        <v>14373606100</v>
       </c>
       <c r="G19">
         <v>283080000</v>
@@ -1328,13 +1328,13 @@
         <v>1935300</v>
       </c>
       <c r="I19">
-        <v>31042840000</v>
+        <v>25774813300</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-16T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>840220363000</v>
+        <v>759458705500</v>
       </c>
       <c r="L19">
         <v>55407500</v>
@@ -1343,13 +1343,13 @@
         <v>176300</v>
       </c>
       <c r="N19">
-        <v>4551082000</v>
+        <v>3255478900</v>
       </c>
       <c r="O19">
         <v>-1445900</v>
       </c>
       <c r="P19">
-        <v>-1625306000</v>
+        <v>-800032100</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>4200</v>
       </c>
       <c r="E20">
-        <v>15797637000</v>
+        <v>13864771800</v>
       </c>
       <c r="F20">
-        <v>17815603000</v>
+        <v>17393725300</v>
       </c>
       <c r="G20">
-        <v>56410000</v>
+        <v>37528900</v>
       </c>
       <c r="H20">
         <v>1873300</v>
       </c>
       <c r="I20">
-        <v>33669650000</v>
+        <v>31296026000</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-16T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>873890013000</v>
+        <v>790754731500</v>
       </c>
       <c r="L20">
         <v>57280800</v>
@@ -1393,13 +1393,13 @@
         <v>98900</v>
       </c>
       <c r="N20">
-        <v>2017966000</v>
+        <v>3528953500</v>
       </c>
       <c r="O20">
         <v>-1347000</v>
       </c>
       <c r="P20">
-        <v>392660000</v>
+        <v>2728921400</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>20700</v>
       </c>
       <c r="E21">
-        <v>23341466000</v>
+        <v>22021986800</v>
       </c>
       <c r="F21">
-        <v>9317446000</v>
+        <v>8898665200</v>
       </c>
       <c r="G21">
         <v>109305000</v>
@@ -1428,13 +1428,13 @@
         <v>2934000</v>
       </c>
       <c r="I21">
-        <v>32768217000</v>
+        <v>31029957000</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-16T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>906658230000</v>
+        <v>821784688500</v>
       </c>
       <c r="L21">
         <v>60214800</v>
@@ -1443,13 +1443,13 @@
         <v>-1643900</v>
       </c>
       <c r="N21">
-        <v>-14024020000</v>
+        <v>-13123321600</v>
       </c>
       <c r="O21">
         <v>-2990900</v>
       </c>
       <c r="P21">
-        <v>-13631360000</v>
+        <v>-10394400200</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>17900</v>
       </c>
       <c r="E22">
-        <v>25766214000</v>
+        <v>19880805300</v>
       </c>
       <c r="F22">
-        <v>10070122000</v>
+        <v>8973619600</v>
       </c>
       <c r="G22">
         <v>251576000</v>
@@ -1478,13 +1478,13 @@
         <v>2372600</v>
       </c>
       <c r="I22">
-        <v>36087912000</v>
+        <v>29106000900</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-16T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>942746142000</v>
+        <v>850890689400</v>
       </c>
       <c r="L22">
         <v>62587400</v>
@@ -1493,13 +1493,13 @@
         <v>-1147700</v>
       </c>
       <c r="N22">
-        <v>-15696092000</v>
+        <v>-10907185700</v>
       </c>
       <c r="O22">
         <v>-4138600</v>
       </c>
       <c r="P22">
-        <v>-29327452000</v>
+        <v>-21301585900</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>5700</v>
       </c>
       <c r="E23">
-        <v>19425694000</v>
+        <v>18749071300</v>
       </c>
       <c r="F23">
-        <v>13410204000</v>
+        <v>12300015300</v>
       </c>
       <c r="G23">
         <v>42931000</v>
@@ -1528,13 +1528,13 @@
         <v>2917200</v>
       </c>
       <c r="I23">
-        <v>32878829000</v>
+        <v>31092017600</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-16T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>975624971000</v>
+        <v>881982707000</v>
       </c>
       <c r="L23">
         <v>65504600</v>
@@ -1543,13 +1543,13 @@
         <v>-874700</v>
       </c>
       <c r="N23">
-        <v>-6015490000</v>
+        <v>-6449056000</v>
       </c>
       <c r="O23">
         <v>-5013300</v>
       </c>
       <c r="P23">
-        <v>-35342942000</v>
+        <v>-27750641900</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>17000</v>
       </c>
       <c r="E24">
-        <v>29011309000</v>
+        <v>28443877000</v>
       </c>
       <c r="F24">
-        <v>10008376000</v>
+        <v>9940543900</v>
       </c>
       <c r="G24">
         <v>84260000</v>
@@ -1578,13 +1578,13 @@
         <v>3039500</v>
       </c>
       <c r="I24">
-        <v>39103945000</v>
+        <v>38468680900</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-16T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1014728916000</v>
+        <v>920451387900</v>
       </c>
       <c r="L24">
         <v>68544100</v>
@@ -1593,13 +1593,13 @@
         <v>-1575500</v>
       </c>
       <c r="N24">
-        <v>-19002933000</v>
+        <v>-18503333100</v>
       </c>
       <c r="O24">
         <v>-6588800</v>
       </c>
       <c r="P24">
-        <v>-54345875000</v>
+        <v>-46253975000</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>10800</v>
       </c>
       <c r="E25">
-        <v>31469080000</v>
+        <v>30873376300</v>
       </c>
       <c r="F25">
-        <v>18185583000</v>
+        <v>13172800800</v>
       </c>
       <c r="G25">
-        <v>241510000</v>
+        <v>219631900</v>
       </c>
       <c r="H25">
         <v>3195500</v>
       </c>
       <c r="I25">
-        <v>49896173000</v>
+        <v>44265809000</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-16T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1064625089000</v>
+        <v>964717196900</v>
       </c>
       <c r="L25">
         <v>71739600</v>
@@ -1643,13 +1643,13 @@
         <v>-1018700</v>
       </c>
       <c r="N25">
-        <v>-13283497000</v>
+        <v>-17700575500</v>
       </c>
       <c r="O25">
         <v>-7607500</v>
       </c>
       <c r="P25">
-        <v>-67629372000</v>
+        <v>-63954550500</v>
       </c>
     </row>
     <row r="26">
@@ -1666,25 +1666,25 @@
         <v>32900</v>
       </c>
       <c r="E26">
-        <v>20329837000</v>
+        <v>19524643000</v>
       </c>
       <c r="F26">
-        <v>20206581000</v>
+        <v>18518470800</v>
       </c>
       <c r="G26">
-        <v>214613000</v>
+        <v>203624000</v>
       </c>
       <c r="H26">
         <v>2337600</v>
       </c>
       <c r="I26">
-        <v>40751031000</v>
+        <v>38246737800</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-16T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1105376120000</v>
+        <v>1002963934700</v>
       </c>
       <c r="L26">
         <v>74077200</v>
@@ -1693,13 +1693,13 @@
         <v>-326100</v>
       </c>
       <c r="N26">
-        <v>-123256000</v>
+        <v>-1006172200</v>
       </c>
       <c r="O26">
         <v>-7933600</v>
       </c>
       <c r="P26">
-        <v>-67752628000</v>
+        <v>-64960722700</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>500</v>
       </c>
       <c r="E27">
-        <v>21398476000</v>
+        <v>19404272200</v>
       </c>
       <c r="F27">
-        <v>13055511000</v>
+        <v>12235531800</v>
       </c>
       <c r="G27">
         <v>5045000</v>
@@ -1728,13 +1728,13 @@
         <v>2261500</v>
       </c>
       <c r="I27">
-        <v>34459032000</v>
+        <v>31644849000</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-16T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1139835152000</v>
+        <v>1034608783700</v>
       </c>
       <c r="L27">
         <v>76338700</v>
@@ -1743,13 +1743,13 @@
         <v>-622400</v>
       </c>
       <c r="N27">
-        <v>-8342965000</v>
+        <v>-7168740400</v>
       </c>
       <c r="O27">
         <v>-8556000</v>
       </c>
       <c r="P27">
-        <v>-76095593000</v>
+        <v>-72129463100</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>33000</v>
       </c>
       <c r="E28">
-        <v>22144214000</v>
+        <v>21318940100</v>
       </c>
       <c r="F28">
-        <v>15227025000</v>
+        <v>13826027400</v>
       </c>
       <c r="G28">
         <v>477915000</v>
@@ -1778,13 +1778,13 @@
         <v>2121900</v>
       </c>
       <c r="I28">
-        <v>37849154000</v>
+        <v>35622882500</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-16T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1177684306000</v>
+        <v>1070231666200</v>
       </c>
       <c r="L28">
         <v>78460600</v>
@@ -1793,13 +1793,13 @@
         <v>-414700</v>
       </c>
       <c r="N28">
-        <v>-6917189000</v>
+        <v>-7492912700</v>
       </c>
       <c r="O28">
         <v>-8970700</v>
       </c>
       <c r="P28">
-        <v>-83012782000</v>
+        <v>-79622375800</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>300</v>
       </c>
       <c r="E29">
-        <v>16181453000</v>
+        <v>15242193200</v>
       </c>
       <c r="F29">
-        <v>17024793000</v>
+        <v>16784533500</v>
       </c>
       <c r="G29">
         <v>9958000</v>
@@ -1828,13 +1828,13 @@
         <v>2399800</v>
       </c>
       <c r="I29">
-        <v>33216204000</v>
+        <v>32036684700</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-16T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1210900510000</v>
+        <v>1102268350900</v>
       </c>
       <c r="L29">
         <v>80860400</v>
@@ -1843,13 +1843,13 @@
         <v>-185300</v>
       </c>
       <c r="N29">
-        <v>843340000</v>
+        <v>1542340300</v>
       </c>
       <c r="O29">
         <v>-9156000</v>
       </c>
       <c r="P29">
-        <v>-82169442000</v>
+        <v>-78080035500</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>20300</v>
       </c>
       <c r="E30">
-        <v>15926261000</v>
+        <v>15401486300</v>
       </c>
       <c r="F30">
-        <v>20449662000</v>
+        <v>20153258700</v>
       </c>
       <c r="G30">
         <v>294449000</v>
@@ -1878,13 +1878,13 @@
         <v>2215000</v>
       </c>
       <c r="I30">
-        <v>36670372000</v>
+        <v>35849194000</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-16T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1247570882000</v>
+        <v>1138117544900</v>
       </c>
       <c r="L30">
         <v>83075400</v>
@@ -1893,13 +1893,13 @@
         <v>262700</v>
       </c>
       <c r="N30">
-        <v>4523401000</v>
+        <v>4751772400</v>
       </c>
       <c r="O30">
         <v>-8893300</v>
       </c>
       <c r="P30">
-        <v>-77646041000</v>
+        <v>-73328263100</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>11100</v>
       </c>
       <c r="E31">
-        <v>14951569000</v>
+        <v>11552771200</v>
       </c>
       <c r="F31">
-        <v>12751048000</v>
+        <v>10903996900</v>
       </c>
       <c r="G31">
         <v>356165000</v>
@@ -1928,13 +1928,13 @@
         <v>1603200</v>
       </c>
       <c r="I31">
-        <v>28058782000</v>
+        <v>22812933100</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-16T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1275629664000</v>
+        <v>1160930478000</v>
       </c>
       <c r="L31">
         <v>84678600</v>
@@ -1943,13 +1943,13 @@
         <v>-55700</v>
       </c>
       <c r="N31">
-        <v>-2200521000</v>
+        <v>-648774300</v>
       </c>
       <c r="O31">
         <v>-8949000</v>
       </c>
       <c r="P31">
-        <v>-79846562000</v>
+        <v>-73977037400</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>41500</v>
       </c>
       <c r="E32">
-        <v>22406672000</v>
+        <v>20430749900</v>
       </c>
       <c r="F32">
-        <v>11754247000</v>
+        <v>11254447300</v>
       </c>
       <c r="G32">
         <v>138191000</v>
@@ -1978,13 +1978,13 @@
         <v>2271700</v>
       </c>
       <c r="I32">
-        <v>34299110000</v>
+        <v>31823388200</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-16T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1309928774000</v>
+        <v>1192753866200</v>
       </c>
       <c r="L32">
         <v>86950300</v>
@@ -1993,13 +1993,13 @@
         <v>-793400</v>
       </c>
       <c r="N32">
-        <v>-10652425000</v>
+        <v>-9176302600</v>
       </c>
       <c r="O32">
         <v>-9742400</v>
       </c>
       <c r="P32">
-        <v>-90498987000</v>
+        <v>-83153340000</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>23800</v>
       </c>
       <c r="E33">
-        <v>28309623000</v>
+        <v>27415817700</v>
       </c>
       <c r="F33">
-        <v>16451864000</v>
+        <v>15011106200</v>
       </c>
       <c r="G33">
         <v>302586000</v>
@@ -2028,13 +2028,13 @@
         <v>2976600</v>
       </c>
       <c r="I33">
-        <v>45064073000</v>
+        <v>42729509900</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-16T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1354992847000</v>
+        <v>1235483376100</v>
       </c>
       <c r="L33">
         <v>89926900</v>
@@ -2043,13 +2043,13 @@
         <v>-955800</v>
       </c>
       <c r="N33">
-        <v>-11857759000</v>
+        <v>-12404711500</v>
       </c>
       <c r="O33">
         <v>-10698200</v>
       </c>
       <c r="P33">
-        <v>-102356746000</v>
+        <v>-95558051500</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>4100</v>
       </c>
       <c r="E34">
-        <v>32752398000</v>
+        <v>30407545200</v>
       </c>
       <c r="F34">
-        <v>6673167000</v>
+        <v>6159081600</v>
       </c>
       <c r="G34">
         <v>20242000</v>
@@ -2078,13 +2078,13 @@
         <v>2466900</v>
       </c>
       <c r="I34">
-        <v>39445807000</v>
+        <v>36586868800</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-16T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1394438654000</v>
+        <v>1272070244900</v>
       </c>
       <c r="L34">
         <v>92393800</v>
@@ -2093,13 +2093,13 @@
         <v>-1626600</v>
       </c>
       <c r="N34">
-        <v>-26079231000</v>
+        <v>-24248463600</v>
       </c>
       <c r="O34">
         <v>-12324800</v>
       </c>
       <c r="P34">
-        <v>-128435977000</v>
+        <v>-119806515100</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>28200</v>
       </c>
       <c r="E35">
-        <v>41751304000</v>
+        <v>34887974200</v>
       </c>
       <c r="F35">
-        <v>7118882000</v>
+        <v>6460541000</v>
       </c>
       <c r="G35">
         <v>404560000</v>
@@ -2128,13 +2128,13 @@
         <v>3249500</v>
       </c>
       <c r="I35">
-        <v>49274746000</v>
+        <v>41753075200</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-16T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1443713400000</v>
+        <v>1313823320100</v>
       </c>
       <c r="L35">
         <v>95643300</v>
@@ -2143,13 +2143,13 @@
         <v>-2419500</v>
       </c>
       <c r="N35">
-        <v>-34632422000</v>
+        <v>-28427433200</v>
       </c>
       <c r="O35">
         <v>-14744300</v>
       </c>
       <c r="P35">
-        <v>-163068399000</v>
+        <v>-148233948300</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>800</v>
       </c>
       <c r="E36">
-        <v>30830733000</v>
+        <v>29193172200</v>
       </c>
       <c r="F36">
-        <v>10879860000</v>
+        <v>9722019000</v>
       </c>
       <c r="G36">
         <v>24560000</v>
@@ -2178,13 +2178,13 @@
         <v>2700200</v>
       </c>
       <c r="I36">
-        <v>41735153000</v>
+        <v>38939751200</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-16T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1485448553000</v>
+        <v>1352763071300</v>
       </c>
       <c r="L36">
         <v>98343500</v>
@@ -2193,13 +2193,13 @@
         <v>-1273600</v>
       </c>
       <c r="N36">
-        <v>-19950873000</v>
+        <v>-19471153200</v>
       </c>
       <c r="O36">
         <v>-16017900</v>
       </c>
       <c r="P36">
-        <v>-183019272000</v>
+        <v>-167705101500</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>400</v>
       </c>
       <c r="E37">
-        <v>25874665000</v>
+        <v>22034808700</v>
       </c>
       <c r="F37">
-        <v>14365514000</v>
+        <v>13708371800</v>
       </c>
       <c r="G37">
         <v>7328000</v>
@@ -2228,13 +2228,13 @@
         <v>2686500</v>
       </c>
       <c r="I37">
-        <v>40247507000</v>
+        <v>35750508500</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-16T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1525696060000</v>
+        <v>1388513579800</v>
       </c>
       <c r="L37">
         <v>101030000</v>
@@ -2243,13 +2243,13 @@
         <v>-1054300</v>
       </c>
       <c r="N37">
-        <v>-11509151000</v>
+        <v>-8326436900</v>
       </c>
       <c r="O37">
         <v>-17072200</v>
       </c>
       <c r="P37">
-        <v>-194528423000</v>
+        <v>-176031538400</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>5900</v>
       </c>
       <c r="E38">
-        <v>22785499000</v>
+        <v>12795698800</v>
       </c>
       <c r="F38">
-        <v>15276542000</v>
+        <v>13912507400</v>
       </c>
       <c r="G38">
         <v>61640000</v>
@@ -2278,13 +2278,13 @@
         <v>2930900</v>
       </c>
       <c r="I38">
-        <v>38123681000</v>
+        <v>26769846200</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-16T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1563819741000</v>
+        <v>1415283426000</v>
       </c>
       <c r="L38">
         <v>103960900</v>
@@ -2293,13 +2293,13 @@
         <v>-814000</v>
       </c>
       <c r="N38">
-        <v>-7508957000</v>
+        <v>1116808600</v>
       </c>
       <c r="O38">
         <v>-17886200</v>
       </c>
       <c r="P38">
-        <v>-202037380000</v>
+        <v>-174914729800</v>
       </c>
     </row>
     <row r="39">
@@ -2316,25 +2316,25 @@
         <v>6200</v>
       </c>
       <c r="E39">
-        <v>16065357000</v>
+        <v>13481943000</v>
       </c>
       <c r="F39">
-        <v>13004312000</v>
+        <v>11354563400</v>
       </c>
       <c r="G39">
-        <v>154460000</v>
+        <v>149165300</v>
       </c>
       <c r="H39">
         <v>1925000</v>
       </c>
       <c r="I39">
-        <v>29224129000</v>
+        <v>24985671700</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-16T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1593043870000</v>
+        <v>1440269097700</v>
       </c>
       <c r="L39">
         <v>105885900</v>
@@ -2343,13 +2343,13 @@
         <v>-234600</v>
       </c>
       <c r="N39">
-        <v>-3061045000</v>
+        <v>-2127379600</v>
       </c>
       <c r="O39">
         <v>-18120800</v>
       </c>
       <c r="P39">
-        <v>-205098425000</v>
+        <v>-177042109400</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>17400</v>
       </c>
       <c r="E40">
-        <v>31375817000</v>
+        <v>28756538900</v>
       </c>
       <c r="F40">
-        <v>13425639000</v>
+        <v>12191774100</v>
       </c>
       <c r="G40">
-        <v>265627000</v>
+        <v>177715000</v>
       </c>
       <c r="H40">
         <v>2547800</v>
       </c>
       <c r="I40">
-        <v>45067083000</v>
+        <v>41126028000</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-16T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1638110953000</v>
+        <v>1481395125700</v>
       </c>
       <c r="L40">
         <v>108433700</v>
@@ -2393,13 +2393,13 @@
         <v>-1002400</v>
       </c>
       <c r="N40">
-        <v>-17950178000</v>
+        <v>-16564764800</v>
       </c>
       <c r="O40">
         <v>-19123200</v>
       </c>
       <c r="P40">
-        <v>-223048603000</v>
+        <v>-193606874200</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>21500</v>
       </c>
       <c r="E41">
-        <v>26292889000</v>
+        <v>24222861100</v>
       </c>
       <c r="F41">
-        <v>14327317000</v>
+        <v>13965579100</v>
       </c>
       <c r="G41">
         <v>578223000</v>
@@ -2428,13 +2428,13 @@
         <v>2545600</v>
       </c>
       <c r="I41">
-        <v>41198429000</v>
+        <v>38766663200</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-16T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1679309382000</v>
+        <v>1520161788900</v>
       </c>
       <c r="L41">
         <v>110979300</v>
@@ -2443,13 +2443,13 @@
         <v>-937700</v>
       </c>
       <c r="N41">
-        <v>-11965572000</v>
+        <v>-10257282000</v>
       </c>
       <c r="O41">
         <v>-20060900</v>
       </c>
       <c r="P41">
-        <v>-235014175000</v>
+        <v>-203864156200</v>
       </c>
     </row>
     <row r="42">
@@ -2466,25 +2466,25 @@
         <v>53100</v>
       </c>
       <c r="E42">
-        <v>20200199000</v>
+        <v>17996804600</v>
       </c>
       <c r="F42">
-        <v>11271248000</v>
+        <v>10627092800</v>
       </c>
       <c r="G42">
-        <v>575085000</v>
+        <v>523436700</v>
       </c>
       <c r="H42">
         <v>2261800</v>
       </c>
       <c r="I42">
-        <v>32046532000</v>
+        <v>29147334100</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-16T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>1711355914000</v>
+        <v>1549309123000</v>
       </c>
       <c r="L42">
         <v>113241100</v>
@@ -2493,13 +2493,13 @@
         <v>-879900</v>
       </c>
       <c r="N42">
-        <v>-8928951000</v>
+        <v>-7369711800</v>
       </c>
       <c r="O42">
         <v>-20940800</v>
       </c>
       <c r="P42">
-        <v>-243943126000</v>
+        <v>-211233868000</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>2300</v>
       </c>
       <c r="E43">
-        <v>20998712000</v>
+        <v>19778033900</v>
       </c>
       <c r="F43">
-        <v>13377092000</v>
+        <v>12483086900</v>
       </c>
       <c r="G43">
         <v>24841000</v>
@@ -2528,13 +2528,13 @@
         <v>2387600</v>
       </c>
       <c r="I43">
-        <v>34400645000</v>
+        <v>32285961800</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-16T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>1745756559000</v>
+        <v>1581595084800</v>
       </c>
       <c r="L43">
         <v>115628700</v>
@@ -2543,13 +2543,13 @@
         <v>-1100700</v>
       </c>
       <c r="N43">
-        <v>-7621620000</v>
+        <v>-7294947000</v>
       </c>
       <c r="O43">
         <v>-22041500</v>
       </c>
       <c r="P43">
-        <v>-251564746000</v>
+        <v>-218528815000</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>300</v>
       </c>
       <c r="E44">
-        <v>17479850000</v>
+        <v>17224405700</v>
       </c>
       <c r="F44">
-        <v>11584277000</v>
+        <v>9961201700</v>
       </c>
       <c r="G44">
         <v>20170000</v>
@@ -2578,13 +2578,13 @@
         <v>1985600</v>
       </c>
       <c r="I44">
-        <v>29084297000</v>
+        <v>27205777400</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-16T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>1774840856000</v>
+        <v>1608800862200</v>
       </c>
       <c r="L44">
         <v>117614300</v>
@@ -2593,13 +2593,13 @@
         <v>-633100</v>
       </c>
       <c r="N44">
-        <v>-5895573000</v>
+        <v>-7263204000</v>
       </c>
       <c r="O44">
         <v>-22674600</v>
       </c>
       <c r="P44">
-        <v>-257460319000</v>
+        <v>-225792019000</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>2900</v>
       </c>
       <c r="E45">
-        <v>17146250000</v>
+        <v>14985213200</v>
       </c>
       <c r="F45">
-        <v>8541535000</v>
+        <v>7729447900</v>
       </c>
       <c r="G45">
         <v>75449000</v>
@@ -2628,13 +2628,13 @@
         <v>1445100</v>
       </c>
       <c r="I45">
-        <v>25763234000</v>
+        <v>22790110100</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-16T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>1800604090000</v>
+        <v>1631590972300</v>
       </c>
       <c r="L45">
         <v>119059400</v>
@@ -2643,13 +2643,13 @@
         <v>-555000</v>
       </c>
       <c r="N45">
-        <v>-8604715000</v>
+        <v>-7255765300</v>
       </c>
       <c r="O45">
         <v>-23229600</v>
       </c>
       <c r="P45">
-        <v>-266065034000</v>
+        <v>-233047784300</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>10800</v>
       </c>
       <c r="E46">
-        <v>18618046000</v>
+        <v>18122342200</v>
       </c>
       <c r="F46">
-        <v>12795405000</v>
+        <v>12732368100</v>
       </c>
       <c r="G46">
         <v>210544000</v>
@@ -2678,13 +2678,13 @@
         <v>1769200</v>
       </c>
       <c r="I46">
-        <v>31623995000</v>
+        <v>31065254300</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-16T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>1832228085000</v>
+        <v>1662656226600</v>
       </c>
       <c r="L46">
         <v>120828600</v>
@@ -2693,13 +2693,13 @@
         <v>-401800</v>
       </c>
       <c r="N46">
-        <v>-5822641000</v>
+        <v>-5389974100</v>
       </c>
       <c r="O46">
         <v>-23631400</v>
       </c>
       <c r="P46">
-        <v>-271887675000</v>
+        <v>-238437758400</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>5500</v>
       </c>
       <c r="E47">
-        <v>16133085000</v>
+        <v>14255664300</v>
       </c>
       <c r="F47">
-        <v>14625765000</v>
+        <v>13888403100</v>
       </c>
       <c r="G47">
         <v>143355000</v>
@@ -2728,13 +2728,13 @@
         <v>1660400</v>
       </c>
       <c r="I47">
-        <v>30902205000</v>
+        <v>28287422400</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-16T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>1863130290000</v>
+        <v>1690943649000</v>
       </c>
       <c r="L47">
         <v>122489000</v>
@@ -2743,13 +2743,13 @@
         <v>-61300</v>
       </c>
       <c r="N47">
-        <v>-1507320000</v>
+        <v>-367261200</v>
       </c>
       <c r="O47">
         <v>-23692700</v>
       </c>
       <c r="P47">
-        <v>-273394995000</v>
+        <v>-238805019600</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>3500</v>
       </c>
       <c r="E48">
-        <v>19138314000</v>
+        <v>17286267900</v>
       </c>
       <c r="F48">
-        <v>13116234000</v>
+        <v>11881070400</v>
       </c>
       <c r="G48">
         <v>44648000</v>
@@ -2778,13 +2778,13 @@
         <v>2056300</v>
       </c>
       <c r="I48">
-        <v>32299196000</v>
+        <v>29211986300</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-16T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>1895429486000</v>
+        <v>1720155635300</v>
       </c>
       <c r="L48">
         <v>124545300</v>
@@ -2793,13 +2793,13 @@
         <v>-426000</v>
       </c>
       <c r="N48">
-        <v>-6022080000</v>
+        <v>-5405197500</v>
       </c>
       <c r="O48">
         <v>-24118700</v>
       </c>
       <c r="P48">
-        <v>-279417075000</v>
+        <v>-244210217100</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>1600</v>
       </c>
       <c r="E49">
-        <v>18721808000</v>
+        <v>17232798500</v>
       </c>
       <c r="F49">
-        <v>11699136000</v>
+        <v>10425011400</v>
       </c>
       <c r="G49">
         <v>9824000</v>
@@ -2828,13 +2828,13 @@
         <v>1976500</v>
       </c>
       <c r="I49">
-        <v>30430768000</v>
+        <v>27667633900</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-16T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>1925860254000</v>
+        <v>1747823269200</v>
       </c>
       <c r="L49">
         <v>126521800</v>
@@ -2843,13 +2843,13 @@
         <v>-600300</v>
       </c>
       <c r="N49">
-        <v>-7022672000</v>
+        <v>-6807787100</v>
       </c>
       <c r="O49">
         <v>-24719000</v>
       </c>
       <c r="P49">
-        <v>-286439747000</v>
+        <v>-251018004200</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>16600</v>
       </c>
       <c r="E50">
-        <v>9694417000</v>
+        <v>8028584500</v>
       </c>
       <c r="F50">
-        <v>14763957000</v>
+        <v>13402819500</v>
       </c>
       <c r="G50">
         <v>330155000</v>
@@ -2878,13 +2878,13 @@
         <v>1275400</v>
       </c>
       <c r="I50">
-        <v>24788529000</v>
+        <v>21761559000</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-16T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>1950648783000</v>
+        <v>1769584828200</v>
       </c>
       <c r="L50">
         <v>127797200</v>
@@ -2893,13 +2893,13 @@
         <v>132400</v>
       </c>
       <c r="N50">
-        <v>5069540000</v>
+        <v>5374235000</v>
       </c>
       <c r="O50">
         <v>-24586600</v>
       </c>
       <c r="P50">
-        <v>-281370207000</v>
+        <v>-245643769200</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>1700</v>
       </c>
       <c r="E51">
-        <v>11889225000</v>
+        <v>11354959800</v>
       </c>
       <c r="F51">
-        <v>18038066000</v>
+        <v>16689715700</v>
       </c>
       <c r="G51">
         <v>47905000</v>
@@ -2928,13 +2928,13 @@
         <v>1807300</v>
       </c>
       <c r="I51">
-        <v>29975196000</v>
+        <v>28092580500</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-16T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>1980623979000</v>
+        <v>1797677408700</v>
       </c>
       <c r="L51">
         <v>129604500</v>
@@ -2943,13 +2943,13 @@
         <v>522800</v>
       </c>
       <c r="N51">
-        <v>6148841000</v>
+        <v>5334755900</v>
       </c>
       <c r="O51">
         <v>-24063800</v>
       </c>
       <c r="P51">
-        <v>-275221366000</v>
+        <v>-240309013300</v>
       </c>
     </row>
     <row r="52">
@@ -2966,25 +2966,25 @@
         <v>10500</v>
       </c>
       <c r="E52">
-        <v>7939599000</v>
+        <v>6615724200</v>
       </c>
       <c r="F52">
-        <v>37958896000</v>
+        <v>35737419700</v>
       </c>
       <c r="G52">
-        <v>193620000</v>
+        <v>11802000</v>
       </c>
       <c r="H52">
         <v>3214500</v>
       </c>
       <c r="I52">
-        <v>46092115000</v>
+        <v>42364945900</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-16T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2026716094000</v>
+        <v>1840042354600</v>
       </c>
       <c r="L52">
         <v>132819000</v>
@@ -2993,13 +2993,13 @@
         <v>2194000</v>
       </c>
       <c r="N52">
-        <v>30019297000</v>
+        <v>29121695500</v>
       </c>
       <c r="O52">
         <v>-21869800</v>
       </c>
       <c r="P52">
-        <v>-245202069000</v>
+        <v>-211187317800</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>22500</v>
       </c>
       <c r="E53">
-        <v>12806530000</v>
+        <v>11267470600</v>
       </c>
       <c r="F53">
-        <v>40315711000</v>
+        <v>38868459700</v>
       </c>
       <c r="G53">
         <v>186160000</v>
@@ -3028,13 +3028,13 @@
         <v>3367900</v>
       </c>
       <c r="I53">
-        <v>53308401000</v>
+        <v>50322090300</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-16T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2080024495000</v>
+        <v>1890364444900</v>
       </c>
       <c r="L53">
         <v>136186900</v>
@@ -3043,13 +3043,13 @@
         <v>1594600</v>
       </c>
       <c r="N53">
-        <v>27509181000</v>
+        <v>27600989100</v>
       </c>
       <c r="O53">
         <v>-20275200</v>
       </c>
       <c r="P53">
-        <v>-217692888000</v>
+        <v>-183586328700</v>
       </c>
     </row>
     <row r="54">
@@ -3066,25 +3066,25 @@
         <v>8500</v>
       </c>
       <c r="E54">
-        <v>15382443000</v>
+        <v>15368057400</v>
       </c>
       <c r="F54">
-        <v>54785049000</v>
+        <v>53694540600</v>
       </c>
       <c r="G54">
-        <v>98016000</v>
+        <v>89624400</v>
       </c>
       <c r="H54">
         <v>4837300</v>
       </c>
       <c r="I54">
-        <v>70265508000</v>
+        <v>69152222400</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-16T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2150290003000</v>
+        <v>1959516667300</v>
       </c>
       <c r="L54">
         <v>141024200</v>
@@ -3093,13 +3093,13 @@
         <v>2693000</v>
       </c>
       <c r="N54">
-        <v>39402606000</v>
+        <v>38326483200</v>
       </c>
       <c r="O54">
         <v>-17582200</v>
       </c>
       <c r="P54">
-        <v>-178290282000</v>
+        <v>-145259845500</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>21300</v>
       </c>
       <c r="E55">
-        <v>11668407000</v>
+        <v>9179298600</v>
       </c>
       <c r="F55">
-        <v>48209211000</v>
+        <v>46139582700</v>
       </c>
       <c r="G55">
         <v>436749000</v>
@@ -3128,13 +3128,13 @@
         <v>3821000</v>
       </c>
       <c r="I55">
-        <v>60314367000</v>
+        <v>55755630300</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-16T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2210604370000</v>
+        <v>2015272297600</v>
       </c>
       <c r="L55">
         <v>144845200</v>
@@ -3143,13 +3143,13 @@
         <v>1976500</v>
       </c>
       <c r="N55">
-        <v>36540804000</v>
+        <v>36960284100</v>
       </c>
       <c r="O55">
         <v>-15605700</v>
       </c>
       <c r="P55">
-        <v>-141749478000</v>
+        <v>-108299561400</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>11600</v>
       </c>
       <c r="E56">
-        <v>17983030000</v>
+        <v>17617595800</v>
       </c>
       <c r="F56">
-        <v>30511706000</v>
+        <v>28629889700</v>
       </c>
       <c r="G56">
         <v>72799000</v>
@@ -3178,13 +3178,13 @@
         <v>2894900</v>
       </c>
       <c r="I56">
-        <v>48567535000</v>
+        <v>46320284500</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-16T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2259171905000</v>
+        <v>2061592582100</v>
       </c>
       <c r="L56">
         <v>147740100</v>
@@ -3193,13 +3193,13 @@
         <v>654100</v>
       </c>
       <c r="N56">
-        <v>12528676000</v>
+        <v>11012293900</v>
       </c>
       <c r="O56">
         <v>-14951600</v>
       </c>
       <c r="P56">
-        <v>-129220802000</v>
+        <v>-97287267500</v>
       </c>
     </row>
     <row r="57">
@@ -3216,25 +3216,25 @@
         <v>20400</v>
       </c>
       <c r="E57">
-        <v>17601901000</v>
+        <v>17091511900</v>
       </c>
       <c r="F57">
-        <v>21561618000</v>
+        <v>20635844700</v>
       </c>
       <c r="G57">
-        <v>189910000</v>
+        <v>184315600</v>
       </c>
       <c r="H57">
         <v>2227700</v>
       </c>
       <c r="I57">
-        <v>39353429000</v>
+        <v>37911672200</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-16T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2298525334000</v>
+        <v>2099504254300</v>
       </c>
       <c r="L57">
         <v>149967800</v>
@@ -3243,13 +3243,13 @@
         <v>154500</v>
       </c>
       <c r="N57">
-        <v>3959717000</v>
+        <v>3544332800</v>
       </c>
       <c r="O57">
         <v>-14797100</v>
       </c>
       <c r="P57">
-        <v>-125261085000</v>
+        <v>-93742934700</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>14900</v>
       </c>
       <c r="E58">
-        <v>16301020000</v>
+        <v>16081639600</v>
       </c>
       <c r="F58">
-        <v>15744554000</v>
+        <v>14528471300</v>
       </c>
       <c r="G58">
         <v>171586000</v>
@@ -3278,13 +3278,13 @@
         <v>2072400</v>
       </c>
       <c r="I58">
-        <v>32217160000</v>
+        <v>30781696900</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-16T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2330742494000</v>
+        <v>2130285951200</v>
       </c>
       <c r="L58">
         <v>152040200</v>
@@ -3293,13 +3293,13 @@
         <v>-232700</v>
       </c>
       <c r="N58">
-        <v>-556466000</v>
+        <v>-1553168300</v>
       </c>
       <c r="O58">
         <v>-15029800</v>
       </c>
       <c r="P58">
-        <v>-125817551000</v>
+        <v>-95296103000</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>15368557000</v>
+        <v>13971655300</v>
       </c>
       <c r="F59">
-        <v>16361223000</v>
+        <v>14641944000</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>1768400</v>
       </c>
       <c r="I59">
-        <v>31729780000</v>
+        <v>28613599300</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-16T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2362472274000</v>
+        <v>2158899550500</v>
       </c>
       <c r="L59">
         <v>153808600</v>
@@ -3343,13 +3343,13 @@
         <v>-111200</v>
       </c>
       <c r="N59">
-        <v>992666000</v>
+        <v>670288700</v>
       </c>
       <c r="O59">
         <v>-15141000</v>
       </c>
       <c r="P59">
-        <v>-124824885000</v>
+        <v>-94625814300</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>16800</v>
       </c>
       <c r="E60">
-        <v>14015394000</v>
+        <v>11968443000</v>
       </c>
       <c r="F60">
-        <v>16505884000</v>
+        <v>15565125700</v>
       </c>
       <c r="G60">
         <v>200278000</v>
@@ -3378,13 +3378,13 @@
         <v>1735200</v>
       </c>
       <c r="I60">
-        <v>30721556000</v>
+        <v>27733846700</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-16T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>2393193830000</v>
+        <v>2186633397200</v>
       </c>
       <c r="L60">
         <v>155543800</v>
@@ -3393,13 +3393,13 @@
         <v>-150200</v>
       </c>
       <c r="N60">
-        <v>2490490000</v>
+        <v>3596682700</v>
       </c>
       <c r="O60">
         <v>-15291200</v>
       </c>
       <c r="P60">
-        <v>-122334395000</v>
+        <v>-91029131600</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>8200</v>
       </c>
       <c r="E61">
-        <v>22252562000</v>
+        <v>20735280800</v>
       </c>
       <c r="F61">
-        <v>17084810000</v>
+        <v>16353741800</v>
       </c>
       <c r="G61">
         <v>409086000</v>
@@ -3428,13 +3428,13 @@
         <v>2072400</v>
       </c>
       <c r="I61">
-        <v>39746458000</v>
+        <v>37498108600</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-16T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>2432940288000</v>
+        <v>2224131505800</v>
       </c>
       <c r="L61">
         <v>157616200</v>
@@ -3443,13 +3443,13 @@
         <v>-578400</v>
       </c>
       <c r="N61">
-        <v>-5167752000</v>
+        <v>-4381539000</v>
       </c>
       <c r="O61">
         <v>-15869600</v>
       </c>
       <c r="P61">
-        <v>-127502147000</v>
+        <v>-95410670600</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>400</v>
       </c>
       <c r="E62">
-        <v>20981379000</v>
+        <v>19917643800</v>
       </c>
       <c r="F62">
-        <v>14033513000</v>
+        <v>12578669300</v>
       </c>
       <c r="G62">
         <v>1036000</v>
@@ -3478,13 +3478,13 @@
         <v>1865500</v>
       </c>
       <c r="I62">
-        <v>35015928000</v>
+        <v>32497349100</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-16T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>2467956216000</v>
+        <v>2256628854900</v>
       </c>
       <c r="L62">
         <v>159481700</v>
@@ -3493,13 +3493,13 @@
         <v>-379700</v>
       </c>
       <c r="N62">
-        <v>-6947866000</v>
+        <v>-7338974500</v>
       </c>
       <c r="O62">
         <v>-16249300</v>
       </c>
       <c r="P62">
-        <v>-134450013000</v>
+        <v>-102749645100</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>13000</v>
       </c>
       <c r="E63">
-        <v>19831285000</v>
+        <v>18258958900</v>
       </c>
       <c r="F63">
-        <v>9149973000</v>
+        <v>8132291700</v>
       </c>
       <c r="G63">
         <v>192860000</v>
@@ -3528,13 +3528,13 @@
         <v>1685800</v>
       </c>
       <c r="I63">
-        <v>29174118000</v>
+        <v>26584110600</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-16T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>2497130334000</v>
+        <v>2283212965500</v>
       </c>
       <c r="L63">
         <v>161167500</v>
@@ -3543,13 +3543,13 @@
         <v>-731000</v>
       </c>
       <c r="N63">
-        <v>-10681312000</v>
+        <v>-10126667200</v>
       </c>
       <c r="O63">
         <v>-16980300</v>
       </c>
       <c r="P63">
-        <v>-145131325000</v>
+        <v>-112876312300</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>13693802000</v>
+        <v>13370126000</v>
       </c>
       <c r="F64">
-        <v>24961122000</v>
+        <v>24274908900</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3578,13 +3578,13 @@
         <v>1647200</v>
       </c>
       <c r="I64">
-        <v>38654924000</v>
+        <v>37645034900</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-16T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>2535785258000</v>
+        <v>2320858000400</v>
       </c>
       <c r="L64">
         <v>162814700</v>
@@ -3593,13 +3593,13 @@
         <v>185200</v>
       </c>
       <c r="N64">
-        <v>11267320000</v>
+        <v>10904782900</v>
       </c>
       <c r="O64">
         <v>-16795100</v>
       </c>
       <c r="P64">
-        <v>-133864005000</v>
+        <v>-101971529400</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>500</v>
       </c>
       <c r="E65">
-        <v>12955200000</v>
+        <v>12216339600</v>
       </c>
       <c r="F65">
-        <v>35275481000</v>
+        <v>33178280300</v>
       </c>
       <c r="G65">
         <v>3082000</v>
@@ -3628,13 +3628,13 @@
         <v>1912100</v>
       </c>
       <c r="I65">
-        <v>48233763000</v>
+        <v>45397701900</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-16T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2584019021000</v>
+        <v>2366255702300</v>
       </c>
       <c r="L65">
         <v>164726800</v>
@@ -3643,13 +3643,13 @@
         <v>638400</v>
       </c>
       <c r="N65">
-        <v>22320281000</v>
+        <v>20961940700</v>
       </c>
       <c r="O65">
         <v>-16156700</v>
       </c>
       <c r="P65">
-        <v>-111543724000</v>
+        <v>-81009588700</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>43700</v>
       </c>
       <c r="E66">
-        <v>15541613000</v>
+        <v>14464790900</v>
       </c>
       <c r="F66">
-        <v>32796998000</v>
+        <v>29483514800</v>
       </c>
       <c r="G66">
         <v>844725000</v>
@@ -3678,13 +3678,13 @@
         <v>2260900</v>
       </c>
       <c r="I66">
-        <v>49183336000</v>
+        <v>44793030700</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-16T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2633202357000</v>
+        <v>2411048733000</v>
       </c>
       <c r="L66">
         <v>166987700</v>
@@ -3693,13 +3693,13 @@
         <v>603400</v>
       </c>
       <c r="N66">
-        <v>17255385000</v>
+        <v>15018723900</v>
       </c>
       <c r="O66">
         <v>-15553300</v>
       </c>
       <c r="P66">
-        <v>-94288339000</v>
+        <v>-65990864800</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>19129126000</v>
+        <v>17236920100</v>
       </c>
       <c r="F67">
-        <v>34208677000</v>
+        <v>33687298900</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3728,13 +3728,13 @@
         <v>2809800</v>
       </c>
       <c r="I67">
-        <v>53337803000</v>
+        <v>50924219000</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-16T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>2686540160000</v>
+        <v>2461972952000</v>
       </c>
       <c r="L67">
         <v>169797500</v>
@@ -3743,13 +3743,13 @@
         <v>682000</v>
       </c>
       <c r="N67">
-        <v>15079551000</v>
+        <v>16450378800</v>
       </c>
       <c r="O67">
         <v>-14871300</v>
       </c>
       <c r="P67">
-        <v>-79208788000</v>
+        <v>-49540486000</v>
       </c>
     </row>
     <row r="68">
@@ -3766,25 +3766,25 @@
         <v>9100</v>
       </c>
       <c r="E68">
-        <v>23788799000</v>
+        <v>22705383500</v>
       </c>
       <c r="F68">
-        <v>25196314000</v>
+        <v>23474837200</v>
       </c>
       <c r="G68">
-        <v>388794000</v>
+        <v>260822100</v>
       </c>
       <c r="H68">
         <v>2253700</v>
       </c>
       <c r="I68">
-        <v>49373907000</v>
+        <v>46441042800</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-16T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>2735914067000</v>
+        <v>2508413994800</v>
       </c>
       <c r="L68">
         <v>172051200</v>
@@ -3793,13 +3793,13 @@
         <v>-49400</v>
       </c>
       <c r="N68">
-        <v>1407515000</v>
+        <v>769453700</v>
       </c>
       <c r="O68">
         <v>-14920700</v>
       </c>
       <c r="P68">
-        <v>-77801273000</v>
+        <v>-48771032300</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>6711684000</v>
+        <v>6374921100</v>
       </c>
       <c r="F69">
-        <v>17953497000</v>
+        <v>15618734100</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3828,13 +3828,13 @@
         <v>1150700</v>
       </c>
       <c r="I69">
-        <v>24665181000</v>
+        <v>21993655200</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-16T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>2760579248000</v>
+        <v>2530407650000</v>
       </c>
       <c r="L69">
         <v>173201900</v>
@@ -3843,13 +3843,13 @@
         <v>405700</v>
       </c>
       <c r="N69">
-        <v>11241813000</v>
+        <v>9243813000</v>
       </c>
       <c r="O69">
         <v>-14515000</v>
       </c>
       <c r="P69">
-        <v>-66559460000</v>
+        <v>-39527219300</v>
       </c>
     </row>
     <row r="70">
@@ -3869,7 +3869,7 @@
         <v>108200000</v>
       </c>
       <c r="F70">
-        <v>351000000</v>
+        <v>58892400</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>10800</v>
       </c>
       <c r="I70">
-        <v>459200000</v>
+        <v>167092400</v>
       </c>
       <c r="J70" t="str">
         <v>2023-01-16T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>2761038448000</v>
+        <v>2530574742400</v>
       </c>
       <c r="L70">
         <v>173212700</v>
@@ -3893,13 +3893,13 @@
         <v>6800</v>
       </c>
       <c r="N70">
-        <v>242800000</v>
+        <v>-49307600</v>
       </c>
       <c r="O70">
         <v>-14508200</v>
       </c>
       <c r="P70">
-        <v>-66316660000</v>
+        <v>-39576526900</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>125000</v>
       </c>
       <c r="E71">
-        <v>46004209000</v>
+        <v>42419797000</v>
       </c>
       <c r="F71">
-        <v>66020473000</v>
+        <v>59524275700</v>
       </c>
       <c r="G71">
-        <v>2327181000</v>
+        <v>1887021600</v>
       </c>
       <c r="H71">
         <v>6358800</v>
       </c>
       <c r="I71">
-        <v>114351863000</v>
+        <v>103831094300</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-16T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>2875390311000</v>
+        <v>2634405836700</v>
       </c>
       <c r="L71">
         <v>179571500</v>
@@ -3943,13 +3943,13 @@
         <v>726200</v>
       </c>
       <c r="N71">
-        <v>20016264000</v>
+        <v>17104478700</v>
       </c>
       <c r="O71">
         <v>-13782000</v>
       </c>
       <c r="P71">
-        <v>-46300396000</v>
+        <v>-22472048200</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>27400</v>
       </c>
       <c r="E72">
-        <v>24721947000</v>
+        <v>23150919600</v>
       </c>
       <c r="F72">
-        <v>40639268000</v>
+        <v>38133776000</v>
       </c>
       <c r="G72">
         <v>259030000</v>
@@ -3978,13 +3978,13 @@
         <v>3291100</v>
       </c>
       <c r="I72">
-        <v>65620245000</v>
+        <v>61543725600</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-16T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>2941010556000</v>
+        <v>2695949562300</v>
       </c>
       <c r="L72">
         <v>182862600</v>
@@ -3993,13 +3993,13 @@
         <v>701100</v>
       </c>
       <c r="N72">
-        <v>15917321000</v>
+        <v>14982856400</v>
       </c>
       <c r="O72">
         <v>-13080900</v>
       </c>
       <c r="P72">
-        <v>-30383075000</v>
+        <v>-7489191800</v>
       </c>
     </row>
     <row r="73">
@@ -4016,25 +4016,25 @@
         <v>6800</v>
       </c>
       <c r="E73">
-        <v>20459370000</v>
+        <v>19369261200</v>
       </c>
       <c r="F73">
-        <v>25319882000</v>
+        <v>21942362900</v>
       </c>
       <c r="G73">
-        <v>230553000</v>
+        <v>81102600</v>
       </c>
       <c r="H73">
         <v>2744500</v>
       </c>
       <c r="I73">
-        <v>46009805000</v>
+        <v>41392726700</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-16T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>2987020361000</v>
+        <v>2737342289000</v>
       </c>
       <c r="L73">
         <v>185607100</v>
@@ -4043,13 +4043,13 @@
         <v>216300</v>
       </c>
       <c r="N73">
-        <v>4860512000</v>
+        <v>2573101700</v>
       </c>
       <c r="O73">
         <v>-12864600</v>
       </c>
       <c r="P73">
-        <v>-25522563000</v>
+        <v>-4916090100</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>7000</v>
       </c>
       <c r="E74">
-        <v>22034310000</v>
+        <v>20289356700</v>
       </c>
       <c r="F74">
-        <v>29451570000</v>
+        <v>28073149800</v>
       </c>
       <c r="G74">
         <v>160505000</v>
@@ -4078,13 +4078,13 @@
         <v>2744500</v>
       </c>
       <c r="I74">
-        <v>51646385000</v>
+        <v>48523011500</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-16T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3038666746000</v>
+        <v>2785865300500</v>
       </c>
       <c r="L74">
         <v>188351600</v>
@@ -4093,13 +4093,13 @@
         <v>258300</v>
       </c>
       <c r="N74">
-        <v>7417260000</v>
+        <v>7783793100</v>
       </c>
       <c r="O74">
         <v>-12606300</v>
       </c>
       <c r="P74">
-        <v>-18105303000</v>
+        <v>2867703000</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>28200</v>
       </c>
       <c r="E75">
-        <v>34765793000</v>
+        <v>31040222300</v>
       </c>
       <c r="F75">
-        <v>38313377000</v>
+        <v>37568722400</v>
       </c>
       <c r="G75">
-        <v>952335000</v>
+        <v>739048500</v>
       </c>
       <c r="H75">
         <v>4462700</v>
       </c>
       <c r="I75">
-        <v>74031505000</v>
+        <v>69347993200</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-16T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3112698251000</v>
+        <v>2855213293700</v>
       </c>
       <c r="L75">
         <v>192814300</v>
@@ -4143,13 +4143,13 @@
         <v>308700</v>
       </c>
       <c r="N75">
-        <v>3547584000</v>
+        <v>6528500100</v>
       </c>
       <c r="O75">
         <v>-12297600</v>
       </c>
       <c r="P75">
-        <v>-14557719000</v>
+        <v>9396203100</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>7300</v>
       </c>
       <c r="E76">
-        <v>26825744000</v>
+        <v>24757214600</v>
       </c>
       <c r="F76">
-        <v>36182448000</v>
+        <v>34105626900</v>
       </c>
       <c r="G76">
-        <v>219460000</v>
+        <v>69610000</v>
       </c>
       <c r="H76">
         <v>3283500</v>
       </c>
       <c r="I76">
-        <v>63227652000</v>
+        <v>58932451500</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-16T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3175925903000</v>
+        <v>2914145745200</v>
       </c>
       <c r="L76">
         <v>196097800</v>
@@ -4193,13 +4193,13 @@
         <v>262400</v>
       </c>
       <c r="N76">
-        <v>9356704000</v>
+        <v>9348412300</v>
       </c>
       <c r="O76">
         <v>-12035200</v>
       </c>
       <c r="P76">
-        <v>-5201015000</v>
+        <v>18744615400</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>59000</v>
       </c>
       <c r="E77">
-        <v>21237791000</v>
+        <v>20216013800</v>
       </c>
       <c r="F77">
-        <v>20123155000</v>
+        <v>18284895100</v>
       </c>
       <c r="G77">
-        <v>465491000</v>
+        <v>460695800</v>
       </c>
       <c r="H77">
         <v>2394900</v>
       </c>
       <c r="I77">
-        <v>41826437000</v>
+        <v>38961604700</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-16T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3217752340000</v>
+        <v>2953107349900</v>
       </c>
       <c r="L77">
         <v>198492700</v>
@@ -4243,13 +4243,13 @@
         <v>-69100</v>
       </c>
       <c r="N77">
-        <v>-1114636000</v>
+        <v>-1931118700</v>
       </c>
       <c r="O77">
         <v>-12104300</v>
       </c>
       <c r="P77">
-        <v>-6315651000</v>
+        <v>16813496700</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>1500</v>
       </c>
       <c r="E78">
-        <v>31885672000</v>
+        <v>30011947600</v>
       </c>
       <c r="F78">
-        <v>22673742000</v>
+        <v>21441375600</v>
       </c>
       <c r="G78">
         <v>21843000</v>
@@ -4278,13 +4278,13 @@
         <v>3141600</v>
       </c>
       <c r="I78">
-        <v>54581257000</v>
+        <v>51475166200</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-16T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3272333597000</v>
+        <v>3004582516100</v>
       </c>
       <c r="L78">
         <v>201634300</v>
@@ -4293,13 +4293,13 @@
         <v>-481500</v>
       </c>
       <c r="N78">
-        <v>-9211930000</v>
+        <v>-8570572000</v>
       </c>
       <c r="O78">
         <v>-12585800</v>
       </c>
       <c r="P78">
-        <v>-15527581000</v>
+        <v>8242924700</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>6400</v>
       </c>
       <c r="E79">
-        <v>26614727000</v>
+        <v>25290252800</v>
       </c>
       <c r="F79">
-        <v>21700707000</v>
+        <v>17687324400</v>
       </c>
       <c r="G79">
         <v>78778000</v>
@@ -4328,13 +4328,13 @@
         <v>2500100</v>
       </c>
       <c r="I79">
-        <v>48394212000</v>
+        <v>43056355200</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-16T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3320727809000</v>
+        <v>3047638871300</v>
       </c>
       <c r="L79">
         <v>204134400</v>
@@ -4343,13 +4343,13 @@
         <v>-369100</v>
       </c>
       <c r="N79">
-        <v>-4914020000</v>
+        <v>-7602928400</v>
       </c>
       <c r="O79">
         <v>-12954900</v>
       </c>
       <c r="P79">
-        <v>-20441601000</v>
+        <v>639996300</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>7100</v>
       </c>
       <c r="E80">
-        <v>32607206000</v>
+        <v>30638077100</v>
       </c>
       <c r="F80">
-        <v>17812309000</v>
+        <v>17419002700</v>
       </c>
       <c r="G80">
         <v>177857000</v>
@@ -4378,13 +4378,13 @@
         <v>2995200</v>
       </c>
       <c r="I80">
-        <v>50597372000</v>
+        <v>48234936800</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-16T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>3371325181000</v>
+        <v>3095873808100</v>
       </c>
       <c r="L80">
         <v>207129600</v>
@@ -4393,13 +4393,13 @@
         <v>-956100</v>
       </c>
       <c r="N80">
-        <v>-14794897000</v>
+        <v>-13219074400</v>
       </c>
       <c r="O80">
         <v>-13911000</v>
       </c>
       <c r="P80">
-        <v>-35236498000</v>
+        <v>-12579078100</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>123400</v>
       </c>
       <c r="E81">
-        <v>49233892000</v>
+        <v>47896630600</v>
       </c>
       <c r="F81">
-        <v>18102468000</v>
+        <v>17593477500</v>
       </c>
       <c r="G81">
         <v>1200168000</v>
@@ -4428,13 +4428,13 @@
         <v>4311300</v>
       </c>
       <c r="I81">
-        <v>68536528000</v>
+        <v>66690276100</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-16T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>3439861709000</v>
+        <v>3162564084200</v>
       </c>
       <c r="L81">
         <v>211440900</v>
@@ -4443,13 +4443,13 @@
         <v>-2353700</v>
       </c>
       <c r="N81">
-        <v>-31131424000</v>
+        <v>-30303153100</v>
       </c>
       <c r="O81">
         <v>-16264700</v>
       </c>
       <c r="P81">
-        <v>-66367922000</v>
+        <v>-42882231200</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>4300</v>
       </c>
       <c r="E82">
-        <v>32566764000</v>
+        <v>30437994900</v>
       </c>
       <c r="F82">
-        <v>19383211000</v>
+        <v>19167926500</v>
       </c>
       <c r="G82">
         <v>148061000</v>
@@ -4478,13 +4478,13 @@
         <v>3060500</v>
       </c>
       <c r="I82">
-        <v>52098036000</v>
+        <v>49753982400</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-16T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>3491959745000</v>
+        <v>3212318066600</v>
       </c>
       <c r="L82">
         <v>214501400</v>
@@ -4493,13 +4493,13 @@
         <v>-786600</v>
       </c>
       <c r="N82">
-        <v>-13183553000</v>
+        <v>-11270068400</v>
       </c>
       <c r="O82">
         <v>-17051300</v>
       </c>
       <c r="P82">
-        <v>-79551475000</v>
+        <v>-54152299600</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>17300</v>
       </c>
       <c r="E83">
-        <v>35571512000</v>
+        <v>33640944500</v>
       </c>
       <c r="F83">
-        <v>17366689000</v>
+        <v>16838118100</v>
       </c>
       <c r="G83">
         <v>562308000</v>
@@ -4528,13 +4528,13 @@
         <v>3206400</v>
       </c>
       <c r="I83">
-        <v>53500509000</v>
+        <v>51041370600</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-16T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>3545460254000</v>
+        <v>3263359437200</v>
       </c>
       <c r="L83">
         <v>217707800</v>
@@ -4543,13 +4543,13 @@
         <v>-1134900</v>
       </c>
       <c r="N83">
-        <v>-18204823000</v>
+        <v>-16802826400</v>
       </c>
       <c r="O83">
         <v>-18186200</v>
       </c>
       <c r="P83">
-        <v>-97756298000</v>
+        <v>-70955126000</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>4300</v>
       </c>
       <c r="E84">
-        <v>22223078000</v>
+        <v>20781221300</v>
       </c>
       <c r="F84">
-        <v>20142036000</v>
+        <v>18556323300</v>
       </c>
       <c r="G84">
         <v>43242000</v>
@@ -4578,13 +4578,13 @@
         <v>2338000</v>
       </c>
       <c r="I84">
-        <v>42408356000</v>
+        <v>39380786600</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-16T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>3587868610000</v>
+        <v>3302740223800</v>
       </c>
       <c r="L84">
         <v>220045800</v>
@@ -4593,13 +4593,13 @@
         <v>-312300</v>
       </c>
       <c r="N84">
-        <v>-2081042000</v>
+        <v>-2224898000</v>
       </c>
       <c r="O84">
         <v>-18498500</v>
       </c>
       <c r="P84">
-        <v>-99837340000</v>
+        <v>-73180024000</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>8200</v>
       </c>
       <c r="E85">
-        <v>28213337000</v>
+        <v>26909442200</v>
       </c>
       <c r="F85">
-        <v>19390982000</v>
+        <v>18052421900</v>
       </c>
       <c r="G85">
         <v>127390000</v>
@@ -4628,13 +4628,13 @@
         <v>2780700</v>
       </c>
       <c r="I85">
-        <v>47731709000</v>
+        <v>45089254100</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-16T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>3635600319000</v>
+        <v>3347829477900</v>
       </c>
       <c r="L85">
         <v>222826500</v>
@@ -4643,13 +4643,13 @@
         <v>-517900</v>
       </c>
       <c r="N85">
-        <v>-8822355000</v>
+        <v>-8857020300</v>
       </c>
       <c r="O85">
         <v>-19016400</v>
       </c>
       <c r="P85">
-        <v>-108659695000</v>
+        <v>-82037044300</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>19900</v>
       </c>
       <c r="E86">
-        <v>20569815000</v>
+        <v>19448237700</v>
       </c>
       <c r="F86">
-        <v>23160125000</v>
+        <v>21805680800</v>
       </c>
       <c r="G86">
         <v>725096000</v>
@@ -4678,13 +4678,13 @@
         <v>2339400</v>
       </c>
       <c r="I86">
-        <v>44455036000</v>
+        <v>41979014500</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-16T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>3680055355000</v>
+        <v>3389808492400</v>
       </c>
       <c r="L86">
         <v>225165900</v>
@@ -4693,13 +4693,13 @@
         <v>251700</v>
       </c>
       <c r="N86">
-        <v>2590310000</v>
+        <v>2357443100</v>
       </c>
       <c r="O86">
         <v>-18764700</v>
       </c>
       <c r="P86">
-        <v>-106069385000</v>
+        <v>-79679601200</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>1400</v>
       </c>
       <c r="E87">
-        <v>16488724000</v>
+        <v>14385729100</v>
       </c>
       <c r="F87">
-        <v>15089466000</v>
+        <v>14520935100</v>
       </c>
       <c r="G87">
-        <v>29565000</v>
+        <v>25469100</v>
       </c>
       <c r="H87">
         <v>1879600</v>
       </c>
       <c r="I87">
-        <v>31607755000</v>
+        <v>28932133300</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-16T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>3711663110000</v>
+        <v>3418740625700</v>
       </c>
       <c r="L87">
         <v>227045500</v>
@@ -4743,13 +4743,13 @@
         <v>-45400</v>
       </c>
       <c r="N87">
-        <v>-1399258000</v>
+        <v>135206000</v>
       </c>
       <c r="O87">
         <v>-18810100</v>
       </c>
       <c r="P87">
-        <v>-107468643000</v>
+        <v>-79544395200</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>1600</v>
       </c>
       <c r="E88">
-        <v>18834263000</v>
+        <v>17420977700</v>
       </c>
       <c r="F88">
-        <v>36937337000</v>
+        <v>36771602900</v>
       </c>
       <c r="G88">
         <v>29162000</v>
@@ -4778,13 +4778,13 @@
         <v>3573600</v>
       </c>
       <c r="I88">
-        <v>55800762000</v>
+        <v>54221742600</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-16T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>3767463872000</v>
+        <v>3472962368300</v>
       </c>
       <c r="L88">
         <v>230619100</v>
@@ -4793,13 +4793,13 @@
         <v>1164600</v>
       </c>
       <c r="N88">
-        <v>18103074000</v>
+        <v>19350625200</v>
       </c>
       <c r="O88">
         <v>-17645500</v>
       </c>
       <c r="P88">
-        <v>-89365569000</v>
+        <v>-60193770000</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>14000</v>
       </c>
       <c r="E89">
-        <v>20705480000</v>
+        <v>20065920200</v>
       </c>
       <c r="F89">
-        <v>30329508000</v>
+        <v>29747790300</v>
       </c>
       <c r="G89">
         <v>185863000</v>
@@ -4828,13 +4828,13 @@
         <v>2840900</v>
       </c>
       <c r="I89">
-        <v>51220851000</v>
+        <v>49999573500</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-16T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>3818684723000</v>
+        <v>3522961941800</v>
       </c>
       <c r="L89">
         <v>233460000</v>
@@ -4843,13 +4843,13 @@
         <v>423100</v>
       </c>
       <c r="N89">
-        <v>9624028000</v>
+        <v>9681870100</v>
       </c>
       <c r="O89">
         <v>-17222400</v>
       </c>
       <c r="P89">
-        <v>-79741541000</v>
+        <v>-50511899900</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>4300</v>
       </c>
       <c r="E90">
-        <v>18222096000</v>
+        <v>18118799400</v>
       </c>
       <c r="F90">
-        <v>37476153000</v>
+        <v>36749180700</v>
       </c>
       <c r="G90">
         <v>74642000</v>
@@ -4878,13 +4878,13 @@
         <v>2911000</v>
       </c>
       <c r="I90">
-        <v>55772891000</v>
+        <v>54942622100</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-16T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>3874457614000</v>
+        <v>3577904563900</v>
       </c>
       <c r="L90">
         <v>236371000</v>
@@ -4893,13 +4893,13 @@
         <v>976300</v>
       </c>
       <c r="N90">
-        <v>19254057000</v>
+        <v>18630381300</v>
       </c>
       <c r="O90">
         <v>-16246100</v>
       </c>
       <c r="P90">
-        <v>-60487484000</v>
+        <v>-31881518600</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>1700</v>
       </c>
       <c r="E91">
-        <v>18450004000</v>
+        <v>17970484000</v>
       </c>
       <c r="F91">
-        <v>38986220000</v>
+        <v>38323883000</v>
       </c>
       <c r="G91">
         <v>16952000</v>
@@ -4928,13 +4928,13 @@
         <v>3419300</v>
       </c>
       <c r="I91">
-        <v>57453176000</v>
+        <v>56311319000</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-16T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>3931910790000</v>
+        <v>3634215882900</v>
       </c>
       <c r="L91">
         <v>239790300</v>
@@ -4943,13 +4943,13 @@
         <v>1310400</v>
       </c>
       <c r="N91">
-        <v>20536216000</v>
+        <v>20353399000</v>
       </c>
       <c r="O91">
         <v>-14935700</v>
       </c>
       <c r="P91">
-        <v>-39951268000</v>
+        <v>-11528119600</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>36400</v>
       </c>
       <c r="E92">
-        <v>22305220000</v>
+        <v>21797528200</v>
       </c>
       <c r="F92">
-        <v>42247464000</v>
+        <v>38662752300</v>
       </c>
       <c r="G92">
-        <v>660395000</v>
+        <v>540115400</v>
       </c>
       <c r="H92">
         <v>3406400</v>
       </c>
       <c r="I92">
-        <v>65213079000</v>
+        <v>61000395900</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-16T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>3997123869000</v>
+        <v>3695216278800</v>
       </c>
       <c r="L92">
         <v>243196700</v>
@@ -4993,13 +4993,13 @@
         <v>783400</v>
       </c>
       <c r="N92">
-        <v>19942244000</v>
+        <v>16865224100</v>
       </c>
       <c r="O92">
         <v>-14152300</v>
       </c>
       <c r="P92">
-        <v>-20009024000</v>
+        <v>5337104500</v>
       </c>
     </row>
     <row r="93">
@@ -5016,25 +5016,25 @@
         <v>92900</v>
       </c>
       <c r="E93">
-        <v>14296616000</v>
+        <v>13400912600</v>
       </c>
       <c r="F93">
-        <v>65425512000</v>
+        <v>63885753300</v>
       </c>
       <c r="G93">
-        <v>736845000</v>
+        <v>735346500</v>
       </c>
       <c r="H93">
         <v>4546500</v>
       </c>
       <c r="I93">
-        <v>80458973000</v>
+        <v>78022012400</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-16T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>4077582842000</v>
+        <v>3773238291200</v>
       </c>
       <c r="L93">
         <v>247743200</v>
@@ -5043,13 +5043,13 @@
         <v>2631200</v>
       </c>
       <c r="N93">
-        <v>51128896000</v>
+        <v>50484840700</v>
       </c>
       <c r="O93">
         <v>-11521100</v>
       </c>
       <c r="P93">
-        <v>31119872000</v>
+        <v>55821945200</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>37400</v>
       </c>
       <c r="E94">
-        <v>22235300000</v>
+        <v>21950784800</v>
       </c>
       <c r="F94">
-        <v>118236949000</v>
+        <v>113241549400</v>
       </c>
       <c r="G94">
-        <v>563337000</v>
+        <v>125775000</v>
       </c>
       <c r="H94">
         <v>7507100</v>
       </c>
       <c r="I94">
-        <v>141035586000</v>
+        <v>135318109200</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-16T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>4218618428000</v>
+        <v>3908556400400</v>
       </c>
       <c r="L94">
         <v>255250300</v>
@@ -5093,13 +5093,13 @@
         <v>5256900</v>
       </c>
       <c r="N94">
-        <v>96001649000</v>
+        <v>91290764600</v>
       </c>
       <c r="O94">
         <v>-6264200</v>
       </c>
       <c r="P94">
-        <v>127121521000</v>
+        <v>147112709800</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>11500</v>
       </c>
       <c r="E95">
-        <v>38774299000</v>
+        <v>36335640100</v>
       </c>
       <c r="F95">
-        <v>82395103000</v>
+        <v>63864652000</v>
       </c>
       <c r="G95">
         <v>658250000</v>
@@ -5128,13 +5128,13 @@
         <v>7387400</v>
       </c>
       <c r="I95">
-        <v>121827652000</v>
+        <v>100858542100</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-16T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>4340446080000</v>
+        <v>4009414942500</v>
       </c>
       <c r="L95">
         <v>262637700</v>
@@ -5143,13 +5143,13 @@
         <v>3145300</v>
       </c>
       <c r="N95">
-        <v>43620804000</v>
+        <v>27529011900</v>
       </c>
       <c r="O95">
         <v>-3118900</v>
       </c>
       <c r="P95">
-        <v>170742325000</v>
+        <v>174641721700</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>23900</v>
       </c>
       <c r="E96">
-        <v>43658226000</v>
+        <v>41752034100</v>
       </c>
       <c r="F96">
-        <v>24410427000</v>
+        <v>23627810400</v>
       </c>
       <c r="G96">
         <v>391889000</v>
@@ -5178,13 +5178,13 @@
         <v>3902500</v>
       </c>
       <c r="I96">
-        <v>68460542000</v>
+        <v>65771733500</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-16T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>4408906622000</v>
+        <v>4075186676000</v>
       </c>
       <c r="L96">
         <v>266540200</v>
@@ -5193,13 +5193,13 @@
         <v>-994000</v>
       </c>
       <c r="N96">
-        <v>-19247799000</v>
+        <v>-18124223700</v>
       </c>
       <c r="O96">
         <v>-4112900</v>
       </c>
       <c r="P96">
-        <v>151494526000</v>
+        <v>156517498000</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>6600</v>
       </c>
       <c r="E97">
-        <v>38099229000</v>
+        <v>36711817800</v>
       </c>
       <c r="F97">
-        <v>30551123000</v>
+        <v>29442133100</v>
       </c>
       <c r="G97">
-        <v>225930000</v>
+        <v>58897200</v>
       </c>
       <c r="H97">
         <v>3839100</v>
       </c>
       <c r="I97">
-        <v>68876282000</v>
+        <v>66212848100</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-16T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>4477782904000</v>
+        <v>4141399524100</v>
       </c>
       <c r="L97">
         <v>270379300</v>
@@ -5243,13 +5243,13 @@
         <v>-737300</v>
       </c>
       <c r="N97">
-        <v>-7548106000</v>
+        <v>-7269684700</v>
       </c>
       <c r="O97">
         <v>-4850200</v>
       </c>
       <c r="P97">
-        <v>143946420000</v>
+        <v>149247813300</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>7200</v>
       </c>
       <c r="E98">
-        <v>25822534000</v>
+        <v>24431326600</v>
       </c>
       <c r="F98">
-        <v>25863182000</v>
+        <v>24779666600</v>
       </c>
       <c r="G98">
         <v>161999000</v>
@@ -5278,13 +5278,13 @@
         <v>2839400</v>
       </c>
       <c r="I98">
-        <v>51847715000</v>
+        <v>49372992200</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-16T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>4529630619000</v>
+        <v>4190772516300</v>
       </c>
       <c r="L98">
         <v>273218700</v>
@@ -5293,13 +5293,13 @@
         <v>32000</v>
       </c>
       <c r="N98">
-        <v>40648000</v>
+        <v>348340000</v>
       </c>
       <c r="O98">
         <v>-4818200</v>
       </c>
       <c r="P98">
-        <v>143987068000</v>
+        <v>149596153300</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>5000</v>
       </c>
       <c r="E99">
-        <v>22100747000</v>
+        <v>21201647000</v>
       </c>
       <c r="F99">
-        <v>23047493000</v>
+        <v>22312728500</v>
       </c>
       <c r="G99">
         <v>92535000</v>
@@ -5328,13 +5328,13 @@
         <v>2346800</v>
       </c>
       <c r="I99">
-        <v>45240775000</v>
+        <v>43606910500</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-16T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>4574871394000</v>
+        <v>4234379426800</v>
       </c>
       <c r="L99">
         <v>275565500</v>
@@ -5343,13 +5343,13 @@
         <v>-121000</v>
       </c>
       <c r="N99">
-        <v>946746000</v>
+        <v>1111081500</v>
       </c>
       <c r="O99">
         <v>-4939200</v>
       </c>
       <c r="P99">
-        <v>144933814000</v>
+        <v>150707234800</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>4100</v>
       </c>
       <c r="E100">
-        <v>17375183000</v>
+        <v>16918040600</v>
       </c>
       <c r="F100">
-        <v>29241107000</v>
+        <v>27778571000</v>
       </c>
       <c r="G100">
         <v>157840000</v>
@@ -5378,13 +5378,13 @@
         <v>2290300</v>
       </c>
       <c r="I100">
-        <v>46774130000</v>
+        <v>44854451600</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-16T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>4621645524000</v>
+        <v>4279233878400</v>
       </c>
       <c r="L100">
         <v>277855800</v>
@@ -5393,13 +5393,13 @@
         <v>319000</v>
       </c>
       <c r="N100">
-        <v>11865924000</v>
+        <v>10860530400</v>
       </c>
       <c r="O100">
         <v>-4620200</v>
       </c>
       <c r="P100">
-        <v>156799738000</v>
+        <v>161567765200</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>15500</v>
       </c>
       <c r="E101">
-        <v>21367648000</v>
+        <v>20697718600</v>
       </c>
       <c r="F101">
-        <v>45179837000</v>
+        <v>36028597400</v>
       </c>
       <c r="G101">
-        <v>170320000</v>
+        <v>161329000</v>
       </c>
       <c r="H101">
         <v>3023400</v>
       </c>
       <c r="I101">
-        <v>66717805000</v>
+        <v>56887645000</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-16T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>4688363329000</v>
+        <v>4336121523400</v>
       </c>
       <c r="L101">
         <v>280879200</v>
@@ -5443,13 +5443,13 @@
         <v>887900</v>
       </c>
       <c r="N101">
-        <v>23812189000</v>
+        <v>15330878800</v>
       </c>
       <c r="O101">
         <v>-3732300</v>
       </c>
       <c r="P101">
-        <v>180611927000</v>
+        <v>176898644000</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>25200</v>
       </c>
       <c r="E102">
-        <v>21852827000</v>
+        <v>19856425400</v>
       </c>
       <c r="F102">
-        <v>89373200000</v>
+        <v>84643134800</v>
       </c>
       <c r="G102">
         <v>857013000</v>
@@ -5478,13 +5478,13 @@
         <v>5916300</v>
       </c>
       <c r="I102">
-        <v>112083040000</v>
+        <v>105356573200</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-16T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>4800446369000</v>
+        <v>4441478096600</v>
       </c>
       <c r="L102">
         <v>286795500</v>
@@ -5493,13 +5493,13 @@
         <v>3614100</v>
       </c>
       <c r="N102">
-        <v>67520373000</v>
+        <v>64786709400</v>
       </c>
       <c r="O102">
         <v>-118200</v>
       </c>
       <c r="P102">
-        <v>248132300000</v>
+        <v>241685353400</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>40900</v>
       </c>
       <c r="E103">
-        <v>21609819000</v>
+        <v>20734295400</v>
       </c>
       <c r="F103">
-        <v>134351670000</v>
+        <v>132478045500</v>
       </c>
       <c r="G103">
-        <v>1415070000</v>
+        <v>1339445700</v>
       </c>
       <c r="H103">
         <v>8385700</v>
       </c>
       <c r="I103">
-        <v>157376559000</v>
+        <v>154551786600</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-16T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>4957822928000</v>
+        <v>4596029883200</v>
       </c>
       <c r="L103">
         <v>295181200</v>
@@ -5543,13 +5543,13 @@
         <v>5976600</v>
       </c>
       <c r="N103">
-        <v>112741851000</v>
+        <v>111743750100</v>
       </c>
       <c r="O103">
         <v>5858400</v>
       </c>
       <c r="P103">
-        <v>360874151000</v>
+        <v>353429103500</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>87700</v>
       </c>
       <c r="E104">
-        <v>22351408000</v>
+        <v>22065694000</v>
       </c>
       <c r="F104">
-        <v>122977969000</v>
+        <v>114459296200</v>
       </c>
       <c r="G104">
-        <v>1125074000</v>
+        <v>1076123000</v>
       </c>
       <c r="H104">
         <v>8005700</v>
       </c>
       <c r="I104">
-        <v>146454451000</v>
+        <v>137601113200</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-16T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>5104277379000</v>
+        <v>4733630996400</v>
       </c>
       <c r="L104">
         <v>303186900</v>
@@ -5593,13 +5593,13 @@
         <v>5399400</v>
       </c>
       <c r="N104">
-        <v>100626561000</v>
+        <v>92393602200</v>
       </c>
       <c r="O104">
         <v>11257800</v>
       </c>
       <c r="P104">
-        <v>461500712000</v>
+        <v>445822705700</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>53600</v>
       </c>
       <c r="E105">
-        <v>43415646000</v>
+        <v>42672889500</v>
       </c>
       <c r="F105">
-        <v>64070643000</v>
+        <v>59907010800</v>
       </c>
       <c r="G105">
         <v>666595000</v>
@@ -5628,13 +5628,13 @@
         <v>6113600</v>
       </c>
       <c r="I105">
-        <v>108152884000</v>
+        <v>103246495300</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-16T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>5212430263000</v>
+        <v>4836877491700</v>
       </c>
       <c r="L105">
         <v>309300500</v>
@@ -5643,13 +5643,13 @@
         <v>1029000</v>
       </c>
       <c r="N105">
-        <v>20654997000</v>
+        <v>17234121300</v>
       </c>
       <c r="O105">
         <v>12286800</v>
       </c>
       <c r="P105">
-        <v>482155709000</v>
+        <v>463056827000</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>44300</v>
       </c>
       <c r="E106">
-        <v>67155513000</v>
+        <v>61221253200</v>
       </c>
       <c r="F106">
-        <v>36749090000</v>
+        <v>30806838200</v>
       </c>
       <c r="G106">
         <v>564275000</v>
@@ -5678,13 +5678,13 @@
         <v>6192700</v>
       </c>
       <c r="I106">
-        <v>104468878000</v>
+        <v>92592366400</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-16T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>5316899141000</v>
+        <v>4929469858100</v>
       </c>
       <c r="L106">
         <v>315493200</v>
@@ -5693,13 +5693,13 @@
         <v>-2146000</v>
       </c>
       <c r="N106">
-        <v>-30406423000</v>
+        <v>-30414415000</v>
       </c>
       <c r="O106">
         <v>10140800</v>
       </c>
       <c r="P106">
-        <v>451749286000</v>
+        <v>432642412000</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>18400</v>
       </c>
       <c r="E107">
-        <v>52802105000</v>
+        <v>45443371100</v>
       </c>
       <c r="F107">
-        <v>32445122000</v>
+        <v>27058913600</v>
       </c>
       <c r="G107">
         <v>447397000</v>
@@ -5728,13 +5728,13 @@
         <v>4667300</v>
       </c>
       <c r="I107">
-        <v>85694624000</v>
+        <v>72949681700</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-16T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>5402593765000</v>
+        <v>5002419539800</v>
       </c>
       <c r="L107">
         <v>320160500</v>
@@ -5743,13 +5743,13 @@
         <v>-1370300</v>
       </c>
       <c r="N107">
-        <v>-20356983000</v>
+        <v>-18384457500</v>
       </c>
       <c r="O107">
         <v>8770500</v>
       </c>
       <c r="P107">
-        <v>431392303000</v>
+        <v>414257954500</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>8600</v>
       </c>
       <c r="E108">
-        <v>35211522000</v>
+        <v>33365370000</v>
       </c>
       <c r="F108">
-        <v>28367466000</v>
+        <v>21067872900</v>
       </c>
       <c r="G108">
         <v>536432000</v>
@@ -5778,13 +5778,13 @@
         <v>3407600</v>
       </c>
       <c r="I108">
-        <v>64115420000</v>
+        <v>54969674900</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-16T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>5466709185000</v>
+        <v>5057389214700</v>
       </c>
       <c r="L108">
         <v>323568100</v>
@@ -5793,13 +5793,13 @@
         <v>-561400</v>
       </c>
       <c r="N108">
-        <v>-6844056000</v>
+        <v>-12297497100</v>
       </c>
       <c r="O108">
         <v>8209100</v>
       </c>
       <c r="P108">
-        <v>424548247000</v>
+        <v>401960457400</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>44500</v>
       </c>
       <c r="E109">
-        <v>27063131000</v>
+        <v>25947347900</v>
       </c>
       <c r="F109">
-        <v>38517441000</v>
+        <v>33714448800</v>
       </c>
       <c r="G109">
-        <v>881842000</v>
+        <v>674849200</v>
       </c>
       <c r="H109">
         <v>3516700</v>
       </c>
       <c r="I109">
-        <v>66462414000</v>
+        <v>60336645900</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-16T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>5533171599000</v>
+        <v>5117725860600</v>
       </c>
       <c r="L109">
         <v>327084800</v>
@@ -5843,13 +5843,13 @@
         <v>391000</v>
       </c>
       <c r="N109">
-        <v>11454310000</v>
+        <v>7767100900</v>
       </c>
       <c r="O109">
         <v>8600100</v>
       </c>
       <c r="P109">
-        <v>436002557000</v>
+        <v>409727558300</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>13600</v>
       </c>
       <c r="E110">
-        <v>30642731000</v>
+        <v>29650624100</v>
       </c>
       <c r="F110">
-        <v>29173164000</v>
+        <v>28102435800</v>
       </c>
       <c r="G110">
-        <v>375237000</v>
+        <v>372040200</v>
       </c>
       <c r="H110">
         <v>3216400</v>
       </c>
       <c r="I110">
-        <v>60191132000</v>
+        <v>58125100100</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-16T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>5593362731000</v>
+        <v>5175850960700</v>
       </c>
       <c r="L110">
         <v>330301200</v>
@@ -5893,13 +5893,13 @@
         <v>-183600</v>
       </c>
       <c r="N110">
-        <v>-1469567000</v>
+        <v>-1548188300</v>
       </c>
       <c r="O110">
         <v>8416500</v>
       </c>
       <c r="P110">
-        <v>434532990000</v>
+        <v>408179370000</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>23000</v>
       </c>
       <c r="E111">
-        <v>37557967000</v>
+        <v>36471055000</v>
       </c>
       <c r="F111">
-        <v>42442898000</v>
+        <v>41311630400</v>
       </c>
       <c r="G111">
-        <v>347409000</v>
+        <v>343812600</v>
       </c>
       <c r="H111">
         <v>4713500</v>
       </c>
       <c r="I111">
-        <v>80348274000</v>
+        <v>78126498000</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-16T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>5673711005000</v>
+        <v>5253977458700</v>
       </c>
       <c r="L111">
         <v>335014700</v>
@@ -5943,13 +5943,13 @@
         <v>-339700</v>
       </c>
       <c r="N111">
-        <v>4884931000</v>
+        <v>4840575400</v>
       </c>
       <c r="O111">
         <v>8076800</v>
       </c>
       <c r="P111">
-        <v>439417921000</v>
+        <v>413019945400</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>14300</v>
       </c>
       <c r="E112">
-        <v>52894107000</v>
+        <v>52306595100</v>
       </c>
       <c r="F112">
-        <v>56584052000</v>
+        <v>55433303900</v>
       </c>
       <c r="G112">
         <v>546967000</v>
@@ -5978,13 +5978,13 @@
         <v>6492200</v>
       </c>
       <c r="I112">
-        <v>110025126000</v>
+        <v>108286866000</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-16T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>5783736131000</v>
+        <v>5362264324700</v>
       </c>
       <c r="L112">
         <v>341506900</v>
@@ -5993,13 +5993,13 @@
         <v>-389100</v>
       </c>
       <c r="N112">
-        <v>3689945000</v>
+        <v>3126708800</v>
       </c>
       <c r="O112">
         <v>7687700</v>
       </c>
       <c r="P112">
-        <v>443107866000</v>
+        <v>416146654200</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>38200</v>
       </c>
       <c r="E113">
-        <v>56087070000</v>
+        <v>52888371900</v>
       </c>
       <c r="F113">
-        <v>39592073000</v>
+        <v>34855614200</v>
       </c>
       <c r="G113">
         <v>572668000</v>
@@ -6028,13 +6028,13 @@
         <v>5290900</v>
       </c>
       <c r="I113">
-        <v>96251811000</v>
+        <v>88316654100</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-16T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>5879987942000</v>
+        <v>5450580978800</v>
       </c>
       <c r="L113">
         <v>346797800</v>
@@ -6043,13 +6043,13 @@
         <v>-624100</v>
       </c>
       <c r="N113">
-        <v>-16494997000</v>
+        <v>-18032757700</v>
       </c>
       <c r="O113">
         <v>7063600</v>
       </c>
       <c r="P113">
-        <v>426612869000</v>
+        <v>398113896500</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>19900</v>
       </c>
       <c r="E114">
-        <v>70377805000</v>
+        <v>66648737800</v>
       </c>
       <c r="F114">
-        <v>36033027000</v>
+        <v>32545118400</v>
       </c>
       <c r="G114">
         <v>247401000</v>
@@ -6078,13 +6078,13 @@
         <v>6070600</v>
       </c>
       <c r="I114">
-        <v>106658233000</v>
+        <v>99441257200</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-16T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>5986646175000</v>
+        <v>5550022236000</v>
       </c>
       <c r="L114">
         <v>352868400</v>
@@ -6093,13 +6093,13 @@
         <v>-1974900</v>
       </c>
       <c r="N114">
-        <v>-34344778000</v>
+        <v>-34103619400</v>
       </c>
       <c r="O114">
         <v>5088700</v>
       </c>
       <c r="P114">
-        <v>392268091000</v>
+        <v>364010277100</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>29500</v>
       </c>
       <c r="E115">
-        <v>79733350000</v>
+        <v>76589596900</v>
       </c>
       <c r="F115">
-        <v>50425306000</v>
+        <v>48680852200</v>
       </c>
       <c r="G115">
         <v>899043000</v>
@@ -6128,13 +6128,13 @@
         <v>8139900</v>
       </c>
       <c r="I115">
-        <v>131057699000</v>
+        <v>126169492100</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-16T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>6117703874000</v>
+        <v>5676191728100</v>
       </c>
       <c r="L115">
         <v>361008300</v>
@@ -6143,13 +6143,13 @@
         <v>-2463400</v>
       </c>
       <c r="N115">
-        <v>-29308044000</v>
+        <v>-27908744700</v>
       </c>
       <c r="O115">
         <v>2625300</v>
       </c>
       <c r="P115">
-        <v>362960047000</v>
+        <v>336101532400</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2023-01-16T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>6117758004000</v>
+        <v>5676245858100</v>
       </c>
       <c r="L116">
         <v>361015500</v>
@@ -6199,7 +6199,7 @@
         <v>2618100</v>
       </c>
       <c r="P116">
-        <v>362905917000</v>
+        <v>336047402400</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>24562900</v>
       </c>
       <c r="E117">
-        <v>37763374000</v>
+        <v>37736600800</v>
       </c>
       <c r="F117">
-        <v>25779171000</v>
+        <v>21783270900</v>
       </c>
       <c r="G117">
-        <v>497209968000</v>
+        <v>411167396700</v>
       </c>
       <c r="H117">
         <v>27845900</v>
       </c>
       <c r="I117">
-        <v>560752513000</v>
+        <v>470687268400</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-16T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>6678510517000</v>
+        <v>6146933126500</v>
       </c>
       <c r="L117">
         <v>388861400</v>
@@ -6243,13 +6243,13 @@
         <v>-1024800</v>
       </c>
       <c r="N117">
-        <v>-11984203000</v>
+        <v>-15953329900</v>
       </c>
       <c r="O117">
         <v>1593300</v>
       </c>
       <c r="P117">
-        <v>350921714000</v>
+        <v>320094072500</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230116/VNINDEX_HOSE_5p_20230116.xlsx
+++ b/name/vnindex/20230116/VNINDEX_HOSE_5p_20230116.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>3137832900</v>
       </c>
+      <c r="Q2">
+        <v>16971751200</v>
+      </c>
+      <c r="R2">
+        <v>13833918300</v>
+      </c>
+      <c r="S2">
+        <v>1331800</v>
+      </c>
+      <c r="T2">
+        <v>955700</v>
+      </c>
+      <c r="U2">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V2">
+        <v>22948124031</v>
+      </c>
+      <c r="W2">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X2">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y2">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z2">
+        <v>1535944</v>
+      </c>
+      <c r="AA2">
+        <v>13735.3</v>
+      </c>
+      <c r="AB2">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC2">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>12165332900</v>
       </c>
+      <c r="Q3">
+        <v>42729232800</v>
+      </c>
+      <c r="R3">
+        <v>30563899900</v>
+      </c>
+      <c r="S3">
+        <v>2928200</v>
+      </c>
+      <c r="T3">
+        <v>2104000</v>
+      </c>
+      <c r="U3">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V3">
+        <v>22948124031</v>
+      </c>
+      <c r="W3">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X3">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y3">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z3">
+        <v>1535944</v>
+      </c>
+      <c r="AA3">
+        <v>13735.3</v>
+      </c>
+      <c r="AB3">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC3">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>23253546800</v>
       </c>
+      <c r="Q4">
+        <v>69981972900</v>
+      </c>
+      <c r="R4">
+        <v>46728426100</v>
+      </c>
+      <c r="S4">
+        <v>4348400</v>
+      </c>
+      <c r="T4">
+        <v>3211900</v>
+      </c>
+      <c r="U4">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V4">
+        <v>22948124031</v>
+      </c>
+      <c r="W4">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X4">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y4">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z4">
+        <v>1535944</v>
+      </c>
+      <c r="AA4">
+        <v>13735.3</v>
+      </c>
+      <c r="AB4">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>39810556100</v>
       </c>
+      <c r="Q5">
+        <v>107530786200</v>
+      </c>
+      <c r="R5">
+        <v>67720230100</v>
+      </c>
+      <c r="S5">
+        <v>7221500</v>
+      </c>
+      <c r="T5">
+        <v>4676600</v>
+      </c>
+      <c r="U5">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V5">
+        <v>22948124031</v>
+      </c>
+      <c r="W5">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X5">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y5">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z5">
+        <v>1535944</v>
+      </c>
+      <c r="AA5">
+        <v>13735.3</v>
+      </c>
+      <c r="AB5">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>53404151200</v>
       </c>
+      <c r="Q6">
+        <v>139747580700</v>
+      </c>
+      <c r="R6">
+        <v>86343429500</v>
+      </c>
+      <c r="S6">
+        <v>11108500</v>
+      </c>
+      <c r="T6">
+        <v>5828200</v>
+      </c>
+      <c r="U6">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V6">
+        <v>22948124031</v>
+      </c>
+      <c r="W6">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X6">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y6">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z6">
+        <v>1535944</v>
+      </c>
+      <c r="AA6">
+        <v>13735.3</v>
+      </c>
+      <c r="AB6">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC6">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>42211940200</v>
       </c>
+      <c r="Q7">
+        <v>153476450400</v>
+      </c>
+      <c r="R7">
+        <v>111264510200</v>
+      </c>
+      <c r="S7">
+        <v>12032500</v>
+      </c>
+      <c r="T7">
+        <v>7649300</v>
+      </c>
+      <c r="U7">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V7">
+        <v>22948124031</v>
+      </c>
+      <c r="W7">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X7">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y7">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z7">
+        <v>1535944</v>
+      </c>
+      <c r="AA7">
+        <v>13735.3</v>
+      </c>
+      <c r="AB7">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC7">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>33583875100</v>
       </c>
+      <c r="Q8">
+        <v>163594791900</v>
+      </c>
+      <c r="R8">
+        <v>130010916800</v>
+      </c>
+      <c r="S8">
+        <v>12690600</v>
+      </c>
+      <c r="T8">
+        <v>9009200</v>
+      </c>
+      <c r="U8">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V8">
+        <v>22948124031</v>
+      </c>
+      <c r="W8">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X8">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y8">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z8">
+        <v>1535944</v>
+      </c>
+      <c r="AA8">
+        <v>13735.3</v>
+      </c>
+      <c r="AB8">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC8">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>33544025400</v>
       </c>
+      <c r="Q9">
+        <v>184689725900</v>
+      </c>
+      <c r="R9">
+        <v>151145700500</v>
+      </c>
+      <c r="S9">
+        <v>13847200</v>
+      </c>
+      <c r="T9">
+        <v>10548800</v>
+      </c>
+      <c r="U9">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V9">
+        <v>22948124031</v>
+      </c>
+      <c r="W9">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X9">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y9">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z9">
+        <v>1535944</v>
+      </c>
+      <c r="AA9">
+        <v>13735.3</v>
+      </c>
+      <c r="AB9">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>12239921500</v>
       </c>
+      <c r="Q10">
+        <v>193909711900</v>
+      </c>
+      <c r="R10">
+        <v>181669790400</v>
+      </c>
+      <c r="S10">
+        <v>14408700</v>
+      </c>
+      <c r="T10">
+        <v>12682200</v>
+      </c>
+      <c r="U10">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V10">
+        <v>22948124031</v>
+      </c>
+      <c r="W10">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X10">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y10">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z10">
+        <v>1535944</v>
+      </c>
+      <c r="AA10">
+        <v>13735.3</v>
+      </c>
+      <c r="AB10">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC10">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>2126840000</v>
       </c>
+      <c r="Q11">
+        <v>205824182200</v>
+      </c>
+      <c r="R11">
+        <v>203697342200</v>
+      </c>
+      <c r="S11">
+        <v>15050400</v>
+      </c>
+      <c r="T11">
+        <v>14333700</v>
+      </c>
+      <c r="U11">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V11">
+        <v>22948124031</v>
+      </c>
+      <c r="W11">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X11">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y11">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z11">
+        <v>1535944</v>
+      </c>
+      <c r="AA11">
+        <v>13735.3</v>
+      </c>
+      <c r="AB11">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC11">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-23894181100</v>
       </c>
+      <c r="Q12">
+        <v>213356925700</v>
+      </c>
+      <c r="R12">
+        <v>237251106800</v>
+      </c>
+      <c r="S12">
+        <v>15572500</v>
+      </c>
+      <c r="T12">
+        <v>17733600</v>
+      </c>
+      <c r="U12">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V12">
+        <v>22948124031</v>
+      </c>
+      <c r="W12">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X12">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y12">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z12">
+        <v>1535944</v>
+      </c>
+      <c r="AA12">
+        <v>13735.3</v>
+      </c>
+      <c r="AB12">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC12">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-45844518000</v>
       </c>
+      <c r="Q13">
+        <v>223241416900</v>
+      </c>
+      <c r="R13">
+        <v>269085934900</v>
+      </c>
+      <c r="S13">
+        <v>16234100</v>
+      </c>
+      <c r="T13">
+        <v>20401900</v>
+      </c>
+      <c r="U13">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V13">
+        <v>22948124031</v>
+      </c>
+      <c r="W13">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X13">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y13">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z13">
+        <v>1535944</v>
+      </c>
+      <c r="AA13">
+        <v>13735.3</v>
+      </c>
+      <c r="AB13">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC13">
+        <v>8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-50889659000</v>
       </c>
+      <c r="Q14">
+        <v>236850141200</v>
+      </c>
+      <c r="R14">
+        <v>287739800200</v>
+      </c>
+      <c r="S14">
+        <v>17078300</v>
+      </c>
+      <c r="T14">
+        <v>21845600</v>
+      </c>
+      <c r="U14">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V14">
+        <v>22948124031</v>
+      </c>
+      <c r="W14">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X14">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y14">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z14">
+        <v>1535944</v>
+      </c>
+      <c r="AA14">
+        <v>13735.3</v>
+      </c>
+      <c r="AB14">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC14">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-57877512100</v>
       </c>
+      <c r="Q15">
+        <v>247950786500</v>
+      </c>
+      <c r="R15">
+        <v>305828298600</v>
+      </c>
+      <c r="S15">
+        <v>18174900</v>
+      </c>
+      <c r="T15">
+        <v>22997500</v>
+      </c>
+      <c r="U15">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V15">
+        <v>22948124031</v>
+      </c>
+      <c r="W15">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X15">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y15">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z15">
+        <v>1535944</v>
+      </c>
+      <c r="AA15">
+        <v>13735.3</v>
+      </c>
+      <c r="AB15">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC15">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-47177888800</v>
       </c>
+      <c r="Q16">
+        <v>270295138400</v>
+      </c>
+      <c r="R16">
+        <v>317473027200</v>
+      </c>
+      <c r="S16">
+        <v>19708500</v>
+      </c>
+      <c r="T16">
+        <v>23792600</v>
+      </c>
+      <c r="U16">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V16">
+        <v>22948124031</v>
+      </c>
+      <c r="W16">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X16">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y16">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z16">
+        <v>1535944</v>
+      </c>
+      <c r="AA16">
+        <v>13735.3</v>
+      </c>
+      <c r="AB16">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC16">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-17896937000</v>
       </c>
+      <c r="Q17">
+        <v>309303473000</v>
+      </c>
+      <c r="R17">
+        <v>327200410000</v>
+      </c>
+      <c r="S17">
+        <v>21993200</v>
+      </c>
+      <c r="T17">
+        <v>24552900</v>
+      </c>
+      <c r="U17">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V17">
+        <v>22948124031</v>
+      </c>
+      <c r="W17">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X17">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y17">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z17">
+        <v>1535944</v>
+      </c>
+      <c r="AA17">
+        <v>13735.3</v>
+      </c>
+      <c r="AB17">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC17">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-4055511000</v>
       </c>
+      <c r="Q18">
+        <v>332979156700</v>
+      </c>
+      <c r="R18">
+        <v>337034667700</v>
+      </c>
+      <c r="S18">
+        <v>23648100</v>
+      </c>
+      <c r="T18">
+        <v>25270300</v>
+      </c>
+      <c r="U18">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V18">
+        <v>22948124031</v>
+      </c>
+      <c r="W18">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X18">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y18">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z18">
+        <v>1535944</v>
+      </c>
+      <c r="AA18">
+        <v>13735.3</v>
+      </c>
+      <c r="AB18">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC18">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-800032100</v>
       </c>
+      <c r="Q19">
+        <v>347352762800</v>
+      </c>
+      <c r="R19">
+        <v>348152794900</v>
+      </c>
+      <c r="S19">
+        <v>24698800</v>
+      </c>
+      <c r="T19">
+        <v>26144700</v>
+      </c>
+      <c r="U19">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V19">
+        <v>22948124031</v>
+      </c>
+      <c r="W19">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X19">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y19">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z19">
+        <v>1535944</v>
+      </c>
+      <c r="AA19">
+        <v>13735.3</v>
+      </c>
+      <c r="AB19">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC19">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>2728921400</v>
       </c>
+      <c r="Q20">
+        <v>364746488100</v>
+      </c>
+      <c r="R20">
+        <v>362017566700</v>
+      </c>
+      <c r="S20">
+        <v>25682800</v>
+      </c>
+      <c r="T20">
+        <v>27029800</v>
+      </c>
+      <c r="U20">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V20">
+        <v>22948124031</v>
+      </c>
+      <c r="W20">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X20">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y20">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z20">
+        <v>1535944</v>
+      </c>
+      <c r="AA20">
+        <v>13735.3</v>
+      </c>
+      <c r="AB20">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC20">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-10394400200</v>
       </c>
+      <c r="Q21">
+        <v>373645153300</v>
+      </c>
+      <c r="R21">
+        <v>384039553500</v>
+      </c>
+      <c r="S21">
+        <v>26317500</v>
+      </c>
+      <c r="T21">
+        <v>29308400</v>
+      </c>
+      <c r="U21">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V21">
+        <v>22948124031</v>
+      </c>
+      <c r="W21">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X21">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y21">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z21">
+        <v>1535944</v>
+      </c>
+      <c r="AA21">
+        <v>13735.3</v>
+      </c>
+      <c r="AB21">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC21">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-21301585900</v>
       </c>
+      <c r="Q22">
+        <v>382618772900</v>
+      </c>
+      <c r="R22">
+        <v>403920358800</v>
+      </c>
+      <c r="S22">
+        <v>26921000</v>
+      </c>
+      <c r="T22">
+        <v>31059600</v>
+      </c>
+      <c r="U22">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V22">
+        <v>22948124031</v>
+      </c>
+      <c r="W22">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X22">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y22">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z22">
+        <v>1535944</v>
+      </c>
+      <c r="AA22">
+        <v>13735.3</v>
+      </c>
+      <c r="AB22">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC22">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-27750641900</v>
       </c>
+      <c r="Q23">
+        <v>394918788200</v>
+      </c>
+      <c r="R23">
+        <v>422669430100</v>
+      </c>
+      <c r="S23">
+        <v>27939400</v>
+      </c>
+      <c r="T23">
+        <v>32952700</v>
+      </c>
+      <c r="U23">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V23">
+        <v>22948124031</v>
+      </c>
+      <c r="W23">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X23">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y23">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z23">
+        <v>1535944</v>
+      </c>
+      <c r="AA23">
+        <v>13735.3</v>
+      </c>
+      <c r="AB23">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC23">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-46253975000</v>
       </c>
+      <c r="Q24">
+        <v>404859332100</v>
+      </c>
+      <c r="R24">
+        <v>451113307100</v>
+      </c>
+      <c r="S24">
+        <v>28662900</v>
+      </c>
+      <c r="T24">
+        <v>35251700</v>
+      </c>
+      <c r="U24">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V24">
+        <v>22948124031</v>
+      </c>
+      <c r="W24">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X24">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y24">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z24">
+        <v>1535944</v>
+      </c>
+      <c r="AA24">
+        <v>13735.3</v>
+      </c>
+      <c r="AB24">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC24">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-63954550500</v>
       </c>
+      <c r="Q25">
+        <v>418032132900</v>
+      </c>
+      <c r="R25">
+        <v>481986683400</v>
+      </c>
+      <c r="S25">
+        <v>29745900</v>
+      </c>
+      <c r="T25">
+        <v>37353400</v>
+      </c>
+      <c r="U25">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V25">
+        <v>22948124031</v>
+      </c>
+      <c r="W25">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X25">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y25">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z25">
+        <v>1535944</v>
+      </c>
+      <c r="AA25">
+        <v>13735.3</v>
+      </c>
+      <c r="AB25">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC25">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-64960722700</v>
       </c>
+      <c r="Q26">
+        <v>436550603700</v>
+      </c>
+      <c r="R26">
+        <v>501511326400</v>
+      </c>
+      <c r="S26">
+        <v>30735200</v>
+      </c>
+      <c r="T26">
+        <v>38668800</v>
+      </c>
+      <c r="U26">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V26">
+        <v>22948124031</v>
+      </c>
+      <c r="W26">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X26">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y26">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z26">
+        <v>1535944</v>
+      </c>
+      <c r="AA26">
+        <v>13735.3</v>
+      </c>
+      <c r="AB26">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC26">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-72129463100</v>
       </c>
+      <c r="Q27">
+        <v>448786135500</v>
+      </c>
+      <c r="R27">
+        <v>520915598600</v>
+      </c>
+      <c r="S27">
+        <v>31554500</v>
+      </c>
+      <c r="T27">
+        <v>40110500</v>
+      </c>
+      <c r="U27">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V27">
+        <v>22948124031</v>
+      </c>
+      <c r="W27">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X27">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y27">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z27">
+        <v>1535944</v>
+      </c>
+      <c r="AA27">
+        <v>13735.3</v>
+      </c>
+      <c r="AB27">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC27">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-79622375800</v>
       </c>
+      <c r="Q28">
+        <v>462612162900</v>
+      </c>
+      <c r="R28">
+        <v>542234538700</v>
+      </c>
+      <c r="S28">
+        <v>32391600</v>
+      </c>
+      <c r="T28">
+        <v>41362300</v>
+      </c>
+      <c r="U28">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V28">
+        <v>22948124031</v>
+      </c>
+      <c r="W28">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X28">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y28">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z28">
+        <v>1535944</v>
+      </c>
+      <c r="AA28">
+        <v>13735.3</v>
+      </c>
+      <c r="AB28">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC28">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-78080035500</v>
       </c>
+      <c r="Q29">
+        <v>479396696400</v>
+      </c>
+      <c r="R29">
+        <v>557476731900</v>
+      </c>
+      <c r="S29">
+        <v>33498700</v>
+      </c>
+      <c r="T29">
+        <v>42654700</v>
+      </c>
+      <c r="U29">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V29">
+        <v>22948124031</v>
+      </c>
+      <c r="W29">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X29">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y29">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z29">
+        <v>1535944</v>
+      </c>
+      <c r="AA29">
+        <v>13735.3</v>
+      </c>
+      <c r="AB29">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC29">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-73328263100</v>
       </c>
+      <c r="Q30">
+        <v>499549955100</v>
+      </c>
+      <c r="R30">
+        <v>572878218200</v>
+      </c>
+      <c r="S30">
+        <v>34727400</v>
+      </c>
+      <c r="T30">
+        <v>43620700</v>
+      </c>
+      <c r="U30">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V30">
+        <v>22948124031</v>
+      </c>
+      <c r="W30">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X30">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y30">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z30">
+        <v>1535944</v>
+      </c>
+      <c r="AA30">
+        <v>13735.3</v>
+      </c>
+      <c r="AB30">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC30">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-73977037400</v>
       </c>
+      <c r="Q31">
+        <v>510453952000</v>
+      </c>
+      <c r="R31">
+        <v>584430989400</v>
+      </c>
+      <c r="S31">
+        <v>35495600</v>
+      </c>
+      <c r="T31">
+        <v>44444600</v>
+      </c>
+      <c r="U31">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V31">
+        <v>22948124031</v>
+      </c>
+      <c r="W31">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X31">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y31">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z31">
+        <v>1535944</v>
+      </c>
+      <c r="AA31">
+        <v>13735.3</v>
+      </c>
+      <c r="AB31">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC31">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-83153340000</v>
       </c>
+      <c r="Q32">
+        <v>521708399300</v>
+      </c>
+      <c r="R32">
+        <v>604861739300</v>
+      </c>
+      <c r="S32">
+        <v>36214000</v>
+      </c>
+      <c r="T32">
+        <v>45956400</v>
+      </c>
+      <c r="U32">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V32">
+        <v>22948124031</v>
+      </c>
+      <c r="W32">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X32">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y32">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z32">
+        <v>1535944</v>
+      </c>
+      <c r="AA32">
+        <v>13735.3</v>
+      </c>
+      <c r="AB32">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC32">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-95558051500</v>
       </c>
+      <c r="Q33">
+        <v>536719505500</v>
+      </c>
+      <c r="R33">
+        <v>632277557000</v>
+      </c>
+      <c r="S33">
+        <v>37212500</v>
+      </c>
+      <c r="T33">
+        <v>47910700</v>
+      </c>
+      <c r="U33">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V33">
+        <v>22948124031</v>
+      </c>
+      <c r="W33">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X33">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y33">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z33">
+        <v>1535944</v>
+      </c>
+      <c r="AA33">
+        <v>13735.3</v>
+      </c>
+      <c r="AB33">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC33">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-119806515100</v>
       </c>
+      <c r="Q34">
+        <v>542878587100</v>
+      </c>
+      <c r="R34">
+        <v>662685102200</v>
+      </c>
+      <c r="S34">
+        <v>37630600</v>
+      </c>
+      <c r="T34">
+        <v>49955400</v>
+      </c>
+      <c r="U34">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V34">
+        <v>22948124031</v>
+      </c>
+      <c r="W34">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X34">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y34">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z34">
+        <v>1535944</v>
+      </c>
+      <c r="AA34">
+        <v>13735.3</v>
+      </c>
+      <c r="AB34">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC34">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-148233948300</v>
       </c>
+      <c r="Q35">
+        <v>549339128100</v>
+      </c>
+      <c r="R35">
+        <v>697573076400</v>
+      </c>
+      <c r="S35">
+        <v>38031500</v>
+      </c>
+      <c r="T35">
+        <v>52775800</v>
+      </c>
+      <c r="U35">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V35">
+        <v>22948124031</v>
+      </c>
+      <c r="W35">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X35">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y35">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z35">
+        <v>1535944</v>
+      </c>
+      <c r="AA35">
+        <v>13735.3</v>
+      </c>
+      <c r="AB35">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC35">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-167705101500</v>
       </c>
+      <c r="Q36">
+        <v>559061147100</v>
+      </c>
+      <c r="R36">
+        <v>726766248600</v>
+      </c>
+      <c r="S36">
+        <v>38744400</v>
+      </c>
+      <c r="T36">
+        <v>54762300</v>
+      </c>
+      <c r="U36">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V36">
+        <v>22948124031</v>
+      </c>
+      <c r="W36">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X36">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y36">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z36">
+        <v>1535944</v>
+      </c>
+      <c r="AA36">
+        <v>13735.3</v>
+      </c>
+      <c r="AB36">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC36">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-176031538400</v>
       </c>
+      <c r="Q37">
+        <v>572769518900</v>
+      </c>
+      <c r="R37">
+        <v>748801057300</v>
+      </c>
+      <c r="S37">
+        <v>39560300</v>
+      </c>
+      <c r="T37">
+        <v>56632500</v>
+      </c>
+      <c r="U37">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V37">
+        <v>22948124031</v>
+      </c>
+      <c r="W37">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X37">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y37">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z37">
+        <v>1535944</v>
+      </c>
+      <c r="AA37">
+        <v>13735.3</v>
+      </c>
+      <c r="AB37">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC37">
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-174914729800</v>
       </c>
+      <c r="Q38">
+        <v>586682026300</v>
+      </c>
+      <c r="R38">
+        <v>761596756100</v>
+      </c>
+      <c r="S38">
+        <v>40615800</v>
+      </c>
+      <c r="T38">
+        <v>58502000</v>
+      </c>
+      <c r="U38">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V38">
+        <v>22948124031</v>
+      </c>
+      <c r="W38">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X38">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y38">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z38">
+        <v>1535944</v>
+      </c>
+      <c r="AA38">
+        <v>13735.3</v>
+      </c>
+      <c r="AB38">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC38">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-177042109400</v>
       </c>
+      <c r="Q39">
+        <v>598036589700</v>
+      </c>
+      <c r="R39">
+        <v>775078699100</v>
+      </c>
+      <c r="S39">
+        <v>41457900</v>
+      </c>
+      <c r="T39">
+        <v>59578700</v>
+      </c>
+      <c r="U39">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V39">
+        <v>22948124031</v>
+      </c>
+      <c r="W39">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X39">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y39">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z39">
+        <v>1535944</v>
+      </c>
+      <c r="AA39">
+        <v>13735.3</v>
+      </c>
+      <c r="AB39">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC39">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-193606874200</v>
       </c>
+      <c r="Q40">
+        <v>610228363800</v>
+      </c>
+      <c r="R40">
+        <v>803835238000</v>
+      </c>
+      <c r="S40">
+        <v>42221900</v>
+      </c>
+      <c r="T40">
+        <v>61345100</v>
+      </c>
+      <c r="U40">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V40">
+        <v>22948124031</v>
+      </c>
+      <c r="W40">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X40">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y40">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z40">
+        <v>1535944</v>
+      </c>
+      <c r="AA40">
+        <v>13735.3</v>
+      </c>
+      <c r="AB40">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC40">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-203864156200</v>
       </c>
+      <c r="Q41">
+        <v>624193942900</v>
+      </c>
+      <c r="R41">
+        <v>828058099100</v>
+      </c>
+      <c r="S41">
+        <v>43015100</v>
+      </c>
+      <c r="T41">
+        <v>63076000</v>
+      </c>
+      <c r="U41">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V41">
+        <v>22948124031</v>
+      </c>
+      <c r="W41">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X41">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y41">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z41">
+        <v>1535944</v>
+      </c>
+      <c r="AA41">
+        <v>13735.3</v>
+      </c>
+      <c r="AB41">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC41">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-211233868000</v>
       </c>
+      <c r="Q42">
+        <v>634821035700</v>
+      </c>
+      <c r="R42">
+        <v>846054903700</v>
+      </c>
+      <c r="S42">
+        <v>43679500</v>
+      </c>
+      <c r="T42">
+        <v>64620300</v>
+      </c>
+      <c r="U42">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V42">
+        <v>22948124031</v>
+      </c>
+      <c r="W42">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X42">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y42">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z42">
+        <v>1535944</v>
+      </c>
+      <c r="AA42">
+        <v>13735.3</v>
+      </c>
+      <c r="AB42">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC42">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-218528815000</v>
       </c>
+      <c r="Q43">
+        <v>647304122600</v>
+      </c>
+      <c r="R43">
+        <v>865832937600</v>
+      </c>
+      <c r="S43">
+        <v>44321800</v>
+      </c>
+      <c r="T43">
+        <v>66363300</v>
+      </c>
+      <c r="U43">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V43">
+        <v>22948124031</v>
+      </c>
+      <c r="W43">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X43">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y43">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z43">
+        <v>1535944</v>
+      </c>
+      <c r="AA43">
+        <v>13735.3</v>
+      </c>
+      <c r="AB43">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC43">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-225792019000</v>
       </c>
+      <c r="Q44">
+        <v>657265324300</v>
+      </c>
+      <c r="R44">
+        <v>883057343300</v>
+      </c>
+      <c r="S44">
+        <v>44997900</v>
+      </c>
+      <c r="T44">
+        <v>67672500</v>
+      </c>
+      <c r="U44">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V44">
+        <v>22948124031</v>
+      </c>
+      <c r="W44">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X44">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y44">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z44">
+        <v>1535944</v>
+      </c>
+      <c r="AA44">
+        <v>13735.3</v>
+      </c>
+      <c r="AB44">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC44">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-233047784300</v>
       </c>
+      <c r="Q45">
+        <v>664994772200</v>
+      </c>
+      <c r="R45">
+        <v>898042556500</v>
+      </c>
+      <c r="S45">
+        <v>45441500</v>
+      </c>
+      <c r="T45">
+        <v>68671100</v>
+      </c>
+      <c r="U45">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V45">
+        <v>22948124031</v>
+      </c>
+      <c r="W45">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X45">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y45">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z45">
+        <v>1535944</v>
+      </c>
+      <c r="AA45">
+        <v>13735.3</v>
+      </c>
+      <c r="AB45">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC45">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-238437758400</v>
       </c>
+      <c r="Q46">
+        <v>677727140300</v>
+      </c>
+      <c r="R46">
+        <v>916164898700</v>
+      </c>
+      <c r="S46">
+        <v>46119800</v>
+      </c>
+      <c r="T46">
+        <v>69751200</v>
+      </c>
+      <c r="U46">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V46">
+        <v>22948124031</v>
+      </c>
+      <c r="W46">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X46">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y46">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z46">
+        <v>1535944</v>
+      </c>
+      <c r="AA46">
+        <v>13735.3</v>
+      </c>
+      <c r="AB46">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-238805019600</v>
       </c>
+      <c r="Q47">
+        <v>691615543400</v>
+      </c>
+      <c r="R47">
+        <v>930420563000</v>
+      </c>
+      <c r="S47">
+        <v>46916600</v>
+      </c>
+      <c r="T47">
+        <v>70609300</v>
+      </c>
+      <c r="U47">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V47">
+        <v>22948124031</v>
+      </c>
+      <c r="W47">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X47">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y47">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z47">
+        <v>1535944</v>
+      </c>
+      <c r="AA47">
+        <v>13735.3</v>
+      </c>
+      <c r="AB47">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC47">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-244210217100</v>
       </c>
+      <c r="Q48">
+        <v>703496613800</v>
+      </c>
+      <c r="R48">
+        <v>947706830900</v>
+      </c>
+      <c r="S48">
+        <v>47730000</v>
+      </c>
+      <c r="T48">
+        <v>71848700</v>
+      </c>
+      <c r="U48">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V48">
+        <v>22948124031</v>
+      </c>
+      <c r="W48">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X48">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y48">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z48">
+        <v>1535944</v>
+      </c>
+      <c r="AA48">
+        <v>13735.3</v>
+      </c>
+      <c r="AB48">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC48">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-251018004200</v>
       </c>
+      <c r="Q49">
+        <v>713921625200</v>
+      </c>
+      <c r="R49">
+        <v>964939629400</v>
+      </c>
+      <c r="S49">
+        <v>48417300</v>
+      </c>
+      <c r="T49">
+        <v>73136300</v>
+      </c>
+      <c r="U49">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V49">
+        <v>22948124031</v>
+      </c>
+      <c r="W49">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X49">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y49">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z49">
+        <v>1535944</v>
+      </c>
+      <c r="AA49">
+        <v>13735.3</v>
+      </c>
+      <c r="AB49">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC49">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-245643769200</v>
       </c>
+      <c r="Q50">
+        <v>727324444700</v>
+      </c>
+      <c r="R50">
+        <v>972968213900</v>
+      </c>
+      <c r="S50">
+        <v>49112900</v>
+      </c>
+      <c r="T50">
+        <v>73699500</v>
+      </c>
+      <c r="U50">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V50">
+        <v>22948124031</v>
+      </c>
+      <c r="W50">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X50">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y50">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z50">
+        <v>1535944</v>
+      </c>
+      <c r="AA50">
+        <v>13735.3</v>
+      </c>
+      <c r="AB50">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC50">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-240309013300</v>
       </c>
+      <c r="Q51">
+        <v>744014160400</v>
+      </c>
+      <c r="R51">
+        <v>984323173700</v>
+      </c>
+      <c r="S51">
+        <v>50277100</v>
+      </c>
+      <c r="T51">
+        <v>74340900</v>
+      </c>
+      <c r="U51">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V51">
+        <v>22948124031</v>
+      </c>
+      <c r="W51">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X51">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y51">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z51">
+        <v>1535944</v>
+      </c>
+      <c r="AA51">
+        <v>13735.3</v>
+      </c>
+      <c r="AB51">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC51">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-211187317800</v>
       </c>
+      <c r="Q52">
+        <v>779751580100</v>
+      </c>
+      <c r="R52">
+        <v>990938897900</v>
+      </c>
+      <c r="S52">
+        <v>52976100</v>
+      </c>
+      <c r="T52">
+        <v>74845900</v>
+      </c>
+      <c r="U52">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V52">
+        <v>22948124031</v>
+      </c>
+      <c r="W52">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X52">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y52">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z52">
+        <v>1535944</v>
+      </c>
+      <c r="AA52">
+        <v>13735.3</v>
+      </c>
+      <c r="AB52">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC52">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-183586328700</v>
       </c>
+      <c r="Q53">
+        <v>818620039800</v>
+      </c>
+      <c r="R53">
+        <v>1002206368500</v>
+      </c>
+      <c r="S53">
+        <v>55446100</v>
+      </c>
+      <c r="T53">
+        <v>75721300</v>
+      </c>
+      <c r="U53">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V53">
+        <v>22948124031</v>
+      </c>
+      <c r="W53">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X53">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y53">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z53">
+        <v>1535944</v>
+      </c>
+      <c r="AA53">
+        <v>13735.3</v>
+      </c>
+      <c r="AB53">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC53">
+        <v>10</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-145259845500</v>
       </c>
+      <c r="Q54">
+        <v>872314580400</v>
+      </c>
+      <c r="R54">
+        <v>1017574425900</v>
+      </c>
+      <c r="S54">
+        <v>59207000</v>
+      </c>
+      <c r="T54">
+        <v>76789200</v>
+      </c>
+      <c r="U54">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V54">
+        <v>22948124031</v>
+      </c>
+      <c r="W54">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X54">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y54">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z54">
+        <v>1535944</v>
+      </c>
+      <c r="AA54">
+        <v>13735.3</v>
+      </c>
+      <c r="AB54">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC54">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-108299561400</v>
       </c>
+      <c r="Q55">
+        <v>918454163100</v>
+      </c>
+      <c r="R55">
+        <v>1026753724500</v>
+      </c>
+      <c r="S55">
+        <v>62095100</v>
+      </c>
+      <c r="T55">
+        <v>77700800</v>
+      </c>
+      <c r="U55">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V55">
+        <v>22948124031</v>
+      </c>
+      <c r="W55">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X55">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y55">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z55">
+        <v>1535944</v>
+      </c>
+      <c r="AA55">
+        <v>13735.3</v>
+      </c>
+      <c r="AB55">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC55">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-97287267500</v>
       </c>
+      <c r="Q56">
+        <v>947084052800</v>
+      </c>
+      <c r="R56">
+        <v>1044371320300</v>
+      </c>
+      <c r="S56">
+        <v>63863800</v>
+      </c>
+      <c r="T56">
+        <v>78815400</v>
+      </c>
+      <c r="U56">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V56">
+        <v>22948124031</v>
+      </c>
+      <c r="W56">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X56">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y56">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z56">
+        <v>1535944</v>
+      </c>
+      <c r="AA56">
+        <v>13735.3</v>
+      </c>
+      <c r="AB56">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC56">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-93742934700</v>
       </c>
+      <c r="Q57">
+        <v>967719897500</v>
+      </c>
+      <c r="R57">
+        <v>1061462832200</v>
+      </c>
+      <c r="S57">
+        <v>65044700</v>
+      </c>
+      <c r="T57">
+        <v>79841800</v>
+      </c>
+      <c r="U57">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V57">
+        <v>22948124031</v>
+      </c>
+      <c r="W57">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X57">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y57">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z57">
+        <v>1535944</v>
+      </c>
+      <c r="AA57">
+        <v>13735.3</v>
+      </c>
+      <c r="AB57">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC57">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-95296103000</v>
       </c>
+      <c r="Q58">
+        <v>982248368800</v>
+      </c>
+      <c r="R58">
+        <v>1077544471800</v>
+      </c>
+      <c r="S58">
+        <v>65957100</v>
+      </c>
+      <c r="T58">
+        <v>80986900</v>
+      </c>
+      <c r="U58">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V58">
+        <v>22948124031</v>
+      </c>
+      <c r="W58">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X58">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y58">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z58">
+        <v>1535944</v>
+      </c>
+      <c r="AA58">
+        <v>13735.3</v>
+      </c>
+      <c r="AB58">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC58">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-94625814300</v>
       </c>
+      <c r="Q59">
+        <v>996890312800</v>
+      </c>
+      <c r="R59">
+        <v>1091516127100</v>
+      </c>
+      <c r="S59">
+        <v>66785700</v>
+      </c>
+      <c r="T59">
+        <v>81926700</v>
+      </c>
+      <c r="U59">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V59">
+        <v>22948124031</v>
+      </c>
+      <c r="W59">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X59">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y59">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z59">
+        <v>1535944</v>
+      </c>
+      <c r="AA59">
+        <v>13735.3</v>
+      </c>
+      <c r="AB59">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC59">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-91029131600</v>
       </c>
+      <c r="Q60">
+        <v>1012455438500</v>
+      </c>
+      <c r="R60">
+        <v>1103484570100</v>
+      </c>
+      <c r="S60">
+        <v>67569800</v>
+      </c>
+      <c r="T60">
+        <v>82861000</v>
+      </c>
+      <c r="U60">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V60">
+        <v>22948124031</v>
+      </c>
+      <c r="W60">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X60">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y60">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z60">
+        <v>1535944</v>
+      </c>
+      <c r="AA60">
+        <v>13735.3</v>
+      </c>
+      <c r="AB60">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC60">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-95410670600</v>
       </c>
+      <c r="Q61">
+        <v>1028809180300</v>
+      </c>
+      <c r="R61">
+        <v>1124219850900</v>
+      </c>
+      <c r="S61">
+        <v>68312700</v>
+      </c>
+      <c r="T61">
+        <v>84182300</v>
+      </c>
+      <c r="U61">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V61">
+        <v>22948124031</v>
+      </c>
+      <c r="W61">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X61">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y61">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z61">
+        <v>1535944</v>
+      </c>
+      <c r="AA61">
+        <v>13735.3</v>
+      </c>
+      <c r="AB61">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC61">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-102749645100</v>
       </c>
+      <c r="Q62">
+        <v>1041387849600</v>
+      </c>
+      <c r="R62">
+        <v>1144137494700</v>
+      </c>
+      <c r="S62">
+        <v>69055400</v>
+      </c>
+      <c r="T62">
+        <v>85304700</v>
+      </c>
+      <c r="U62">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V62">
+        <v>22948124031</v>
+      </c>
+      <c r="W62">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X62">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y62">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z62">
+        <v>1535944</v>
+      </c>
+      <c r="AA62">
+        <v>13735.3</v>
+      </c>
+      <c r="AB62">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC62">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-112876312300</v>
       </c>
+      <c r="Q63">
+        <v>1049520141300</v>
+      </c>
+      <c r="R63">
+        <v>1162396453600</v>
+      </c>
+      <c r="S63">
+        <v>69526300</v>
+      </c>
+      <c r="T63">
+        <v>86506600</v>
+      </c>
+      <c r="U63">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V63">
+        <v>22948124031</v>
+      </c>
+      <c r="W63">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X63">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y63">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z63">
+        <v>1535944</v>
+      </c>
+      <c r="AA63">
+        <v>13735.3</v>
+      </c>
+      <c r="AB63">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC63">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-101971529400</v>
       </c>
+      <c r="Q64">
+        <v>1073795050200</v>
+      </c>
+      <c r="R64">
+        <v>1175766579600</v>
+      </c>
+      <c r="S64">
+        <v>70442500</v>
+      </c>
+      <c r="T64">
+        <v>87237600</v>
+      </c>
+      <c r="U64">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V64">
+        <v>22948124031</v>
+      </c>
+      <c r="W64">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X64">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y64">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z64">
+        <v>1535944</v>
+      </c>
+      <c r="AA64">
+        <v>13735.3</v>
+      </c>
+      <c r="AB64">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC64">
+        <v>4</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-81009588700</v>
       </c>
+      <c r="Q65">
+        <v>1106973330500</v>
+      </c>
+      <c r="R65">
+        <v>1187982919200</v>
+      </c>
+      <c r="S65">
+        <v>71717500</v>
+      </c>
+      <c r="T65">
+        <v>87874200</v>
+      </c>
+      <c r="U65">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V65">
+        <v>22948124031</v>
+      </c>
+      <c r="W65">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X65">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y65">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z65">
+        <v>1535944</v>
+      </c>
+      <c r="AA65">
+        <v>13735.3</v>
+      </c>
+      <c r="AB65">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC65">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-65990864800</v>
       </c>
+      <c r="Q66">
+        <v>1136456845300</v>
+      </c>
+      <c r="R66">
+        <v>1202447710100</v>
+      </c>
+      <c r="S66">
+        <v>73127800</v>
+      </c>
+      <c r="T66">
+        <v>88681100</v>
+      </c>
+      <c r="U66">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V66">
+        <v>22948124031</v>
+      </c>
+      <c r="W66">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X66">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y66">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z66">
+        <v>1535944</v>
+      </c>
+      <c r="AA66">
+        <v>13735.3</v>
+      </c>
+      <c r="AB66">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC66">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-49540486000</v>
       </c>
+      <c r="Q67">
+        <v>1170144144200</v>
+      </c>
+      <c r="R67">
+        <v>1219684630200</v>
+      </c>
+      <c r="S67">
+        <v>74873700</v>
+      </c>
+      <c r="T67">
+        <v>89745000</v>
+      </c>
+      <c r="U67">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V67">
+        <v>22948124031</v>
+      </c>
+      <c r="W67">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X67">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y67">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z67">
+        <v>1535944</v>
+      </c>
+      <c r="AA67">
+        <v>13735.3</v>
+      </c>
+      <c r="AB67">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC67">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-48771032300</v>
       </c>
+      <c r="Q68">
+        <v>1193618981400</v>
+      </c>
+      <c r="R68">
+        <v>1242390013700</v>
+      </c>
+      <c r="S68">
+        <v>75971300</v>
+      </c>
+      <c r="T68">
+        <v>90892000</v>
+      </c>
+      <c r="U68">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V68">
+        <v>22948124031</v>
+      </c>
+      <c r="W68">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X68">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y68">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z68">
+        <v>1535944</v>
+      </c>
+      <c r="AA68">
+        <v>13735.3</v>
+      </c>
+      <c r="AB68">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC68">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-39527219300</v>
       </c>
+      <c r="Q69">
+        <v>1209237715500</v>
+      </c>
+      <c r="R69">
+        <v>1248764934800</v>
+      </c>
+      <c r="S69">
+        <v>76749500</v>
+      </c>
+      <c r="T69">
+        <v>91264500</v>
+      </c>
+      <c r="U69">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V69">
+        <v>22948124031</v>
+      </c>
+      <c r="W69">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X69">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y69">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z69">
+        <v>1535944</v>
+      </c>
+      <c r="AA69">
+        <v>13735.3</v>
+      </c>
+      <c r="AB69">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC69">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-39576526900</v>
       </c>
+      <c r="Q70">
+        <v>1209296607900</v>
+      </c>
+      <c r="R70">
+        <v>1248873134800</v>
+      </c>
+      <c r="S70">
+        <v>76758300</v>
+      </c>
+      <c r="T70">
+        <v>91266500</v>
+      </c>
+      <c r="U70">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V70">
+        <v>22948124031</v>
+      </c>
+      <c r="W70">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X70">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y70">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z70">
+        <v>1535944</v>
+      </c>
+      <c r="AA70">
+        <v>13735.3</v>
+      </c>
+      <c r="AB70">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-22472048200</v>
       </c>
+      <c r="Q71">
+        <v>1268820883600</v>
+      </c>
+      <c r="R71">
+        <v>1291292931800</v>
+      </c>
+      <c r="S71">
+        <v>80238300</v>
+      </c>
+      <c r="T71">
+        <v>94020300</v>
+      </c>
+      <c r="U71">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V71">
+        <v>22948124031</v>
+      </c>
+      <c r="W71">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X71">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y71">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z71">
+        <v>1535944</v>
+      </c>
+      <c r="AA71">
+        <v>13735.3</v>
+      </c>
+      <c r="AB71">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC71">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-7489191800</v>
       </c>
+      <c r="Q72">
+        <v>1306954659600</v>
+      </c>
+      <c r="R72">
+        <v>1314443851400</v>
+      </c>
+      <c r="S72">
+        <v>82220700</v>
+      </c>
+      <c r="T72">
+        <v>95301600</v>
+      </c>
+      <c r="U72">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V72">
+        <v>22948124031</v>
+      </c>
+      <c r="W72">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X72">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y72">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z72">
+        <v>1535944</v>
+      </c>
+      <c r="AA72">
+        <v>13735.3</v>
+      </c>
+      <c r="AB72">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC72">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-4916090100</v>
       </c>
+      <c r="Q73">
+        <v>1328897022500</v>
+      </c>
+      <c r="R73">
+        <v>1333813112600</v>
+      </c>
+      <c r="S73">
+        <v>83697700</v>
+      </c>
+      <c r="T73">
+        <v>96562300</v>
+      </c>
+      <c r="U73">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V73">
+        <v>22948124031</v>
+      </c>
+      <c r="W73">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X73">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y73">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z73">
+        <v>1535944</v>
+      </c>
+      <c r="AA73">
+        <v>13735.3</v>
+      </c>
+      <c r="AB73">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC73">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>2867703000</v>
       </c>
+      <c r="Q74">
+        <v>1356970172300</v>
+      </c>
+      <c r="R74">
+        <v>1354102469300</v>
+      </c>
+      <c r="S74">
+        <v>85195600</v>
+      </c>
+      <c r="T74">
+        <v>97801900</v>
+      </c>
+      <c r="U74">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V74">
+        <v>22948124031</v>
+      </c>
+      <c r="W74">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X74">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y74">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z74">
+        <v>1535944</v>
+      </c>
+      <c r="AA74">
+        <v>13735.3</v>
+      </c>
+      <c r="AB74">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC74">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>9396203100</v>
       </c>
+      <c r="Q75">
+        <v>1394538894700</v>
+      </c>
+      <c r="R75">
+        <v>1385142691600</v>
+      </c>
+      <c r="S75">
+        <v>87567200</v>
+      </c>
+      <c r="T75">
+        <v>99864800</v>
+      </c>
+      <c r="U75">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V75">
+        <v>22948124031</v>
+      </c>
+      <c r="W75">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X75">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y75">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z75">
+        <v>1535944</v>
+      </c>
+      <c r="AA75">
+        <v>13735.3</v>
+      </c>
+      <c r="AB75">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC75">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>18744615400</v>
       </c>
+      <c r="Q76">
+        <v>1428644521600</v>
+      </c>
+      <c r="R76">
+        <v>1409899906200</v>
+      </c>
+      <c r="S76">
+        <v>89336500</v>
+      </c>
+      <c r="T76">
+        <v>101371700</v>
+      </c>
+      <c r="U76">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V76">
+        <v>22948124031</v>
+      </c>
+      <c r="W76">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X76">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y76">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z76">
+        <v>1535944</v>
+      </c>
+      <c r="AA76">
+        <v>13735.3</v>
+      </c>
+      <c r="AB76">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC76">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>16813496700</v>
       </c>
+      <c r="Q77">
+        <v>1446929416700</v>
+      </c>
+      <c r="R77">
+        <v>1430115920000</v>
+      </c>
+      <c r="S77">
+        <v>90469900</v>
+      </c>
+      <c r="T77">
+        <v>102574200</v>
+      </c>
+      <c r="U77">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V77">
+        <v>22948124031</v>
+      </c>
+      <c r="W77">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X77">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y77">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z77">
+        <v>1535944</v>
+      </c>
+      <c r="AA77">
+        <v>13735.3</v>
+      </c>
+      <c r="AB77">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC77">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>8242924700</v>
       </c>
+      <c r="Q78">
+        <v>1468370792300</v>
+      </c>
+      <c r="R78">
+        <v>1460127867600</v>
+      </c>
+      <c r="S78">
+        <v>91799200</v>
+      </c>
+      <c r="T78">
+        <v>104385000</v>
+      </c>
+      <c r="U78">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V78">
+        <v>22948124031</v>
+      </c>
+      <c r="W78">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X78">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y78">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z78">
+        <v>1535944</v>
+      </c>
+      <c r="AA78">
+        <v>13735.3</v>
+      </c>
+      <c r="AB78">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC78">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>639996300</v>
       </c>
+      <c r="Q79">
+        <v>1486058116700</v>
+      </c>
+      <c r="R79">
+        <v>1485418120400</v>
+      </c>
+      <c r="S79">
+        <v>92861500</v>
+      </c>
+      <c r="T79">
+        <v>105816400</v>
+      </c>
+      <c r="U79">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V79">
+        <v>22948124031</v>
+      </c>
+      <c r="W79">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X79">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y79">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z79">
+        <v>1535944</v>
+      </c>
+      <c r="AA79">
+        <v>13735.3</v>
+      </c>
+      <c r="AB79">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC79">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-12579078100</v>
       </c>
+      <c r="Q80">
+        <v>1503477119400</v>
+      </c>
+      <c r="R80">
+        <v>1516056197500</v>
+      </c>
+      <c r="S80">
+        <v>93877500</v>
+      </c>
+      <c r="T80">
+        <v>107788500</v>
+      </c>
+      <c r="U80">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V80">
+        <v>22948124031</v>
+      </c>
+      <c r="W80">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X80">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y80">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z80">
+        <v>1535944</v>
+      </c>
+      <c r="AA80">
+        <v>13735.3</v>
+      </c>
+      <c r="AB80">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC80">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-42882231200</v>
       </c>
+      <c r="Q81">
+        <v>1521070596900</v>
+      </c>
+      <c r="R81">
+        <v>1563952828100</v>
+      </c>
+      <c r="S81">
+        <v>94794600</v>
+      </c>
+      <c r="T81">
+        <v>111059300</v>
+      </c>
+      <c r="U81">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V81">
+        <v>22948124031</v>
+      </c>
+      <c r="W81">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X81">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y81">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z81">
+        <v>1535944</v>
+      </c>
+      <c r="AA81">
+        <v>13735.3</v>
+      </c>
+      <c r="AB81">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC81">
+        <v>11</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-54152299600</v>
       </c>
+      <c r="Q82">
+        <v>1540238523400</v>
+      </c>
+      <c r="R82">
+        <v>1594390823000</v>
+      </c>
+      <c r="S82">
+        <v>95929400</v>
+      </c>
+      <c r="T82">
+        <v>112980700</v>
+      </c>
+      <c r="U82">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V82">
+        <v>22948124031</v>
+      </c>
+      <c r="W82">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X82">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y82">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z82">
+        <v>1535944</v>
+      </c>
+      <c r="AA82">
+        <v>13735.3</v>
+      </c>
+      <c r="AB82">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC82">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-70955126000</v>
       </c>
+      <c r="Q83">
+        <v>1557076641500</v>
+      </c>
+      <c r="R83">
+        <v>1628031767500</v>
+      </c>
+      <c r="S83">
+        <v>96956500</v>
+      </c>
+      <c r="T83">
+        <v>115142700</v>
+      </c>
+      <c r="U83">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V83">
+        <v>22948124031</v>
+      </c>
+      <c r="W83">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X83">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y83">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z83">
+        <v>1535944</v>
+      </c>
+      <c r="AA83">
+        <v>13735.3</v>
+      </c>
+      <c r="AB83">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC83">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-73180024000</v>
       </c>
+      <c r="Q84">
+        <v>1575632964800</v>
+      </c>
+      <c r="R84">
+        <v>1648812988800</v>
+      </c>
+      <c r="S84">
+        <v>97967200</v>
+      </c>
+      <c r="T84">
+        <v>116465700</v>
+      </c>
+      <c r="U84">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V84">
+        <v>22948124031</v>
+      </c>
+      <c r="W84">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X84">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y84">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z84">
+        <v>1535944</v>
+      </c>
+      <c r="AA84">
+        <v>13735.3</v>
+      </c>
+      <c r="AB84">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC84">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-82037044300</v>
       </c>
+      <c r="Q85">
+        <v>1593685386700</v>
+      </c>
+      <c r="R85">
+        <v>1675722431000</v>
+      </c>
+      <c r="S85">
+        <v>99094500</v>
+      </c>
+      <c r="T85">
+        <v>118110900</v>
+      </c>
+      <c r="U85">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V85">
+        <v>22948124031</v>
+      </c>
+      <c r="W85">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X85">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y85">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z85">
+        <v>1535944</v>
+      </c>
+      <c r="AA85">
+        <v>13735.3</v>
+      </c>
+      <c r="AB85">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC85">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-79679601200</v>
       </c>
+      <c r="Q86">
+        <v>1615491067500</v>
+      </c>
+      <c r="R86">
+        <v>1695170668700</v>
+      </c>
+      <c r="S86">
+        <v>100380100</v>
+      </c>
+      <c r="T86">
+        <v>119144800</v>
+      </c>
+      <c r="U86">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V86">
+        <v>22948124031</v>
+      </c>
+      <c r="W86">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X86">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y86">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z86">
+        <v>1535944</v>
+      </c>
+      <c r="AA86">
+        <v>13735.3</v>
+      </c>
+      <c r="AB86">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC86">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-79544395200</v>
       </c>
+      <c r="Q87">
+        <v>1630012002600</v>
+      </c>
+      <c r="R87">
+        <v>1709556397800</v>
+      </c>
+      <c r="S87">
+        <v>101296500</v>
+      </c>
+      <c r="T87">
+        <v>120106600</v>
+      </c>
+      <c r="U87">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V87">
+        <v>22948124031</v>
+      </c>
+      <c r="W87">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X87">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y87">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z87">
+        <v>1535944</v>
+      </c>
+      <c r="AA87">
+        <v>13735.3</v>
+      </c>
+      <c r="AB87">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-60193770000</v>
       </c>
+      <c r="Q88">
+        <v>1666783605500</v>
+      </c>
+      <c r="R88">
+        <v>1726977375500</v>
+      </c>
+      <c r="S88">
+        <v>103664800</v>
+      </c>
+      <c r="T88">
+        <v>121310300</v>
+      </c>
+      <c r="U88">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V88">
+        <v>22948124031</v>
+      </c>
+      <c r="W88">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X88">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y88">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z88">
+        <v>1535944</v>
+      </c>
+      <c r="AA88">
+        <v>13735.3</v>
+      </c>
+      <c r="AB88">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC88">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-50511899900</v>
       </c>
+      <c r="Q89">
+        <v>1696531395800</v>
+      </c>
+      <c r="R89">
+        <v>1747043295700</v>
+      </c>
+      <c r="S89">
+        <v>105289800</v>
+      </c>
+      <c r="T89">
+        <v>122512200</v>
+      </c>
+      <c r="U89">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V89">
+        <v>22948124031</v>
+      </c>
+      <c r="W89">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X89">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y89">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z89">
+        <v>1535944</v>
+      </c>
+      <c r="AA89">
+        <v>13735.3</v>
+      </c>
+      <c r="AB89">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC89">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-31881518600</v>
       </c>
+      <c r="Q90">
+        <v>1733280576500</v>
+      </c>
+      <c r="R90">
+        <v>1765162095100</v>
+      </c>
+      <c r="S90">
+        <v>107231300</v>
+      </c>
+      <c r="T90">
+        <v>123477400</v>
+      </c>
+      <c r="U90">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V90">
+        <v>22948124031</v>
+      </c>
+      <c r="W90">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X90">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y90">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z90">
+        <v>1535944</v>
+      </c>
+      <c r="AA90">
+        <v>13735.3</v>
+      </c>
+      <c r="AB90">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC90">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-11528119600</v>
       </c>
+      <c r="Q91">
+        <v>1771604459500</v>
+      </c>
+      <c r="R91">
+        <v>1783132579100</v>
+      </c>
+      <c r="S91">
+        <v>109595300</v>
+      </c>
+      <c r="T91">
+        <v>124531000</v>
+      </c>
+      <c r="U91">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V91">
+        <v>22948124031</v>
+      </c>
+      <c r="W91">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X91">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y91">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z91">
+        <v>1535944</v>
+      </c>
+      <c r="AA91">
+        <v>13735.3</v>
+      </c>
+      <c r="AB91">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC91">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>5337104500</v>
       </c>
+      <c r="Q92">
+        <v>1810267211800</v>
+      </c>
+      <c r="R92">
+        <v>1804930107300</v>
+      </c>
+      <c r="S92">
+        <v>111672000</v>
+      </c>
+      <c r="T92">
+        <v>125824300</v>
+      </c>
+      <c r="U92">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V92">
+        <v>22948124031</v>
+      </c>
+      <c r="W92">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X92">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y92">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z92">
+        <v>1535944</v>
+      </c>
+      <c r="AA92">
+        <v>13735.3</v>
+      </c>
+      <c r="AB92">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC92">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>55821945200</v>
       </c>
+      <c r="Q93">
+        <v>1874152965100</v>
+      </c>
+      <c r="R93">
+        <v>1818331019900</v>
+      </c>
+      <c r="S93">
+        <v>115214400</v>
+      </c>
+      <c r="T93">
+        <v>126735500</v>
+      </c>
+      <c r="U93">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V93">
+        <v>22948124031</v>
+      </c>
+      <c r="W93">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X93">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y93">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z93">
+        <v>1535944</v>
+      </c>
+      <c r="AA93">
+        <v>13735.3</v>
+      </c>
+      <c r="AB93">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC93">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>147112709800</v>
       </c>
+      <c r="Q94">
+        <v>1987394514500</v>
+      </c>
+      <c r="R94">
+        <v>1840281804700</v>
+      </c>
+      <c r="S94">
+        <v>121577700</v>
+      </c>
+      <c r="T94">
+        <v>127841900</v>
+      </c>
+      <c r="U94">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V94">
+        <v>22948124031</v>
+      </c>
+      <c r="W94">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X94">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y94">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z94">
+        <v>1535944</v>
+      </c>
+      <c r="AA94">
+        <v>13735.3</v>
+      </c>
+      <c r="AB94">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC94">
+        <v>33.1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>174641721700</v>
       </c>
+      <c r="Q95">
+        <v>2051259166500</v>
+      </c>
+      <c r="R95">
+        <v>1876617444800</v>
+      </c>
+      <c r="S95">
+        <v>126838300</v>
+      </c>
+      <c r="T95">
+        <v>129957200</v>
+      </c>
+      <c r="U95">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V95">
+        <v>22948124031</v>
+      </c>
+      <c r="W95">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X95">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y95">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z95">
+        <v>1535944</v>
+      </c>
+      <c r="AA95">
+        <v>13735.3</v>
+      </c>
+      <c r="AB95">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC95">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>156517498000</v>
       </c>
+      <c r="Q96">
+        <v>2074886976900</v>
+      </c>
+      <c r="R96">
+        <v>1918369478900</v>
+      </c>
+      <c r="S96">
+        <v>128280600</v>
+      </c>
+      <c r="T96">
+        <v>132393500</v>
+      </c>
+      <c r="U96">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V96">
+        <v>22948124031</v>
+      </c>
+      <c r="W96">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X96">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y96">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z96">
+        <v>1535944</v>
+      </c>
+      <c r="AA96">
+        <v>13735.3</v>
+      </c>
+      <c r="AB96">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC96">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>149247813300</v>
       </c>
+      <c r="Q97">
+        <v>2104329110000</v>
+      </c>
+      <c r="R97">
+        <v>1955081296700</v>
+      </c>
+      <c r="S97">
+        <v>129828200</v>
+      </c>
+      <c r="T97">
+        <v>134678400</v>
+      </c>
+      <c r="U97">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V97">
+        <v>22948124031</v>
+      </c>
+      <c r="W97">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X97">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y97">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z97">
+        <v>1535944</v>
+      </c>
+      <c r="AA97">
+        <v>13735.3</v>
+      </c>
+      <c r="AB97">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC97">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>149596153300</v>
       </c>
+      <c r="Q98">
+        <v>2129108776600</v>
+      </c>
+      <c r="R98">
+        <v>1979512623300</v>
+      </c>
+      <c r="S98">
+        <v>131260300</v>
+      </c>
+      <c r="T98">
+        <v>136078500</v>
+      </c>
+      <c r="U98">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V98">
+        <v>22948124031</v>
+      </c>
+      <c r="W98">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X98">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y98">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z98">
+        <v>1535944</v>
+      </c>
+      <c r="AA98">
+        <v>13735.3</v>
+      </c>
+      <c r="AB98">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC98">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>150707234800</v>
       </c>
+      <c r="Q99">
+        <v>2151421505100</v>
+      </c>
+      <c r="R99">
+        <v>2000714270300</v>
+      </c>
+      <c r="S99">
+        <v>132370700</v>
+      </c>
+      <c r="T99">
+        <v>137309900</v>
+      </c>
+      <c r="U99">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V99">
+        <v>22948124031</v>
+      </c>
+      <c r="W99">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X99">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y99">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z99">
+        <v>1535944</v>
+      </c>
+      <c r="AA99">
+        <v>13735.3</v>
+      </c>
+      <c r="AB99">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC99">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>161567765200</v>
       </c>
+      <c r="Q100">
+        <v>2179200076100</v>
+      </c>
+      <c r="R100">
+        <v>2017632310900</v>
+      </c>
+      <c r="S100">
+        <v>133673300</v>
+      </c>
+      <c r="T100">
+        <v>138293500</v>
+      </c>
+      <c r="U100">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V100">
+        <v>22948124031</v>
+      </c>
+      <c r="W100">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X100">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y100">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z100">
+        <v>1535944</v>
+      </c>
+      <c r="AA100">
+        <v>13735.3</v>
+      </c>
+      <c r="AB100">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC100">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>176898644000</v>
       </c>
+      <c r="Q101">
+        <v>2215228673500</v>
+      </c>
+      <c r="R101">
+        <v>2038330029500</v>
+      </c>
+      <c r="S101">
+        <v>135621200</v>
+      </c>
+      <c r="T101">
+        <v>139353500</v>
+      </c>
+      <c r="U101">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V101">
+        <v>22948124031</v>
+      </c>
+      <c r="W101">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X101">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y101">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z101">
+        <v>1535944</v>
+      </c>
+      <c r="AA101">
+        <v>13735.3</v>
+      </c>
+      <c r="AB101">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC101">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>241685353400</v>
       </c>
+      <c r="Q102">
+        <v>2299871808300</v>
+      </c>
+      <c r="R102">
+        <v>2058186454900</v>
+      </c>
+      <c r="S102">
+        <v>140373800</v>
+      </c>
+      <c r="T102">
+        <v>140492000</v>
+      </c>
+      <c r="U102">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V102">
+        <v>22948124031</v>
+      </c>
+      <c r="W102">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X102">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y102">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z102">
+        <v>1535944</v>
+      </c>
+      <c r="AA102">
+        <v>13735.3</v>
+      </c>
+      <c r="AB102">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC102">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>353429103500</v>
       </c>
+      <c r="Q103">
+        <v>2432349853800</v>
+      </c>
+      <c r="R103">
+        <v>2078920750300</v>
+      </c>
+      <c r="S103">
+        <v>147534500</v>
+      </c>
+      <c r="T103">
+        <v>141676100</v>
+      </c>
+      <c r="U103">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V103">
+        <v>22948124031</v>
+      </c>
+      <c r="W103">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X103">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y103">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z103">
+        <v>1535944</v>
+      </c>
+      <c r="AA103">
+        <v>13735.3</v>
+      </c>
+      <c r="AB103">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC103">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>445822705700</v>
       </c>
+      <c r="Q104">
+        <v>2546809150000</v>
+      </c>
+      <c r="R104">
+        <v>2100986444300</v>
+      </c>
+      <c r="S104">
+        <v>154193200</v>
+      </c>
+      <c r="T104">
+        <v>142935400</v>
+      </c>
+      <c r="U104">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V104">
+        <v>22948124031</v>
+      </c>
+      <c r="W104">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X104">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y104">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z104">
+        <v>1535944</v>
+      </c>
+      <c r="AA104">
+        <v>13735.3</v>
+      </c>
+      <c r="AB104">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC104">
+        <v>33.5</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>463056827000</v>
       </c>
+      <c r="Q105">
+        <v>2606716160800</v>
+      </c>
+      <c r="R105">
+        <v>2143659333800</v>
+      </c>
+      <c r="S105">
+        <v>157737700</v>
+      </c>
+      <c r="T105">
+        <v>145450900</v>
+      </c>
+      <c r="U105">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V105">
+        <v>22948124031</v>
+      </c>
+      <c r="W105">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X105">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y105">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z105">
+        <v>1535944</v>
+      </c>
+      <c r="AA105">
+        <v>13735.3</v>
+      </c>
+      <c r="AB105">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC105">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>432642412000</v>
       </c>
+      <c r="Q106">
+        <v>2637522999000</v>
+      </c>
+      <c r="R106">
+        <v>2204880587000</v>
+      </c>
+      <c r="S106">
+        <v>159738900</v>
+      </c>
+      <c r="T106">
+        <v>149598100</v>
+      </c>
+      <c r="U106">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V106">
+        <v>22948124031</v>
+      </c>
+      <c r="W106">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X106">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y106">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z106">
+        <v>1535944</v>
+      </c>
+      <c r="AA106">
+        <v>13735.3</v>
+      </c>
+      <c r="AB106">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC106">
+        <v>11</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>414257954500</v>
       </c>
+      <c r="Q107">
+        <v>2664581912600</v>
+      </c>
+      <c r="R107">
+        <v>2250323958100</v>
+      </c>
+      <c r="S107">
+        <v>161378200</v>
+      </c>
+      <c r="T107">
+        <v>152607700</v>
+      </c>
+      <c r="U107">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V107">
+        <v>22948124031</v>
+      </c>
+      <c r="W107">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X107">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y107">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z107">
+        <v>1535944</v>
+      </c>
+      <c r="AA107">
+        <v>13735.3</v>
+      </c>
+      <c r="AB107">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC107">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>401960457400</v>
       </c>
+      <c r="Q108">
+        <v>2685649785500</v>
+      </c>
+      <c r="R108">
+        <v>2283689328100</v>
+      </c>
+      <c r="S108">
+        <v>162797000</v>
+      </c>
+      <c r="T108">
+        <v>154587900</v>
+      </c>
+      <c r="U108">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V108">
+        <v>22948124031</v>
+      </c>
+      <c r="W108">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X108">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y108">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z108">
+        <v>1535944</v>
+      </c>
+      <c r="AA108">
+        <v>13735.3</v>
+      </c>
+      <c r="AB108">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC108">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>409727558300</v>
       </c>
+      <c r="Q109">
+        <v>2719364234300</v>
+      </c>
+      <c r="R109">
+        <v>2309636676000</v>
+      </c>
+      <c r="S109">
+        <v>164728600</v>
+      </c>
+      <c r="T109">
+        <v>156128500</v>
+      </c>
+      <c r="U109">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V109">
+        <v>22948124031</v>
+      </c>
+      <c r="W109">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X109">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y109">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z109">
+        <v>1535944</v>
+      </c>
+      <c r="AA109">
+        <v>13735.3</v>
+      </c>
+      <c r="AB109">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC109">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>408179370000</v>
       </c>
+      <c r="Q110">
+        <v>2747466670100</v>
+      </c>
+      <c r="R110">
+        <v>2339287300100</v>
+      </c>
+      <c r="S110">
+        <v>166238200</v>
+      </c>
+      <c r="T110">
+        <v>157821700</v>
+      </c>
+      <c r="U110">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V110">
+        <v>22948124031</v>
+      </c>
+      <c r="W110">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X110">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y110">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z110">
+        <v>1535944</v>
+      </c>
+      <c r="AA110">
+        <v>13735.3</v>
+      </c>
+      <c r="AB110">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC110">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>413019945400</v>
       </c>
+      <c r="Q111">
+        <v>2788778300500</v>
+      </c>
+      <c r="R111">
+        <v>2375758355100</v>
+      </c>
+      <c r="S111">
+        <v>168413600</v>
+      </c>
+      <c r="T111">
+        <v>160336800</v>
+      </c>
+      <c r="U111">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V111">
+        <v>22948124031</v>
+      </c>
+      <c r="W111">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X111">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y111">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z111">
+        <v>1535944</v>
+      </c>
+      <c r="AA111">
+        <v>13735.3</v>
+      </c>
+      <c r="AB111">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC111">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>416146654200</v>
       </c>
+      <c r="Q112">
+        <v>2844211604400</v>
+      </c>
+      <c r="R112">
+        <v>2428064950200</v>
+      </c>
+      <c r="S112">
+        <v>171458000</v>
+      </c>
+      <c r="T112">
+        <v>163770300</v>
+      </c>
+      <c r="U112">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V112">
+        <v>22948124031</v>
+      </c>
+      <c r="W112">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X112">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y112">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z112">
+        <v>1535944</v>
+      </c>
+      <c r="AA112">
+        <v>13735.3</v>
+      </c>
+      <c r="AB112">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC112">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>398113896500</v>
       </c>
+      <c r="Q113">
+        <v>2879067218600</v>
+      </c>
+      <c r="R113">
+        <v>2480953322100</v>
+      </c>
+      <c r="S113">
+        <v>173772300</v>
+      </c>
+      <c r="T113">
+        <v>166708700</v>
+      </c>
+      <c r="U113">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V113">
+        <v>22948124031</v>
+      </c>
+      <c r="W113">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X113">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y113">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z113">
+        <v>1535944</v>
+      </c>
+      <c r="AA113">
+        <v>13735.3</v>
+      </c>
+      <c r="AB113">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC113">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>364010277100</v>
       </c>
+      <c r="Q114">
+        <v>2911612337000</v>
+      </c>
+      <c r="R114">
+        <v>2547602059900</v>
+      </c>
+      <c r="S114">
+        <v>175810200</v>
+      </c>
+      <c r="T114">
+        <v>170721500</v>
+      </c>
+      <c r="U114">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V114">
+        <v>22948124031</v>
+      </c>
+      <c r="W114">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X114">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y114">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z114">
+        <v>1535944</v>
+      </c>
+      <c r="AA114">
+        <v>13735.3</v>
+      </c>
+      <c r="AB114">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC114">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>336101532400</v>
       </c>
+      <c r="Q115">
+        <v>2960293189200</v>
+      </c>
+      <c r="R115">
+        <v>2624191656800</v>
+      </c>
+      <c r="S115">
+        <v>178633700</v>
+      </c>
+      <c r="T115">
+        <v>176008400</v>
+      </c>
+      <c r="U115">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V115">
+        <v>22948124031</v>
+      </c>
+      <c r="W115">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X115">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y115">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z115">
+        <v>1535944</v>
+      </c>
+      <c r="AA115">
+        <v>13735.3</v>
+      </c>
+      <c r="AB115">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC115">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>336047402400</v>
       </c>
+      <c r="Q116">
+        <v>2960293189200</v>
+      </c>
+      <c r="R116">
+        <v>2624245786800</v>
+      </c>
+      <c r="S116">
+        <v>178633700</v>
+      </c>
+      <c r="T116">
+        <v>176015600</v>
+      </c>
+      <c r="U116">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V116">
+        <v>22948124031</v>
+      </c>
+      <c r="W116">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X116">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y116">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z116">
+        <v>1535944</v>
+      </c>
+      <c r="AA116">
+        <v>13735.3</v>
+      </c>
+      <c r="AB116">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>320094072500</v>
       </c>
+      <c r="Q117">
+        <v>2982076460100</v>
+      </c>
+      <c r="R117">
+        <v>2661982387600</v>
+      </c>
+      <c r="S117">
+        <v>179762800</v>
+      </c>
+      <c r="T117">
+        <v>178169500</v>
+      </c>
+      <c r="U117">
+        <v>25707555690.5</v>
+      </c>
+      <c r="V117">
+        <v>22948124031</v>
+      </c>
+      <c r="W117">
+        <v>52990802814.7</v>
+      </c>
+      <c r="X117">
+        <v>3352253.4</v>
+      </c>
+      <c r="Y117">
+        <v>1549679.3</v>
+      </c>
+      <c r="Z117">
+        <v>1535944</v>
+      </c>
+      <c r="AA117">
+        <v>13735.3</v>
+      </c>
+      <c r="AB117">
+        <v>2759431659.5</v>
+      </c>
+      <c r="AC117">
+        <v>5.8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>